--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9508502685290329</v>
+        <v>0.9508502685290332</v>
       </c>
       <c r="D2">
         <v>1.01790731042713</v>
       </c>
       <c r="E2">
-        <v>0.9634889996158161</v>
+        <v>0.9634889996158168</v>
       </c>
       <c r="F2">
         <v>0.9719122450600071</v>
@@ -439,13 +439,13 @@
         <v>1.040806413821553</v>
       </c>
       <c r="J2">
-        <v>0.9746074536499819</v>
+        <v>0.9746074536499821</v>
       </c>
       <c r="K2">
         <v>1.029122680208889</v>
       </c>
       <c r="L2">
-        <v>0.9754815668244582</v>
+        <v>0.9754815668244586</v>
       </c>
       <c r="M2">
         <v>0.983777270152383</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9605779429746377</v>
+        <v>0.9605779429746381</v>
       </c>
       <c r="D3">
         <v>1.022033800824629</v>
       </c>
       <c r="E3">
-        <v>0.9716110383973717</v>
+        <v>0.971611038397372</v>
       </c>
       <c r="F3">
-        <v>0.9807910087666657</v>
+        <v>0.980791008766666</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04291523143349</v>
       </c>
       <c r="J3">
-        <v>0.9822041968430374</v>
+        <v>0.9822041968430378</v>
       </c>
       <c r="K3">
         <v>1.03239230847166</v>
       </c>
       <c r="L3">
-        <v>0.9826205272762045</v>
+        <v>0.9826205272762047</v>
       </c>
       <c r="M3">
-        <v>0.991675719076567</v>
+        <v>0.9916757190765673</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9666244554652834</v>
+        <v>0.966624455465284</v>
       </c>
       <c r="D4">
         <v>1.024608419284606</v>
       </c>
       <c r="E4">
-        <v>0.9766681833781979</v>
+        <v>0.9766681833781983</v>
       </c>
       <c r="F4">
-        <v>0.9863211637174999</v>
+        <v>0.9863211637175004</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044210200804109</v>
       </c>
       <c r="J4">
-        <v>0.9869222363200488</v>
+        <v>0.9869222363200495</v>
       </c>
       <c r="K4">
         <v>1.03441864440705</v>
       </c>
       <c r="L4">
-        <v>0.9870566055871097</v>
+        <v>0.9870566055871102</v>
       </c>
       <c r="M4">
-        <v>0.9965875328208528</v>
+        <v>0.9965875328208532</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9691114486636898</v>
+        <v>0.9691114486636899</v>
       </c>
       <c r="D5">
         <v>1.025669222533349</v>
       </c>
       <c r="E5">
-        <v>0.9787501362643495</v>
+        <v>0.9787501362643498</v>
       </c>
       <c r="F5">
-        <v>0.9885981613169097</v>
+        <v>0.9885981613169094</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.035250318823959</v>
       </c>
       <c r="L5">
-        <v>0.9888807466012193</v>
+        <v>0.9888807466012195</v>
       </c>
       <c r="M5">
-        <v>0.9986080625841136</v>
+        <v>0.9986080625841133</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.969525921174161</v>
+        <v>0.9695259211741605</v>
       </c>
       <c r="D6">
         <v>1.025846106472217</v>
       </c>
       <c r="E6">
-        <v>0.9790972130427814</v>
+        <v>0.979097213042781</v>
       </c>
       <c r="F6">
-        <v>0.9889777684421778</v>
+        <v>0.9889777684421777</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044826663667969</v>
       </c>
       <c r="J6">
-        <v>0.9891849040395537</v>
+        <v>0.9891849040395535</v>
       </c>
       <c r="K6">
         <v>1.035388808376331</v>
       </c>
       <c r="L6">
-        <v>0.9891847196338096</v>
+        <v>0.9891847196338092</v>
       </c>
       <c r="M6">
-        <v>0.9989448025550454</v>
+        <v>0.9989448025550453</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9666578973184483</v>
+        <v>0.9666578973184482</v>
       </c>
       <c r="D7">
         <v>1.02462267692132</v>
       </c>
       <c r="E7">
-        <v>0.9766961714790365</v>
+        <v>0.9766961714790366</v>
       </c>
       <c r="F7">
-        <v>0.9863517727597483</v>
+        <v>0.9863517727597484</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.044217325112076</v>
       </c>
       <c r="J7">
-        <v>0.9869483206779557</v>
+        <v>0.9869483206779558</v>
       </c>
       <c r="K7">
         <v>1.034429835167764</v>
       </c>
       <c r="L7">
-        <v>0.9870811362816646</v>
+        <v>0.9870811362816647</v>
       </c>
       <c r="M7">
         <v>0.9966147016691312</v>
@@ -652,13 +652,13 @@
         <v>0.9541919392417435</v>
       </c>
       <c r="D8">
-        <v>1.019322477363559</v>
+        <v>1.01932247736356</v>
       </c>
       <c r="E8">
-        <v>0.9662771394032663</v>
+        <v>0.9662771394032664</v>
       </c>
       <c r="F8">
-        <v>0.9749596797712645</v>
+        <v>0.9749596797712649</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.9772178526275672</v>
       </c>
       <c r="K8">
-        <v>1.030246922953143</v>
+        <v>1.030246922953144</v>
       </c>
       <c r="L8">
-        <v>0.9779341506516256</v>
+        <v>0.9779341506516257</v>
       </c>
       <c r="M8">
-        <v>0.986489872049825</v>
+        <v>0.9864898720498254</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9300959175179514</v>
+        <v>0.9300959175179522</v>
       </c>
       <c r="D9">
         <v>1.009184374430261</v>
       </c>
       <c r="E9">
-        <v>0.9462198264273024</v>
+        <v>0.9462198264273034</v>
       </c>
       <c r="F9">
-        <v>0.9530515069001263</v>
+        <v>0.9530515069001266</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036228110732818</v>
       </c>
       <c r="J9">
-        <v>0.9583839491061876</v>
+        <v>0.9583839491061885</v>
       </c>
       <c r="K9">
-        <v>1.022130178538094</v>
+        <v>1.022130178538095</v>
       </c>
       <c r="L9">
-        <v>0.9602501912382522</v>
+        <v>0.9602501912382531</v>
       </c>
       <c r="M9">
-        <v>0.9669551678262475</v>
+        <v>0.9669551678262479</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -734,25 +734,25 @@
         <v>0.9314072272053115</v>
       </c>
       <c r="F10">
-        <v>0.9368996441015907</v>
+        <v>0.9368996441015904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032227654526062</v>
+        <v>1.032227654526061</v>
       </c>
       <c r="J10">
-        <v>0.9444000998641999</v>
+        <v>0.9444000998642</v>
       </c>
       <c r="K10">
-        <v>1.016114670569117</v>
+        <v>1.016114670569116</v>
       </c>
       <c r="L10">
         <v>0.9471361737212821</v>
       </c>
       <c r="M10">
-        <v>0.9525099915973002</v>
+        <v>0.9525099915973</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9039233709348243</v>
+        <v>0.9039233709348251</v>
       </c>
       <c r="D11">
-        <v>0.9983847997713708</v>
+        <v>0.9983847997713713</v>
       </c>
       <c r="E11">
-        <v>0.9245650441547927</v>
+        <v>0.9245650441547935</v>
       </c>
       <c r="F11">
-        <v>0.9294489460147592</v>
+        <v>0.9294489460147596</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030364207429888</v>
       </c>
       <c r="J11">
-        <v>0.9379216175304679</v>
+        <v>0.9379216175304684</v>
       </c>
       <c r="K11">
         <v>1.013337240820992</v>
       </c>
       <c r="L11">
-        <v>0.9410650298252085</v>
+        <v>0.9410650298252092</v>
       </c>
       <c r="M11">
-        <v>0.9458363982223934</v>
+        <v>0.9458363982223936</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9007507358433824</v>
+        <v>0.9007507358433808</v>
       </c>
       <c r="D12">
-        <v>0.997093409992198</v>
+        <v>0.9970934099921978</v>
       </c>
       <c r="E12">
-        <v>0.9219499059780357</v>
+        <v>0.9219499059780338</v>
       </c>
       <c r="F12">
-        <v>0.9266031256908186</v>
+        <v>0.9266031256908176</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029650042209681</v>
       </c>
       <c r="J12">
-        <v>0.9354424783615176</v>
+        <v>0.9354424783615162</v>
       </c>
       <c r="K12">
         <v>1.012276508343549</v>
       </c>
       <c r="L12">
-        <v>0.9387424816956595</v>
+        <v>0.9387424816956582</v>
       </c>
       <c r="M12">
-        <v>0.9432858742999498</v>
+        <v>0.9432858742999487</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9014357547671931</v>
+        <v>0.9014357547671935</v>
       </c>
       <c r="D13">
-        <v>0.997371891586268</v>
+        <v>0.9973718915862688</v>
       </c>
       <c r="E13">
-        <v>0.9225143663875512</v>
+        <v>0.9225143663875515</v>
       </c>
       <c r="F13">
-        <v>0.9272172849348432</v>
+        <v>0.9272172849348439</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029804270450947</v>
+        <v>1.029804270450948</v>
       </c>
       <c r="J13">
-        <v>0.9359777224428689</v>
+        <v>0.9359777224428691</v>
       </c>
       <c r="K13">
-        <v>1.012505412006315</v>
+        <v>1.012505412006316</v>
       </c>
       <c r="L13">
-        <v>0.9392438846777148</v>
+        <v>0.9392438846777151</v>
       </c>
       <c r="M13">
-        <v>0.9438363738140091</v>
+        <v>0.9438363738140098</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9036631171325139</v>
+        <v>0.9036631171325142</v>
       </c>
       <c r="D14">
         <v>0.9982787117713365</v>
       </c>
       <c r="E14">
-        <v>0.9243504394706555</v>
+        <v>0.9243504394706559</v>
       </c>
       <c r="F14">
         <v>0.92921537019626</v>
@@ -895,13 +895,13 @@
         <v>1.030305637979384</v>
       </c>
       <c r="J14">
-        <v>0.937718234992988</v>
+        <v>0.9377182349929882</v>
       </c>
       <c r="K14">
         <v>1.013250173818442</v>
       </c>
       <c r="L14">
-        <v>0.9408744788374838</v>
+        <v>0.9408744788374842</v>
       </c>
       <c r="M14">
         <v>0.945627090109777</v>
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9050226057514761</v>
+        <v>0.9050226057514767</v>
       </c>
       <c r="D15">
-        <v>0.9988331851255243</v>
+        <v>0.9988331851255245</v>
       </c>
       <c r="E15">
-        <v>0.9254716330373364</v>
+        <v>0.9254716330373367</v>
       </c>
       <c r="F15">
-        <v>0.930435756921271</v>
+        <v>0.9304357569212715</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030611555708603</v>
       </c>
       <c r="J15">
-        <v>0.938780676172241</v>
+        <v>0.9387806761722413</v>
       </c>
       <c r="K15">
         <v>1.013705089274383</v>
       </c>
       <c r="L15">
-        <v>0.9418699190925717</v>
+        <v>0.941869919092572</v>
       </c>
       <c r="M15">
-        <v>0.9467206213868083</v>
+        <v>0.9467206213868088</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.912749336067094</v>
+        <v>0.9127493360670937</v>
       </c>
       <c r="D16">
         <v>1.001998414519679</v>
       </c>
       <c r="E16">
-        <v>0.9318515474894005</v>
+        <v>0.9318515474894004</v>
       </c>
       <c r="F16">
-        <v>0.9373837175515538</v>
+        <v>0.9373837175515531</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032348376213858</v>
       </c>
       <c r="J16">
-        <v>0.9448203990320423</v>
+        <v>0.9448203990320418</v>
       </c>
       <c r="K16">
-        <v>1.016295108523244</v>
+        <v>1.016295108523243</v>
       </c>
       <c r="L16">
-        <v>0.947530140261987</v>
+        <v>0.9475301402619868</v>
       </c>
       <c r="M16">
-        <v>0.9529433682172821</v>
+        <v>0.9529433682172818</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9174425489521696</v>
+        <v>0.9174425489521706</v>
       </c>
       <c r="D17">
-        <v>1.003932075702138</v>
+        <v>1.003932075702139</v>
       </c>
       <c r="E17">
-        <v>0.9357328679696713</v>
+        <v>0.9357328679696718</v>
       </c>
       <c r="F17">
-        <v>0.941613463026102</v>
+        <v>0.9416134630261028</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033401233774989</v>
+        <v>1.03340123377499</v>
       </c>
       <c r="J17">
-        <v>0.9484897395216247</v>
+        <v>0.9484897395216254</v>
       </c>
       <c r="K17">
-        <v>1.017871510862867</v>
+        <v>1.017871510862868</v>
       </c>
       <c r="L17">
-        <v>0.9509700801297881</v>
+        <v>0.9509700801297887</v>
       </c>
       <c r="M17">
-        <v>0.9567289993678559</v>
+        <v>0.9567289993678567</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.920128443120599</v>
+        <v>0.9201284431205988</v>
       </c>
       <c r="D18">
-        <v>1.00504231988522</v>
+        <v>1.005042319885219</v>
       </c>
       <c r="E18">
         <v>0.9379561797258319</v>
       </c>
       <c r="F18">
-        <v>0.9440372714484716</v>
+        <v>0.9440372714484714</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.034002862804162</v>
       </c>
       <c r="J18">
-        <v>0.9505898612543461</v>
+        <v>0.950589861254346</v>
       </c>
       <c r="K18">
-        <v>1.018774580263913</v>
+        <v>1.018774580263912</v>
       </c>
       <c r="L18">
-        <v>0.9529393054773417</v>
+        <v>0.9529393054773416</v>
       </c>
       <c r="M18">
-        <v>0.9588973681456292</v>
+        <v>0.958897368145629</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9210358441390942</v>
+        <v>0.921035844139094</v>
       </c>
       <c r="D19">
-        <v>1.005417986045871</v>
+        <v>1.00541798604587</v>
       </c>
       <c r="E19">
-        <v>0.938707637472024</v>
+        <v>0.9387076374720239</v>
       </c>
       <c r="F19">
         <v>0.9448566397544349</v>
@@ -1085,16 +1085,16 @@
         <v>1.034205947097117</v>
       </c>
       <c r="J19">
-        <v>0.9512993865526254</v>
+        <v>0.9512993865526252</v>
       </c>
       <c r="K19">
         <v>1.01907980361579</v>
       </c>
       <c r="L19">
-        <v>0.95360467372867</v>
+        <v>0.9536046737286697</v>
       </c>
       <c r="M19">
-        <v>0.9596302245755329</v>
+        <v>0.959630224575533</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9169444263329682</v>
+        <v>0.9169444263329692</v>
       </c>
       <c r="D20">
         <v>1.003726457648667</v>
       </c>
       <c r="E20">
-        <v>0.9353206992022496</v>
+        <v>0.9353206992022505</v>
       </c>
       <c r="F20">
-        <v>0.9411641967416081</v>
+        <v>0.9411641967416093</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033289578531157</v>
       </c>
       <c r="J20">
-        <v>0.9481002660268635</v>
+        <v>0.9481002660268643</v>
       </c>
       <c r="K20">
         <v>1.017704096756064</v>
       </c>
       <c r="L20">
-        <v>0.9506049138306879</v>
+        <v>0.9506049138306889</v>
       </c>
       <c r="M20">
-        <v>0.9563270034373413</v>
+        <v>0.9563270034373423</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9030099200348302</v>
+        <v>0.9030099200348306</v>
       </c>
       <c r="D21">
-        <v>0.9980125679738827</v>
+        <v>0.9980125679738828</v>
       </c>
       <c r="E21">
-        <v>0.9238118796515824</v>
+        <v>0.9238118796515825</v>
       </c>
       <c r="F21">
-        <v>0.9286292333390382</v>
+        <v>0.9286292333390386</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030158625731807</v>
       </c>
       <c r="J21">
-        <v>0.9372077888400783</v>
+        <v>0.9372077888400786</v>
       </c>
       <c r="K21">
-        <v>1.013031690942886</v>
+        <v>1.013031690942887</v>
       </c>
       <c r="L21">
-        <v>0.9403962487610679</v>
+        <v>0.9403962487610681</v>
       </c>
       <c r="M21">
-        <v>0.9451018264246197</v>
+        <v>0.9451018264246198</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8936968451351307</v>
+        <v>0.8936968451351309</v>
       </c>
       <c r="D22">
-        <v>0.9942372078382908</v>
+        <v>0.9942372078382907</v>
       </c>
       <c r="E22">
-        <v>0.9161435072707391</v>
+        <v>0.9161435072707396</v>
       </c>
       <c r="F22">
-        <v>0.9202885552663772</v>
+        <v>0.9202885552663771</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>1.028061286218867</v>
       </c>
       <c r="J22">
-        <v>0.9299322782593189</v>
+        <v>0.9299322782593192</v>
       </c>
       <c r="K22">
         <v>1.009923697769437</v>
       </c>
       <c r="L22">
-        <v>0.9335817255476055</v>
+        <v>0.9335817255476058</v>
       </c>
       <c r="M22">
         <v>0.9376237216581852</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8986910204140592</v>
+        <v>0.8986910204140593</v>
       </c>
       <c r="D23">
-        <v>0.9962572415634667</v>
+        <v>0.9962572415634672</v>
       </c>
       <c r="E23">
-        <v>0.9202533093136074</v>
+        <v>0.9202533093136077</v>
       </c>
       <c r="F23">
-        <v>0.9247574614075319</v>
+        <v>0.9247574614075323</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029186228823922</v>
       </c>
       <c r="J23">
-        <v>0.933833243363793</v>
+        <v>0.9338332433637935</v>
       </c>
       <c r="K23">
-        <v>1.011588669561951</v>
+        <v>1.011588669561952</v>
       </c>
       <c r="L23">
-        <v>0.9372351013642995</v>
+        <v>0.9372351013643</v>
       </c>
       <c r="M23">
-        <v>0.9416312968241832</v>
+        <v>0.9416312968241839</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.917169664997769</v>
+        <v>0.9171696649977685</v>
       </c>
       <c r="D24">
         <v>1.003819421824039</v>
       </c>
       <c r="E24">
-        <v>0.9355070652988882</v>
+        <v>0.9355070652988878</v>
       </c>
       <c r="F24">
-        <v>0.9413673340310811</v>
+        <v>0.9413673340310813</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033340069144046</v>
       </c>
       <c r="J24">
-        <v>0.948276375715596</v>
+        <v>0.9482763757155958</v>
       </c>
       <c r="K24">
         <v>1.017779794495542</v>
       </c>
       <c r="L24">
-        <v>0.9507700312035895</v>
+        <v>0.9507700312035892</v>
       </c>
       <c r="M24">
-        <v>0.9565087702165657</v>
+        <v>0.9565087702165659</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1301,7 +1301,7 @@
         <v>1.011910315587073</v>
       </c>
       <c r="E25">
-        <v>0.9516340443023845</v>
+        <v>0.9516340443023846</v>
       </c>
       <c r="F25">
         <v>0.9589616801229958</v>
@@ -1319,10 +1319,10 @@
         <v>1.024326510566583</v>
       </c>
       <c r="L25">
-        <v>0.9650326452727412</v>
+        <v>0.9650326452727416</v>
       </c>
       <c r="M25">
-        <v>0.9722323230114752</v>
+        <v>0.9722323230114751</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -421,13 +421,13 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9508502685290332</v>
+        <v>0.9508502685290329</v>
       </c>
       <c r="D2">
         <v>1.01790731042713</v>
       </c>
       <c r="E2">
-        <v>0.9634889996158168</v>
+        <v>0.9634889996158161</v>
       </c>
       <c r="F2">
         <v>0.9719122450600071</v>
@@ -439,13 +439,13 @@
         <v>1.040806413821553</v>
       </c>
       <c r="J2">
-        <v>0.9746074536499821</v>
+        <v>0.9746074536499819</v>
       </c>
       <c r="K2">
         <v>1.029122680208889</v>
       </c>
       <c r="L2">
-        <v>0.9754815668244586</v>
+        <v>0.9754815668244582</v>
       </c>
       <c r="M2">
         <v>0.983777270152383</v>
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9605779429746381</v>
+        <v>0.9605779429746377</v>
       </c>
       <c r="D3">
         <v>1.022033800824629</v>
       </c>
       <c r="E3">
-        <v>0.971611038397372</v>
+        <v>0.9716110383973717</v>
       </c>
       <c r="F3">
-        <v>0.980791008766666</v>
+        <v>0.9807910087666657</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.04291523143349</v>
       </c>
       <c r="J3">
-        <v>0.9822041968430378</v>
+        <v>0.9822041968430374</v>
       </c>
       <c r="K3">
         <v>1.03239230847166</v>
       </c>
       <c r="L3">
-        <v>0.9826205272762047</v>
+        <v>0.9826205272762045</v>
       </c>
       <c r="M3">
-        <v>0.9916757190765673</v>
+        <v>0.991675719076567</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.966624455465284</v>
+        <v>0.9666244554652834</v>
       </c>
       <c r="D4">
         <v>1.024608419284606</v>
       </c>
       <c r="E4">
-        <v>0.9766681833781983</v>
+        <v>0.9766681833781979</v>
       </c>
       <c r="F4">
-        <v>0.9863211637175004</v>
+        <v>0.9863211637174999</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.044210200804109</v>
       </c>
       <c r="J4">
-        <v>0.9869222363200495</v>
+        <v>0.9869222363200488</v>
       </c>
       <c r="K4">
         <v>1.03441864440705</v>
       </c>
       <c r="L4">
-        <v>0.9870566055871102</v>
+        <v>0.9870566055871097</v>
       </c>
       <c r="M4">
-        <v>0.9965875328208532</v>
+        <v>0.9965875328208528</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,16 +535,16 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9691114486636899</v>
+        <v>0.9691114486636898</v>
       </c>
       <c r="D5">
         <v>1.025669222533349</v>
       </c>
       <c r="E5">
-        <v>0.9787501362643498</v>
+        <v>0.9787501362643495</v>
       </c>
       <c r="F5">
-        <v>0.9885981613169094</v>
+        <v>0.9885981613169097</v>
       </c>
       <c r="G5">
         <v>1</v>
@@ -559,10 +559,10 @@
         <v>1.035250318823959</v>
       </c>
       <c r="L5">
-        <v>0.9888807466012195</v>
+        <v>0.9888807466012193</v>
       </c>
       <c r="M5">
-        <v>0.9986080625841133</v>
+        <v>0.9986080625841136</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9695259211741605</v>
+        <v>0.969525921174161</v>
       </c>
       <c r="D6">
         <v>1.025846106472217</v>
       </c>
       <c r="E6">
-        <v>0.979097213042781</v>
+        <v>0.9790972130427814</v>
       </c>
       <c r="F6">
-        <v>0.9889777684421777</v>
+        <v>0.9889777684421778</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,16 +591,16 @@
         <v>1.044826663667969</v>
       </c>
       <c r="J6">
-        <v>0.9891849040395535</v>
+        <v>0.9891849040395537</v>
       </c>
       <c r="K6">
         <v>1.035388808376331</v>
       </c>
       <c r="L6">
-        <v>0.9891847196338092</v>
+        <v>0.9891847196338096</v>
       </c>
       <c r="M6">
-        <v>0.9989448025550453</v>
+        <v>0.9989448025550454</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9666578973184482</v>
+        <v>0.9666578973184483</v>
       </c>
       <c r="D7">
         <v>1.02462267692132</v>
       </c>
       <c r="E7">
-        <v>0.9766961714790366</v>
+        <v>0.9766961714790365</v>
       </c>
       <c r="F7">
-        <v>0.9863517727597484</v>
+        <v>0.9863517727597483</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,13 +629,13 @@
         <v>1.044217325112076</v>
       </c>
       <c r="J7">
-        <v>0.9869483206779558</v>
+        <v>0.9869483206779557</v>
       </c>
       <c r="K7">
         <v>1.034429835167764</v>
       </c>
       <c r="L7">
-        <v>0.9870811362816647</v>
+        <v>0.9870811362816646</v>
       </c>
       <c r="M7">
         <v>0.9966147016691312</v>
@@ -652,13 +652,13 @@
         <v>0.9541919392417435</v>
       </c>
       <c r="D8">
-        <v>1.01932247736356</v>
+        <v>1.019322477363559</v>
       </c>
       <c r="E8">
-        <v>0.9662771394032664</v>
+        <v>0.9662771394032663</v>
       </c>
       <c r="F8">
-        <v>0.9749596797712649</v>
+        <v>0.9749596797712645</v>
       </c>
       <c r="G8">
         <v>1</v>
@@ -670,13 +670,13 @@
         <v>0.9772178526275672</v>
       </c>
       <c r="K8">
-        <v>1.030246922953144</v>
+        <v>1.030246922953143</v>
       </c>
       <c r="L8">
-        <v>0.9779341506516257</v>
+        <v>0.9779341506516256</v>
       </c>
       <c r="M8">
-        <v>0.9864898720498254</v>
+        <v>0.986489872049825</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9300959175179522</v>
+        <v>0.9300959175179514</v>
       </c>
       <c r="D9">
         <v>1.009184374430261</v>
       </c>
       <c r="E9">
-        <v>0.9462198264273034</v>
+        <v>0.9462198264273024</v>
       </c>
       <c r="F9">
-        <v>0.9530515069001266</v>
+        <v>0.9530515069001263</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036228110732818</v>
       </c>
       <c r="J9">
-        <v>0.9583839491061885</v>
+        <v>0.9583839491061876</v>
       </c>
       <c r="K9">
-        <v>1.022130178538095</v>
+        <v>1.022130178538094</v>
       </c>
       <c r="L9">
-        <v>0.9602501912382531</v>
+        <v>0.9602501912382522</v>
       </c>
       <c r="M9">
-        <v>0.9669551678262479</v>
+        <v>0.9669551678262475</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -734,25 +734,25 @@
         <v>0.9314072272053115</v>
       </c>
       <c r="F10">
-        <v>0.9368996441015904</v>
+        <v>0.9368996441015907</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032227654526061</v>
+        <v>1.032227654526062</v>
       </c>
       <c r="J10">
-        <v>0.9444000998642</v>
+        <v>0.9444000998641999</v>
       </c>
       <c r="K10">
-        <v>1.016114670569116</v>
+        <v>1.016114670569117</v>
       </c>
       <c r="L10">
         <v>0.9471361737212821</v>
       </c>
       <c r="M10">
-        <v>0.9525099915973</v>
+        <v>0.9525099915973002</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9039233709348251</v>
+        <v>0.9039233709348243</v>
       </c>
       <c r="D11">
-        <v>0.9983847997713713</v>
+        <v>0.9983847997713708</v>
       </c>
       <c r="E11">
-        <v>0.9245650441547935</v>
+        <v>0.9245650441547927</v>
       </c>
       <c r="F11">
-        <v>0.9294489460147596</v>
+        <v>0.9294489460147592</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.030364207429888</v>
       </c>
       <c r="J11">
-        <v>0.9379216175304684</v>
+        <v>0.9379216175304679</v>
       </c>
       <c r="K11">
         <v>1.013337240820992</v>
       </c>
       <c r="L11">
-        <v>0.9410650298252092</v>
+        <v>0.9410650298252085</v>
       </c>
       <c r="M11">
-        <v>0.9458363982223936</v>
+        <v>0.9458363982223934</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,16 +801,16 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9007507358433808</v>
+        <v>0.9007507358433824</v>
       </c>
       <c r="D12">
-        <v>0.9970934099921978</v>
+        <v>0.997093409992198</v>
       </c>
       <c r="E12">
-        <v>0.9219499059780338</v>
+        <v>0.9219499059780357</v>
       </c>
       <c r="F12">
-        <v>0.9266031256908176</v>
+        <v>0.9266031256908186</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -819,16 +819,16 @@
         <v>1.029650042209681</v>
       </c>
       <c r="J12">
-        <v>0.9354424783615162</v>
+        <v>0.9354424783615176</v>
       </c>
       <c r="K12">
         <v>1.012276508343549</v>
       </c>
       <c r="L12">
-        <v>0.9387424816956582</v>
+        <v>0.9387424816956595</v>
       </c>
       <c r="M12">
-        <v>0.9432858742999487</v>
+        <v>0.9432858742999498</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9014357547671935</v>
+        <v>0.9014357547671931</v>
       </c>
       <c r="D13">
-        <v>0.9973718915862688</v>
+        <v>0.997371891586268</v>
       </c>
       <c r="E13">
-        <v>0.9225143663875515</v>
+        <v>0.9225143663875512</v>
       </c>
       <c r="F13">
-        <v>0.9272172849348439</v>
+        <v>0.9272172849348432</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029804270450948</v>
+        <v>1.029804270450947</v>
       </c>
       <c r="J13">
-        <v>0.9359777224428691</v>
+        <v>0.9359777224428689</v>
       </c>
       <c r="K13">
-        <v>1.012505412006316</v>
+        <v>1.012505412006315</v>
       </c>
       <c r="L13">
-        <v>0.9392438846777151</v>
+        <v>0.9392438846777148</v>
       </c>
       <c r="M13">
-        <v>0.9438363738140098</v>
+        <v>0.9438363738140091</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9036631171325142</v>
+        <v>0.9036631171325139</v>
       </c>
       <c r="D14">
         <v>0.9982787117713365</v>
       </c>
       <c r="E14">
-        <v>0.9243504394706559</v>
+        <v>0.9243504394706555</v>
       </c>
       <c r="F14">
         <v>0.92921537019626</v>
@@ -895,13 +895,13 @@
         <v>1.030305637979384</v>
       </c>
       <c r="J14">
-        <v>0.9377182349929882</v>
+        <v>0.937718234992988</v>
       </c>
       <c r="K14">
         <v>1.013250173818442</v>
       </c>
       <c r="L14">
-        <v>0.9408744788374842</v>
+        <v>0.9408744788374838</v>
       </c>
       <c r="M14">
         <v>0.945627090109777</v>
@@ -915,16 +915,16 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9050226057514767</v>
+        <v>0.9050226057514761</v>
       </c>
       <c r="D15">
-        <v>0.9988331851255245</v>
+        <v>0.9988331851255243</v>
       </c>
       <c r="E15">
-        <v>0.9254716330373367</v>
+        <v>0.9254716330373364</v>
       </c>
       <c r="F15">
-        <v>0.9304357569212715</v>
+        <v>0.930435756921271</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -933,16 +933,16 @@
         <v>1.030611555708603</v>
       </c>
       <c r="J15">
-        <v>0.9387806761722413</v>
+        <v>0.938780676172241</v>
       </c>
       <c r="K15">
         <v>1.013705089274383</v>
       </c>
       <c r="L15">
-        <v>0.941869919092572</v>
+        <v>0.9418699190925717</v>
       </c>
       <c r="M15">
-        <v>0.9467206213868088</v>
+        <v>0.9467206213868083</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9127493360670937</v>
+        <v>0.912749336067094</v>
       </c>
       <c r="D16">
         <v>1.001998414519679</v>
       </c>
       <c r="E16">
-        <v>0.9318515474894004</v>
+        <v>0.9318515474894005</v>
       </c>
       <c r="F16">
-        <v>0.9373837175515531</v>
+        <v>0.9373837175515538</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.032348376213858</v>
       </c>
       <c r="J16">
-        <v>0.9448203990320418</v>
+        <v>0.9448203990320423</v>
       </c>
       <c r="K16">
-        <v>1.016295108523243</v>
+        <v>1.016295108523244</v>
       </c>
       <c r="L16">
-        <v>0.9475301402619868</v>
+        <v>0.947530140261987</v>
       </c>
       <c r="M16">
-        <v>0.9529433682172818</v>
+        <v>0.9529433682172821</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9174425489521706</v>
+        <v>0.9174425489521696</v>
       </c>
       <c r="D17">
-        <v>1.003932075702139</v>
+        <v>1.003932075702138</v>
       </c>
       <c r="E17">
-        <v>0.9357328679696718</v>
+        <v>0.9357328679696713</v>
       </c>
       <c r="F17">
-        <v>0.9416134630261028</v>
+        <v>0.941613463026102</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03340123377499</v>
+        <v>1.033401233774989</v>
       </c>
       <c r="J17">
-        <v>0.9484897395216254</v>
+        <v>0.9484897395216247</v>
       </c>
       <c r="K17">
-        <v>1.017871510862868</v>
+        <v>1.017871510862867</v>
       </c>
       <c r="L17">
-        <v>0.9509700801297887</v>
+        <v>0.9509700801297881</v>
       </c>
       <c r="M17">
-        <v>0.9567289993678567</v>
+        <v>0.9567289993678559</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,16 +1029,16 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9201284431205988</v>
+        <v>0.920128443120599</v>
       </c>
       <c r="D18">
-        <v>1.005042319885219</v>
+        <v>1.00504231988522</v>
       </c>
       <c r="E18">
         <v>0.9379561797258319</v>
       </c>
       <c r="F18">
-        <v>0.9440372714484714</v>
+        <v>0.9440372714484716</v>
       </c>
       <c r="G18">
         <v>1</v>
@@ -1047,16 +1047,16 @@
         <v>1.034002862804162</v>
       </c>
       <c r="J18">
-        <v>0.950589861254346</v>
+        <v>0.9505898612543461</v>
       </c>
       <c r="K18">
-        <v>1.018774580263912</v>
+        <v>1.018774580263913</v>
       </c>
       <c r="L18">
-        <v>0.9529393054773416</v>
+        <v>0.9529393054773417</v>
       </c>
       <c r="M18">
-        <v>0.958897368145629</v>
+        <v>0.9588973681456292</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.921035844139094</v>
+        <v>0.9210358441390942</v>
       </c>
       <c r="D19">
-        <v>1.00541798604587</v>
+        <v>1.005417986045871</v>
       </c>
       <c r="E19">
-        <v>0.9387076374720239</v>
+        <v>0.938707637472024</v>
       </c>
       <c r="F19">
         <v>0.9448566397544349</v>
@@ -1085,16 +1085,16 @@
         <v>1.034205947097117</v>
       </c>
       <c r="J19">
-        <v>0.9512993865526252</v>
+        <v>0.9512993865526254</v>
       </c>
       <c r="K19">
         <v>1.01907980361579</v>
       </c>
       <c r="L19">
-        <v>0.9536046737286697</v>
+        <v>0.95360467372867</v>
       </c>
       <c r="M19">
-        <v>0.959630224575533</v>
+        <v>0.9596302245755329</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9169444263329692</v>
+        <v>0.9169444263329682</v>
       </c>
       <c r="D20">
         <v>1.003726457648667</v>
       </c>
       <c r="E20">
-        <v>0.9353206992022505</v>
+        <v>0.9353206992022496</v>
       </c>
       <c r="F20">
-        <v>0.9411641967416093</v>
+        <v>0.9411641967416081</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.033289578531157</v>
       </c>
       <c r="J20">
-        <v>0.9481002660268643</v>
+        <v>0.9481002660268635</v>
       </c>
       <c r="K20">
         <v>1.017704096756064</v>
       </c>
       <c r="L20">
-        <v>0.9506049138306889</v>
+        <v>0.9506049138306879</v>
       </c>
       <c r="M20">
-        <v>0.9563270034373423</v>
+        <v>0.9563270034373413</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,16 +1143,16 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9030099200348306</v>
+        <v>0.9030099200348302</v>
       </c>
       <c r="D21">
-        <v>0.9980125679738828</v>
+        <v>0.9980125679738827</v>
       </c>
       <c r="E21">
-        <v>0.9238118796515825</v>
+        <v>0.9238118796515824</v>
       </c>
       <c r="F21">
-        <v>0.9286292333390386</v>
+        <v>0.9286292333390382</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -1161,16 +1161,16 @@
         <v>1.030158625731807</v>
       </c>
       <c r="J21">
-        <v>0.9372077888400786</v>
+        <v>0.9372077888400783</v>
       </c>
       <c r="K21">
-        <v>1.013031690942887</v>
+        <v>1.013031690942886</v>
       </c>
       <c r="L21">
-        <v>0.9403962487610681</v>
+        <v>0.9403962487610679</v>
       </c>
       <c r="M21">
-        <v>0.9451018264246198</v>
+        <v>0.9451018264246197</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8936968451351309</v>
+        <v>0.8936968451351307</v>
       </c>
       <c r="D22">
-        <v>0.9942372078382907</v>
+        <v>0.9942372078382908</v>
       </c>
       <c r="E22">
-        <v>0.9161435072707396</v>
+        <v>0.9161435072707391</v>
       </c>
       <c r="F22">
-        <v>0.9202885552663771</v>
+        <v>0.9202885552663772</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>1.028061286218867</v>
       </c>
       <c r="J22">
-        <v>0.9299322782593192</v>
+        <v>0.9299322782593189</v>
       </c>
       <c r="K22">
         <v>1.009923697769437</v>
       </c>
       <c r="L22">
-        <v>0.9335817255476058</v>
+        <v>0.9335817255476055</v>
       </c>
       <c r="M22">
         <v>0.9376237216581852</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8986910204140593</v>
+        <v>0.8986910204140592</v>
       </c>
       <c r="D23">
-        <v>0.9962572415634672</v>
+        <v>0.9962572415634667</v>
       </c>
       <c r="E23">
-        <v>0.9202533093136077</v>
+        <v>0.9202533093136074</v>
       </c>
       <c r="F23">
-        <v>0.9247574614075323</v>
+        <v>0.9247574614075319</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.029186228823922</v>
       </c>
       <c r="J23">
-        <v>0.9338332433637935</v>
+        <v>0.933833243363793</v>
       </c>
       <c r="K23">
-        <v>1.011588669561952</v>
+        <v>1.011588669561951</v>
       </c>
       <c r="L23">
-        <v>0.9372351013643</v>
+        <v>0.9372351013642995</v>
       </c>
       <c r="M23">
-        <v>0.9416312968241839</v>
+        <v>0.9416312968241832</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9171696649977685</v>
+        <v>0.917169664997769</v>
       </c>
       <c r="D24">
         <v>1.003819421824039</v>
       </c>
       <c r="E24">
-        <v>0.9355070652988878</v>
+        <v>0.9355070652988882</v>
       </c>
       <c r="F24">
-        <v>0.9413673340310813</v>
+        <v>0.9413673340310811</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.033340069144046</v>
       </c>
       <c r="J24">
-        <v>0.9482763757155958</v>
+        <v>0.948276375715596</v>
       </c>
       <c r="K24">
         <v>1.017779794495542</v>
       </c>
       <c r="L24">
-        <v>0.9507700312035892</v>
+        <v>0.9507700312035895</v>
       </c>
       <c r="M24">
-        <v>0.9565087702165659</v>
+        <v>0.9565087702165657</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1301,7 +1301,7 @@
         <v>1.011910315587073</v>
       </c>
       <c r="E25">
-        <v>0.9516340443023846</v>
+        <v>0.9516340443023845</v>
       </c>
       <c r="F25">
         <v>0.9589616801229958</v>
@@ -1319,10 +1319,10 @@
         <v>1.024326510566583</v>
       </c>
       <c r="L25">
-        <v>0.9650326452727416</v>
+        <v>0.9650326452727412</v>
       </c>
       <c r="M25">
-        <v>0.9722323230114751</v>
+        <v>0.9722323230114752</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9508502685290329</v>
+        <v>0.9509018239798785</v>
       </c>
       <c r="D2">
-        <v>1.01790731042713</v>
+        <v>1.017920143551208</v>
       </c>
       <c r="E2">
-        <v>0.9634889996158161</v>
+        <v>0.9635347224458519</v>
       </c>
       <c r="F2">
-        <v>0.9719122450600071</v>
+        <v>0.9719488668274391</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040806413821553</v>
+        <v>1.040816570757543</v>
       </c>
       <c r="J2">
-        <v>0.9746074536499819</v>
+        <v>0.9746572360927025</v>
       </c>
       <c r="K2">
-        <v>1.029122680208889</v>
+        <v>1.029135342362527</v>
       </c>
       <c r="L2">
-        <v>0.9754815668244582</v>
+        <v>0.9755265896555022</v>
       </c>
       <c r="M2">
-        <v>0.983777270152383</v>
+        <v>0.9838133435463118</v>
+      </c>
+      <c r="N2">
+        <v>0.9843704844000593</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9605779429746377</v>
+        <v>0.960620205951255</v>
       </c>
       <c r="D3">
-        <v>1.022033800824629</v>
+        <v>1.022044348386191</v>
       </c>
       <c r="E3">
-        <v>0.9716110383973717</v>
+        <v>0.9716486432811579</v>
       </c>
       <c r="F3">
-        <v>0.9807910087666657</v>
+        <v>0.9808210445415809</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04291523143349</v>
+        <v>1.042923604223002</v>
       </c>
       <c r="J3">
-        <v>0.9822041968430374</v>
+        <v>0.9822451735514468</v>
       </c>
       <c r="K3">
-        <v>1.03239230847166</v>
+        <v>1.032402728210666</v>
       </c>
       <c r="L3">
-        <v>0.9826205272762045</v>
+        <v>0.982657614956603</v>
       </c>
       <c r="M3">
-        <v>0.991675719076567</v>
+        <v>0.9917053514088866</v>
+      </c>
+      <c r="N3">
+        <v>0.9896396589154376</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9666244554652834</v>
+        <v>0.9666611104936919</v>
       </c>
       <c r="D4">
-        <v>1.024608419284606</v>
+        <v>1.024617592502876</v>
       </c>
       <c r="E4">
-        <v>0.9766681833781979</v>
+        <v>0.9767008758758864</v>
       </c>
       <c r="F4">
-        <v>0.9863211637174999</v>
+        <v>0.9863472389373183</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044210200804109</v>
+        <v>1.044217495989157</v>
       </c>
       <c r="J4">
-        <v>0.9869222363200488</v>
+        <v>0.9869578631284339</v>
       </c>
       <c r="K4">
-        <v>1.03441864440705</v>
+        <v>1.034427713377741</v>
       </c>
       <c r="L4">
-        <v>0.9870566055871097</v>
+        <v>0.9870888796300105</v>
       </c>
       <c r="M4">
-        <v>0.9965875328208528</v>
+        <v>0.9966132823761062</v>
+      </c>
+      <c r="N4">
+        <v>0.9929094042770684</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9691114486636898</v>
+        <v>0.9691458320359208</v>
       </c>
       <c r="D5">
-        <v>1.025669222533349</v>
+        <v>1.025677840191753</v>
       </c>
       <c r="E5">
-        <v>0.9787501362643495</v>
+        <v>0.9787808361960351</v>
       </c>
       <c r="F5">
-        <v>0.9885981613169097</v>
+        <v>0.9886226353959972</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044738810714944</v>
+        <v>1.04474566923899</v>
       </c>
       <c r="J5">
-        <v>0.9888617406439506</v>
+        <v>0.9888951926596083</v>
       </c>
       <c r="K5">
-        <v>1.035250318823959</v>
+        <v>1.035258841233234</v>
       </c>
       <c r="L5">
-        <v>0.9888807466012193</v>
+        <v>0.9889110655381461</v>
       </c>
       <c r="M5">
-        <v>0.9986080625841136</v>
+        <v>0.9986322404007232</v>
+      </c>
+      <c r="N5">
+        <v>0.9942528566023627</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.969525921174161</v>
+        <v>0.9695599278767245</v>
       </c>
       <c r="D6">
-        <v>1.025846106472217</v>
+        <v>1.025854632078522</v>
       </c>
       <c r="E6">
-        <v>0.9790972130427814</v>
+        <v>0.9791275824381157</v>
       </c>
       <c r="F6">
-        <v>0.9889777684421778</v>
+        <v>0.9890019772146212</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044826663667969</v>
+        <v>1.044833449780983</v>
       </c>
       <c r="J6">
-        <v>0.9891849040395537</v>
+        <v>0.9892179950193665</v>
       </c>
       <c r="K6">
-        <v>1.035388808376331</v>
+        <v>1.035397240194222</v>
       </c>
       <c r="L6">
-        <v>0.9891847196338096</v>
+        <v>0.9892147141025033</v>
       </c>
       <c r="M6">
-        <v>0.9989448025550454</v>
+        <v>0.9989687198222791</v>
+      </c>
+      <c r="N6">
+        <v>0.9944766638591561</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9666578973184483</v>
+        <v>0.9666945216684752</v>
       </c>
       <c r="D7">
-        <v>1.02462267692132</v>
+        <v>1.024631842632282</v>
       </c>
       <c r="E7">
-        <v>0.9766961714790365</v>
+        <v>0.9767288370774169</v>
       </c>
       <c r="F7">
-        <v>0.9863517727597483</v>
+        <v>0.9863778263438983</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044217325112076</v>
+        <v>1.044224614400593</v>
       </c>
       <c r="J7">
-        <v>0.9869483206779557</v>
+        <v>0.9869839181455401</v>
       </c>
       <c r="K7">
-        <v>1.034429835167764</v>
+        <v>1.034438896754817</v>
       </c>
       <c r="L7">
-        <v>0.9870811362816646</v>
+        <v>0.9871133839409858</v>
       </c>
       <c r="M7">
-        <v>0.9966147016691312</v>
+        <v>0.9966404299939026</v>
+      </c>
+      <c r="N7">
+        <v>0.9929274750884295</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9541919392417435</v>
+        <v>0.9542402631884722</v>
       </c>
       <c r="D8">
-        <v>1.019322477363559</v>
+        <v>1.019334514571582</v>
       </c>
       <c r="E8">
-        <v>0.9662771394032663</v>
+        <v>0.9663200424019016</v>
       </c>
       <c r="F8">
-        <v>0.9749596797712645</v>
+        <v>0.9749940080676381</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041534055752877</v>
+        <v>1.041543592480801</v>
       </c>
       <c r="J8">
-        <v>0.9772178526275672</v>
+        <v>0.9772645811768566</v>
       </c>
       <c r="K8">
-        <v>1.030246922953143</v>
+        <v>1.030258804755936</v>
       </c>
       <c r="L8">
-        <v>0.9779341506516256</v>
+        <v>0.977976419882767</v>
       </c>
       <c r="M8">
-        <v>0.986489872049825</v>
+        <v>0.9865237046207534</v>
+      </c>
+      <c r="N8">
+        <v>0.9861816452856389</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9300959175179514</v>
+        <v>0.9301685747576016</v>
       </c>
       <c r="D9">
-        <v>1.009184374430261</v>
+        <v>1.009202429276298</v>
       </c>
       <c r="E9">
-        <v>0.9462198264273024</v>
+        <v>0.9462838720299025</v>
       </c>
       <c r="F9">
-        <v>0.9530515069001263</v>
+        <v>0.9531031792491972</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036228110732818</v>
+        <v>1.036242309454745</v>
       </c>
       <c r="J9">
-        <v>0.9583839491061876</v>
+        <v>0.9584534574996389</v>
       </c>
       <c r="K9">
-        <v>1.022130178538094</v>
+        <v>1.022147947252631</v>
       </c>
       <c r="L9">
-        <v>0.9602501912382522</v>
+        <v>0.9603130379278286</v>
       </c>
       <c r="M9">
-        <v>0.9669551678262475</v>
+        <v>0.9670058908490117</v>
+      </c>
+      <c r="N9">
+        <v>0.9731034789667468</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9122117166831676</v>
+        <v>0.9123042237800192</v>
       </c>
       <c r="D10">
-        <v>1.001777434259167</v>
+        <v>1.001800429848555</v>
       </c>
       <c r="E10">
-        <v>0.9314072272053115</v>
+        <v>0.931488355007201</v>
       </c>
       <c r="F10">
-        <v>0.9368996441015907</v>
+        <v>0.9369655729860419</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032227654526062</v>
+        <v>1.032245638312305</v>
       </c>
       <c r="J10">
-        <v>0.9444000998641999</v>
+        <v>0.9444878311858068</v>
       </c>
       <c r="K10">
-        <v>1.016114670569117</v>
+        <v>1.016137252890588</v>
       </c>
       <c r="L10">
-        <v>0.9471361737212821</v>
+        <v>0.9472155361963526</v>
       </c>
       <c r="M10">
-        <v>0.9525099915973002</v>
+        <v>0.9525745080593188</v>
+      </c>
+      <c r="N10">
+        <v>0.963381117877758</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9039233709348243</v>
+        <v>0.9040256991464614</v>
       </c>
       <c r="D11">
-        <v>0.9983847997713708</v>
+        <v>0.9984102465163032</v>
       </c>
       <c r="E11">
-        <v>0.9245650441547927</v>
+        <v>0.924654566274394</v>
       </c>
       <c r="F11">
-        <v>0.9294489460147592</v>
+        <v>0.9295219570188265</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030364207429888</v>
+        <v>1.030384056498109</v>
       </c>
       <c r="J11">
-        <v>0.9379216175304679</v>
+        <v>0.9380182505810511</v>
       </c>
       <c r="K11">
-        <v>1.013337240820992</v>
+        <v>1.013362205661739</v>
       </c>
       <c r="L11">
-        <v>0.9410650298252085</v>
+        <v>0.9411524748944277</v>
       </c>
       <c r="M11">
-        <v>0.9458363982223934</v>
+        <v>0.9459077389085001</v>
+      </c>
+      <c r="N11">
+        <v>0.9588747722291129</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9007507358433824</v>
+        <v>0.9008569397830634</v>
       </c>
       <c r="D12">
-        <v>0.997093409992198</v>
+        <v>0.9971198248475577</v>
       </c>
       <c r="E12">
-        <v>0.9219499059780357</v>
+        <v>0.9220427301710414</v>
       </c>
       <c r="F12">
-        <v>0.9266031256908186</v>
+        <v>0.9266789359299601</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029650042209681</v>
+        <v>1.02967062588453</v>
       </c>
       <c r="J12">
-        <v>0.9354424783615176</v>
+        <v>0.9355426041492575</v>
       </c>
       <c r="K12">
-        <v>1.012276508343549</v>
+        <v>1.012302413276947</v>
       </c>
       <c r="L12">
-        <v>0.9387424816956595</v>
+        <v>0.9388331004817431</v>
       </c>
       <c r="M12">
-        <v>0.9432858742999498</v>
+        <v>0.9433599074636184</v>
+      </c>
+      <c r="N12">
+        <v>0.9571500727370545</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9014357547671931</v>
+        <v>0.9015411161956569</v>
       </c>
       <c r="D13">
-        <v>0.997371891586268</v>
+        <v>0.9973980959605081</v>
       </c>
       <c r="E13">
-        <v>0.9225143663875512</v>
+        <v>0.9226064732821756</v>
       </c>
       <c r="F13">
-        <v>0.9272172849348432</v>
+        <v>0.9272924864738397</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029804270450947</v>
+        <v>1.029824694510046</v>
       </c>
       <c r="J13">
-        <v>0.9359777224428689</v>
+        <v>0.936077089932393</v>
       </c>
       <c r="K13">
-        <v>1.012505412006315</v>
+        <v>1.012531112592017</v>
       </c>
       <c r="L13">
-        <v>0.9392438846777148</v>
+        <v>0.9393338143176959</v>
       </c>
       <c r="M13">
-        <v>0.9438363738140091</v>
+        <v>0.9439098217197225</v>
+      </c>
+      <c r="N13">
+        <v>0.9575224434645557</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9036631171325139</v>
+        <v>0.9037657607667783</v>
       </c>
       <c r="D14">
-        <v>0.9982787117713365</v>
+        <v>0.998304237290416</v>
       </c>
       <c r="E14">
-        <v>0.9243504394706555</v>
+        <v>0.9244402305510132</v>
       </c>
       <c r="F14">
-        <v>0.92921537019626</v>
+        <v>0.9292886089250963</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030305637979384</v>
+        <v>1.030325546865261</v>
       </c>
       <c r="J14">
-        <v>0.937718234992988</v>
+        <v>0.9378151527190114</v>
       </c>
       <c r="K14">
-        <v>1.013250173818442</v>
+        <v>1.013275215172158</v>
       </c>
       <c r="L14">
-        <v>0.9408744788374838</v>
+        <v>0.9409621825317758</v>
       </c>
       <c r="M14">
-        <v>0.945627090109777</v>
+        <v>0.9456986499360468</v>
+      </c>
+      <c r="N14">
+        <v>0.9587332864987868</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9050226057514761</v>
+        <v>0.9051236065718931</v>
       </c>
       <c r="D15">
-        <v>0.9988331851255243</v>
+        <v>0.9988583003964494</v>
       </c>
       <c r="E15">
-        <v>0.9254716330373364</v>
+        <v>0.9255600228552663</v>
       </c>
       <c r="F15">
-        <v>0.930435756921271</v>
+        <v>0.9305078097688628</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030611555708603</v>
+        <v>1.030631152984424</v>
       </c>
       <c r="J15">
-        <v>0.938780676172241</v>
+        <v>0.9388761104004355</v>
       </c>
       <c r="K15">
-        <v>1.013705089274383</v>
+        <v>1.013729732119212</v>
       </c>
       <c r="L15">
-        <v>0.9418699190925717</v>
+        <v>0.9419562751386976</v>
       </c>
       <c r="M15">
-        <v>0.9467206213868083</v>
+        <v>0.9467910398398424</v>
+      </c>
+      <c r="N15">
+        <v>0.9594723782974935</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.912749336067094</v>
+        <v>0.9128412206224578</v>
       </c>
       <c r="D16">
-        <v>1.001998414519679</v>
+        <v>1.0020212548538</v>
       </c>
       <c r="E16">
-        <v>0.9318515474894005</v>
+        <v>0.9319321418984198</v>
       </c>
       <c r="F16">
-        <v>0.9373837175515538</v>
+        <v>0.9374491980924323</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032348376213858</v>
+        <v>1.032366241587068</v>
       </c>
       <c r="J16">
-        <v>0.9448203990320423</v>
+        <v>0.9449075635831653</v>
       </c>
       <c r="K16">
-        <v>1.016295108523244</v>
+        <v>1.016317539820343</v>
       </c>
       <c r="L16">
-        <v>0.947530140261987</v>
+        <v>0.9476089884292775</v>
       </c>
       <c r="M16">
-        <v>0.9529433682172821</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9530074520592552</v>
+      </c>
+      <c r="N16">
+        <v>0.9636734346637934</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9174425489521696</v>
+        <v>0.917529070199413</v>
       </c>
       <c r="D17">
-        <v>1.003932075702138</v>
+        <v>1.00395357918474</v>
       </c>
       <c r="E17">
-        <v>0.9357328679696713</v>
+        <v>0.9358088607527204</v>
       </c>
       <c r="F17">
-        <v>0.941613463026102</v>
+        <v>0.9416750840817039</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033401233774989</v>
+        <v>1.033418078166005</v>
       </c>
       <c r="J17">
-        <v>0.9484897395216247</v>
+        <v>0.9485720086697453</v>
       </c>
       <c r="K17">
-        <v>1.017871510862867</v>
+        <v>1.017892641134543</v>
       </c>
       <c r="L17">
-        <v>0.9509700801297881</v>
+        <v>0.9510444876497305</v>
       </c>
       <c r="M17">
-        <v>0.9567289993678559</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9567893560310645</v>
+      </c>
+      <c r="N17">
+        <v>0.9662252190444326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.920128443120599</v>
+        <v>0.920211950808274</v>
       </c>
       <c r="D18">
-        <v>1.00504231988522</v>
+        <v>1.005063072816137</v>
       </c>
       <c r="E18">
-        <v>0.9379561797258319</v>
+        <v>0.9380295819566201</v>
       </c>
       <c r="F18">
-        <v>0.9440372714484716</v>
+        <v>0.9440967264399924</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034002862804162</v>
+        <v>1.034019132885305</v>
       </c>
       <c r="J18">
-        <v>0.9505898612543461</v>
+        <v>0.9506693697827203</v>
       </c>
       <c r="K18">
-        <v>1.018774580263913</v>
+        <v>1.018794979608685</v>
       </c>
       <c r="L18">
-        <v>0.9529393054773417</v>
+        <v>0.9530112101383412</v>
       </c>
       <c r="M18">
-        <v>0.9588973681456292</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9589556305727428</v>
+      </c>
+      <c r="N18">
+        <v>0.9676855115060763</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9210358441390942</v>
+        <v>0.921118342628731</v>
       </c>
       <c r="D19">
-        <v>1.005417986045871</v>
+        <v>1.005438487734089</v>
       </c>
       <c r="E19">
-        <v>0.938707637472024</v>
+        <v>0.9387801713689836</v>
       </c>
       <c r="F19">
-        <v>0.9448566397544349</v>
+        <v>0.9449153697848217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034205947097117</v>
+        <v>1.034222024751095</v>
       </c>
       <c r="J19">
-        <v>0.9512993865526254</v>
+        <v>0.9513779689721372</v>
       </c>
       <c r="K19">
-        <v>1.01907980361579</v>
+        <v>1.019099958206132</v>
       </c>
       <c r="L19">
-        <v>0.95360467372867</v>
+        <v>0.9536757389709699</v>
       </c>
       <c r="M19">
-        <v>0.9596302245755329</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.959687785686134</v>
+      </c>
+      <c r="N19">
+        <v>0.968178834150236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9169444263329682</v>
+        <v>0.917031510868058</v>
       </c>
       <c r="D20">
-        <v>1.003726457648667</v>
+        <v>1.003748101473257</v>
       </c>
       <c r="E20">
-        <v>0.9353206992022496</v>
+        <v>0.9353971758099325</v>
       </c>
       <c r="F20">
-        <v>0.9411641967416081</v>
+        <v>0.941226222878655</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033289578531157</v>
+        <v>1.033306530220961</v>
       </c>
       <c r="J20">
-        <v>0.9481002660268635</v>
+        <v>0.9481830503847642</v>
       </c>
       <c r="K20">
-        <v>1.017704096756064</v>
+        <v>1.017725363660539</v>
       </c>
       <c r="L20">
-        <v>0.9506049138306879</v>
+        <v>0.9506797885615287</v>
       </c>
       <c r="M20">
-        <v>0.9563270034373413</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9563877515541228</v>
+      </c>
+      <c r="N20">
+        <v>0.9659543866393119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9030099200348302</v>
+        <v>0.9031133572872393</v>
       </c>
       <c r="D21">
-        <v>0.9980125679738827</v>
+        <v>0.9980382917043922</v>
       </c>
       <c r="E21">
-        <v>0.9238118796515824</v>
+        <v>0.9239023472739358</v>
       </c>
       <c r="F21">
-        <v>0.9286292333390382</v>
+        <v>0.9287030451043945</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030158625731807</v>
+        <v>1.030178685096508</v>
       </c>
       <c r="J21">
-        <v>0.9372077888400783</v>
+        <v>0.9373054224910096</v>
       </c>
       <c r="K21">
-        <v>1.013031690942886</v>
+        <v>1.013056924803748</v>
       </c>
       <c r="L21">
-        <v>0.9403962487610679</v>
+        <v>0.9404846029051623</v>
       </c>
       <c r="M21">
-        <v>0.9451018264246197</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9451739376064592</v>
+      </c>
+      <c r="N21">
+        <v>0.9583781843262343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8936968451351307</v>
+        <v>0.8938119142838488</v>
       </c>
       <c r="D22">
-        <v>0.9942372078382908</v>
+        <v>0.9942658383105752</v>
       </c>
       <c r="E22">
-        <v>0.9161435072707391</v>
+        <v>0.9162438619262732</v>
       </c>
       <c r="F22">
-        <v>0.9202885552663772</v>
+        <v>0.9203707767229873</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028061286218867</v>
+        <v>1.028083546869373</v>
       </c>
       <c r="J22">
-        <v>0.9299322782593189</v>
+        <v>0.9300403513293327</v>
       </c>
       <c r="K22">
-        <v>1.009923697769437</v>
+        <v>1.00995175240085</v>
       </c>
       <c r="L22">
-        <v>0.9335817255476055</v>
+        <v>0.9336795703841139</v>
       </c>
       <c r="M22">
-        <v>0.9376237216581852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9377039116167427</v>
+      </c>
+      <c r="N22">
+        <v>0.9533163610480503</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8986910204140592</v>
+        <v>0.8987997768634336</v>
       </c>
       <c r="D23">
-        <v>0.9962572415634667</v>
+        <v>0.9962842941988888</v>
       </c>
       <c r="E23">
-        <v>0.9202533093136074</v>
+        <v>0.9203483049326006</v>
       </c>
       <c r="F23">
-        <v>0.9247574614075319</v>
+        <v>0.9248351164427987</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029186228823922</v>
+        <v>1.029207295823221</v>
       </c>
       <c r="J23">
-        <v>0.933833243363793</v>
+        <v>0.9339356633002969</v>
       </c>
       <c r="K23">
-        <v>1.011588669561951</v>
+        <v>1.011615193551157</v>
       </c>
       <c r="L23">
-        <v>0.9372351013642995</v>
+        <v>0.9373278054493179</v>
       </c>
       <c r="M23">
-        <v>0.9416312968241832</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9417071029734841</v>
+      </c>
+      <c r="N23">
+        <v>0.956030494948919</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.917169664997769</v>
+        <v>0.9172564946558067</v>
       </c>
       <c r="D24">
-        <v>1.003819421824039</v>
+        <v>1.003841002144637</v>
       </c>
       <c r="E24">
-        <v>0.9355070652988882</v>
+        <v>0.9355833230005791</v>
       </c>
       <c r="F24">
-        <v>0.9413673340310811</v>
+        <v>0.9414291768685671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033340069144046</v>
+        <v>1.033356972285158</v>
       </c>
       <c r="J24">
-        <v>0.948276375715596</v>
+        <v>0.9483589269819412</v>
       </c>
       <c r="K24">
-        <v>1.017779794495542</v>
+        <v>1.017800999575944</v>
       </c>
       <c r="L24">
-        <v>0.9507700312035895</v>
+        <v>0.9508446945544522</v>
       </c>
       <c r="M24">
-        <v>0.9565087702165657</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9565693412079815</v>
+      </c>
+      <c r="N24">
+        <v>0.966076850582376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9366135499999703</v>
+        <v>0.9366793765236021</v>
       </c>
       <c r="D25">
-        <v>1.011910315587073</v>
+        <v>1.011926675997567</v>
       </c>
       <c r="E25">
-        <v>0.9516340443023845</v>
+        <v>0.9516921765710029</v>
       </c>
       <c r="F25">
-        <v>0.9589616801229958</v>
+        <v>0.9590084673857148</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037675229634746</v>
+        <v>1.037688121774194</v>
       </c>
       <c r="J25">
-        <v>0.963480087754174</v>
+        <v>0.9635432514354904</v>
       </c>
       <c r="K25">
-        <v>1.024326510566583</v>
+        <v>1.02434262456409</v>
       </c>
       <c r="L25">
-        <v>0.9650326452727412</v>
+        <v>0.9650897523590871</v>
       </c>
       <c r="M25">
-        <v>0.9722323230114752</v>
+        <v>0.9722783013837052</v>
+      </c>
+      <c r="N25">
+        <v>0.9766444242588872</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9509018239798785</v>
+        <v>0.9727155388436608</v>
       </c>
       <c r="D2">
-        <v>1.017920143551208</v>
+        <v>1.030454148798918</v>
       </c>
       <c r="E2">
-        <v>0.9635347224458519</v>
+        <v>0.9892325255276879</v>
       </c>
       <c r="F2">
-        <v>0.9719488668274391</v>
+        <v>0.9965884032909026</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040816570757543</v>
+        <v>1.043284359980304</v>
       </c>
       <c r="J2">
-        <v>0.9746572360927025</v>
+        <v>0.9957441169942276</v>
       </c>
       <c r="K2">
-        <v>1.029135342362527</v>
+        <v>1.041504906712862</v>
       </c>
       <c r="L2">
-        <v>0.9755265896555022</v>
+        <v>1.000843934951904</v>
       </c>
       <c r="M2">
-        <v>0.9838133435463118</v>
+        <v>1.008095472588666</v>
       </c>
       <c r="N2">
-        <v>0.9843704844000593</v>
+        <v>0.9971581878538062</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.960620205951255</v>
+        <v>0.9875195870118909</v>
       </c>
       <c r="D3">
-        <v>1.022044348386191</v>
+        <v>1.034396084916921</v>
       </c>
       <c r="E3">
-        <v>0.9716486432811579</v>
+        <v>1.002111114340117</v>
       </c>
       <c r="F3">
-        <v>0.9808210445415809</v>
+        <v>1.009688968141901</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042923604223002</v>
+        <v>1.045773258678698</v>
       </c>
       <c r="J3">
-        <v>0.9822451735514468</v>
+        <v>1.008356361152153</v>
       </c>
       <c r="K3">
-        <v>1.032402728210666</v>
+        <v>1.044606993208243</v>
       </c>
       <c r="L3">
-        <v>0.982657614956603</v>
+        <v>1.012717054142984</v>
       </c>
       <c r="M3">
-        <v>0.9917053514088866</v>
+        <v>1.020199359845127</v>
       </c>
       <c r="N3">
-        <v>0.9896396589154376</v>
+        <v>1.009788342845081</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9666611104936919</v>
+        <v>0.9965731398770384</v>
       </c>
       <c r="D4">
-        <v>1.024617592502876</v>
+        <v>1.036838598202097</v>
       </c>
       <c r="E4">
-        <v>0.9767008758758864</v>
+        <v>1.009996016419283</v>
       </c>
       <c r="F4">
-        <v>0.9863472389373183</v>
+        <v>1.017712326509141</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044217495989157</v>
+        <v>1.047286758019971</v>
       </c>
       <c r="J4">
-        <v>0.9869578631284339</v>
+        <v>1.01606491316508</v>
       </c>
       <c r="K4">
-        <v>1.034427713377741</v>
+        <v>1.046511849637101</v>
       </c>
       <c r="L4">
-        <v>0.9870888796300105</v>
+        <v>1.019975276976941</v>
       </c>
       <c r="M4">
-        <v>0.9966132823761062</v>
+        <v>1.027601577984592</v>
       </c>
       <c r="N4">
-        <v>0.9929094042770684</v>
+        <v>1.017507841886049</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9691458320359208</v>
+        <v>1.000266816984802</v>
       </c>
       <c r="D5">
-        <v>1.025677840191753</v>
+        <v>1.03784177150932</v>
       </c>
       <c r="E5">
-        <v>0.9787808361960351</v>
+        <v>1.013214679752012</v>
       </c>
       <c r="F5">
-        <v>0.9886226353959972</v>
+        <v>1.020988047984189</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04474566923899</v>
+        <v>1.047901842434985</v>
       </c>
       <c r="J5">
-        <v>0.9888951926596083</v>
+        <v>1.01920854465379</v>
       </c>
       <c r="K5">
-        <v>1.035258841233234</v>
+        <v>1.047290260107078</v>
       </c>
       <c r="L5">
-        <v>0.9889110655381461</v>
+        <v>1.022935521211071</v>
       </c>
       <c r="M5">
-        <v>0.9986322404007232</v>
+        <v>1.030621176773715</v>
       </c>
       <c r="N5">
-        <v>0.9942528566023627</v>
+        <v>1.020655937692053</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9695599278767245</v>
+        <v>1.000880754424309</v>
       </c>
       <c r="D6">
-        <v>1.025854632078522</v>
+        <v>1.038008879535551</v>
       </c>
       <c r="E6">
-        <v>0.9791275824381157</v>
+        <v>1.013749758789829</v>
       </c>
       <c r="F6">
-        <v>0.9890019772146212</v>
+        <v>1.021532642365328</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044833449780983</v>
+        <v>1.048003927717054</v>
       </c>
       <c r="J6">
-        <v>0.9892179950193665</v>
+        <v>1.019730974627794</v>
       </c>
       <c r="K6">
-        <v>1.035397240194222</v>
+        <v>1.047419700719004</v>
       </c>
       <c r="L6">
-        <v>0.9892147141025033</v>
+        <v>1.023427488015925</v>
       </c>
       <c r="M6">
-        <v>0.9989687198222791</v>
+        <v>1.031123042705206</v>
       </c>
       <c r="N6">
-        <v>0.9944766638591561</v>
+        <v>1.021179109576543</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9666945216684752</v>
+        <v>0.9966229208090064</v>
       </c>
       <c r="D7">
-        <v>1.024631842632282</v>
+        <v>1.036852092934748</v>
       </c>
       <c r="E7">
-        <v>0.9767288370774169</v>
+        <v>1.010039388808067</v>
       </c>
       <c r="F7">
-        <v>0.9863778263438983</v>
+        <v>1.017756465715523</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044224614400593</v>
+        <v>1.047295057650817</v>
       </c>
       <c r="J7">
-        <v>0.9869839181455401</v>
+        <v>1.016107286416141</v>
       </c>
       <c r="K7">
-        <v>1.034438896754817</v>
+        <v>1.046522336237796</v>
       </c>
       <c r="L7">
-        <v>0.9871133839409858</v>
+        <v>1.020015177390393</v>
       </c>
       <c r="M7">
-        <v>0.9966404299939026</v>
+        <v>1.027642276022589</v>
       </c>
       <c r="N7">
-        <v>0.9929274750884295</v>
+        <v>1.017550275311987</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9542402631884722</v>
+        <v>0.9778363646538371</v>
       </c>
       <c r="D8">
-        <v>1.019334514571582</v>
+        <v>1.031810222167698</v>
       </c>
       <c r="E8">
-        <v>0.9663200424019016</v>
+        <v>0.9936851671953439</v>
       </c>
       <c r="F8">
-        <v>0.9749940080676381</v>
+        <v>1.001117193471928</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041543592480801</v>
+        <v>1.044146916665813</v>
       </c>
       <c r="J8">
-        <v>0.9772645811768566</v>
+        <v>1.000107621606246</v>
       </c>
       <c r="K8">
-        <v>1.030258804755936</v>
+        <v>1.042575876889296</v>
       </c>
       <c r="L8">
-        <v>0.977976419882767</v>
+        <v>1.004951361852487</v>
       </c>
       <c r="M8">
-        <v>0.9865237046207534</v>
+        <v>1.012282052898677</v>
       </c>
       <c r="N8">
-        <v>0.9861816452856389</v>
+        <v>1.001527889142874</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9301685747576016</v>
+        <v>0.9399323066235277</v>
       </c>
       <c r="D9">
-        <v>1.009202429276298</v>
+        <v>1.021969690474085</v>
       </c>
       <c r="E9">
-        <v>0.9462838720299025</v>
+        <v>0.960788161238896</v>
       </c>
       <c r="F9">
-        <v>0.9531031792491972</v>
+        <v>0.9676733259365038</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036242309454745</v>
+        <v>1.037740576252814</v>
       </c>
       <c r="J9">
-        <v>0.9584534574996389</v>
+        <v>0.967800343704742</v>
       </c>
       <c r="K9">
-        <v>1.022147947252631</v>
+        <v>1.034716104516485</v>
       </c>
       <c r="L9">
-        <v>0.9603130379278286</v>
+        <v>0.9745511615071933</v>
       </c>
       <c r="M9">
-        <v>0.9670058908490117</v>
+        <v>0.9813135993913104</v>
       </c>
       <c r="N9">
-        <v>0.9731034789667468</v>
+        <v>0.9691747312010536</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9123042237800192</v>
+        <v>0.9099335556384969</v>
       </c>
       <c r="D10">
-        <v>1.001800429848555</v>
+        <v>1.01452292659527</v>
       </c>
       <c r="E10">
-        <v>0.931488355007201</v>
+        <v>0.9348681654265093</v>
       </c>
       <c r="F10">
-        <v>0.9369655729860419</v>
+        <v>0.9413500198481738</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032245638312305</v>
+        <v>1.032668992897662</v>
       </c>
       <c r="J10">
-        <v>0.9444878311858068</v>
+        <v>0.9422399962478676</v>
       </c>
       <c r="K10">
-        <v>1.016137252890588</v>
+        <v>1.02863482426177</v>
       </c>
       <c r="L10">
-        <v>0.9472155361963526</v>
+        <v>0.9505221636833058</v>
       </c>
       <c r="M10">
-        <v>0.9525745080593188</v>
+        <v>0.9568656128773578</v>
       </c>
       <c r="N10">
-        <v>0.963381117877758</v>
+        <v>0.9435780851189777</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9040256991464614</v>
+        <v>0.8952822876064943</v>
       </c>
       <c r="D11">
-        <v>0.9984102465163032</v>
+        <v>1.011002383257178</v>
       </c>
       <c r="E11">
-        <v>0.924654566274394</v>
+        <v>0.922252983716091</v>
       </c>
       <c r="F11">
-        <v>0.9295219570188265</v>
+        <v>0.9285482158368883</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030384056498109</v>
+        <v>1.030203840150185</v>
       </c>
       <c r="J11">
-        <v>0.9380182505810511</v>
+        <v>0.9297683445487795</v>
       </c>
       <c r="K11">
-        <v>1.013362205661739</v>
+        <v>1.025719751287771</v>
       </c>
       <c r="L11">
-        <v>0.9411524748944277</v>
+        <v>0.9388067997430952</v>
       </c>
       <c r="M11">
-        <v>0.9459077389085001</v>
+        <v>0.9449563034764153</v>
       </c>
       <c r="N11">
-        <v>0.9588747722291129</v>
+        <v>0.9310887222439587</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9008569397830634</v>
+        <v>0.8895180316435708</v>
       </c>
       <c r="D12">
-        <v>0.9971198248475577</v>
+        <v>1.009638876609854</v>
       </c>
       <c r="E12">
-        <v>0.9220427301710414</v>
+        <v>0.9172984908527827</v>
       </c>
       <c r="F12">
-        <v>0.9266789359299601</v>
+        <v>0.9235222659043285</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02967062588453</v>
+        <v>1.029237210833156</v>
       </c>
       <c r="J12">
-        <v>0.9355426041492575</v>
+        <v>0.9248646845865356</v>
       </c>
       <c r="K12">
-        <v>1.012302413276947</v>
+        <v>1.02458371185646</v>
       </c>
       <c r="L12">
-        <v>0.9388331004817431</v>
+        <v>0.9342023472683061</v>
       </c>
       <c r="M12">
-        <v>0.9433599074636184</v>
+        <v>0.940277564201407</v>
       </c>
       <c r="N12">
-        <v>0.9571500727370545</v>
+        <v>0.9261780985221109</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9015411161956569</v>
+        <v>0.8907705991743983</v>
       </c>
       <c r="D13">
-        <v>0.9973980959605081</v>
+        <v>1.009934118196276</v>
       </c>
       <c r="E13">
-        <v>0.9226064732821756</v>
+        <v>0.9183746648065252</v>
       </c>
       <c r="F13">
-        <v>0.9272924864738397</v>
+        <v>0.9246138710371895</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029824694510046</v>
+        <v>1.02944708449811</v>
       </c>
       <c r="J13">
-        <v>0.936077089932393</v>
+        <v>0.9259300816042717</v>
       </c>
       <c r="K13">
-        <v>1.012531112592017</v>
+        <v>1.02483003592357</v>
       </c>
       <c r="L13">
-        <v>0.9393338143176959</v>
+        <v>0.9352026441207544</v>
       </c>
       <c r="M13">
-        <v>0.9439098217197225</v>
+        <v>0.9412939048351712</v>
       </c>
       <c r="N13">
-        <v>0.9575224434645557</v>
+        <v>0.9272450085258145</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9037657607667783</v>
+        <v>0.8948129238024755</v>
       </c>
       <c r="D14">
-        <v>0.998304237290416</v>
+        <v>1.010890897999243</v>
       </c>
       <c r="E14">
-        <v>0.9244402305510132</v>
+        <v>0.9218493672300326</v>
       </c>
       <c r="F14">
-        <v>0.9292886089250963</v>
+        <v>0.9281387386463974</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030325546865261</v>
+        <v>1.030125055959859</v>
       </c>
       <c r="J14">
-        <v>0.9378151527190114</v>
+        <v>0.9293689856425814</v>
       </c>
       <c r="K14">
-        <v>1.013275215172158</v>
+        <v>1.025627013042013</v>
       </c>
       <c r="L14">
-        <v>0.9409621825317758</v>
+        <v>0.9384317682113748</v>
       </c>
       <c r="M14">
-        <v>0.9456986499360468</v>
+        <v>0.944575179798676</v>
       </c>
       <c r="N14">
-        <v>0.9587332864987868</v>
+        <v>0.9306887962023063</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9051236065718931</v>
+        <v>0.897258116998998</v>
       </c>
       <c r="D15">
-        <v>0.9988583003964494</v>
+        <v>1.011472580228212</v>
       </c>
       <c r="E15">
-        <v>0.9255600228552663</v>
+        <v>0.9239524059929395</v>
       </c>
       <c r="F15">
-        <v>0.9305078097688628</v>
+        <v>0.9302723906248193</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030631152984424</v>
+        <v>1.030535628520688</v>
       </c>
       <c r="J15">
-        <v>0.9388761104004355</v>
+        <v>0.9314496134149082</v>
       </c>
       <c r="K15">
-        <v>1.013729732119212</v>
+        <v>1.026110591665162</v>
       </c>
       <c r="L15">
-        <v>0.9419562751386976</v>
+        <v>0.9403857294497279</v>
       </c>
       <c r="M15">
-        <v>0.9467910398398424</v>
+        <v>0.9465609620243164</v>
       </c>
       <c r="N15">
-        <v>0.9594723782974935</v>
+        <v>0.9327723787047212</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9128412206224578</v>
+        <v>0.9108654140531837</v>
       </c>
       <c r="D16">
-        <v>1.0020212548538</v>
+        <v>1.014749473671137</v>
       </c>
       <c r="E16">
-        <v>0.9319321418984198</v>
+        <v>0.9356715559239585</v>
       </c>
       <c r="F16">
-        <v>0.9374491980924323</v>
+        <v>0.9421655170373167</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032366241587068</v>
+        <v>1.032826127306632</v>
       </c>
       <c r="J16">
-        <v>0.9449075635831653</v>
+        <v>0.9430335566003099</v>
       </c>
       <c r="K16">
-        <v>1.016317539820343</v>
+        <v>1.028821521215038</v>
       </c>
       <c r="L16">
-        <v>0.9476089884292775</v>
+        <v>0.951267818959752</v>
       </c>
       <c r="M16">
-        <v>0.9530074520592552</v>
+        <v>0.9576238474410234</v>
       </c>
       <c r="N16">
-        <v>0.9636734346637934</v>
+        <v>0.944372772418143</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.917529070199413</v>
+        <v>0.9189139307086481</v>
       </c>
       <c r="D17">
-        <v>1.00395357918474</v>
+        <v>1.016719088431722</v>
       </c>
       <c r="E17">
-        <v>0.9358088607527204</v>
+        <v>0.9426154014229207</v>
       </c>
       <c r="F17">
-        <v>0.9416750840817039</v>
+        <v>0.9492150788216768</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033418078166005</v>
+        <v>1.03418469980018</v>
       </c>
       <c r="J17">
-        <v>0.9485720086697453</v>
+        <v>0.9498889673386451</v>
       </c>
       <c r="K17">
-        <v>1.017892641134543</v>
+        <v>1.030440187160221</v>
       </c>
       <c r="L17">
-        <v>0.9510444876497305</v>
+        <v>0.9577104062004126</v>
       </c>
       <c r="M17">
-        <v>0.9567893560310645</v>
+        <v>0.9641762692582044</v>
       </c>
       <c r="N17">
-        <v>0.9662252190444326</v>
+        <v>0.9512379186260531</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.920211950808274</v>
+        <v>0.9234542823433929</v>
       </c>
       <c r="D18">
-        <v>1.005063072816137</v>
+        <v>1.017840318406811</v>
       </c>
       <c r="E18">
-        <v>0.9380295819566201</v>
+        <v>0.9465363688990792</v>
       </c>
       <c r="F18">
-        <v>0.9440967264399924</v>
+        <v>0.9531965795987885</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034019132885305</v>
+        <v>1.034952050116205</v>
       </c>
       <c r="J18">
-        <v>0.9506693697827203</v>
+        <v>0.9537572318403021</v>
       </c>
       <c r="K18">
-        <v>1.018794979608685</v>
+        <v>1.031358049937105</v>
       </c>
       <c r="L18">
-        <v>0.9530112101383412</v>
+        <v>0.961346507885223</v>
       </c>
       <c r="M18">
-        <v>0.9589556305727428</v>
+        <v>0.9678752573639154</v>
       </c>
       <c r="N18">
-        <v>0.9676855115060763</v>
+        <v>0.9551116765069988</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.921118342628731</v>
+        <v>0.9249779952700741</v>
       </c>
       <c r="D19">
-        <v>1.005438487734089</v>
+        <v>1.018218217762698</v>
       </c>
       <c r="E19">
-        <v>0.9387801713689836</v>
+        <v>0.9478528157961011</v>
       </c>
       <c r="F19">
-        <v>0.9449153697848217</v>
+        <v>0.954533483792169</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034222024751095</v>
+        <v>1.035209694693387</v>
       </c>
       <c r="J19">
-        <v>0.9513779689721372</v>
+        <v>0.9550555327460905</v>
       </c>
       <c r="K19">
-        <v>1.019099958206132</v>
+        <v>1.03166682198225</v>
       </c>
       <c r="L19">
-        <v>0.9536757389709699</v>
+        <v>0.9625670096313671</v>
       </c>
       <c r="M19">
-        <v>0.959687785686134</v>
+        <v>0.9691170111071468</v>
       </c>
       <c r="N19">
-        <v>0.968178834150236</v>
+        <v>0.9564118211489904</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.917031510868058</v>
+        <v>0.9180667783463231</v>
       </c>
       <c r="D20">
-        <v>1.003748101473257</v>
+        <v>1.016510690751458</v>
       </c>
       <c r="E20">
-        <v>0.9353971758099325</v>
+        <v>0.9418841136904723</v>
       </c>
       <c r="F20">
-        <v>0.941226222878655</v>
+        <v>0.9484725676223826</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033306530220961</v>
+        <v>1.034041594416026</v>
       </c>
       <c r="J20">
-        <v>0.9481830503847642</v>
+        <v>0.9491672873097133</v>
       </c>
       <c r="K20">
-        <v>1.017725363660539</v>
+        <v>1.030269302191275</v>
       </c>
       <c r="L20">
-        <v>0.9506797885615287</v>
+        <v>0.9570321004975225</v>
       </c>
       <c r="M20">
-        <v>0.9563877515541228</v>
+        <v>0.9634863034684753</v>
       </c>
       <c r="N20">
-        <v>0.9659543866393119</v>
+        <v>0.9505152137287027</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9031133572872393</v>
+        <v>0.893632203307987</v>
       </c>
       <c r="D21">
-        <v>0.9980382917043922</v>
+        <v>1.010610807793571</v>
       </c>
       <c r="E21">
-        <v>0.9239023472739358</v>
+        <v>0.9208341861509903</v>
       </c>
       <c r="F21">
-        <v>0.9287030451043945</v>
+        <v>0.9271088474506608</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030178685096508</v>
+        <v>1.029926925643788</v>
       </c>
       <c r="J21">
-        <v>0.9373054224910096</v>
+        <v>0.9283644218830092</v>
       </c>
       <c r="K21">
-        <v>1.013056924803748</v>
+        <v>1.025393905526974</v>
       </c>
       <c r="L21">
-        <v>0.9404846029051623</v>
+        <v>0.9374884298849855</v>
       </c>
       <c r="M21">
-        <v>0.9451739376064592</v>
+        <v>0.9436165499642551</v>
       </c>
       <c r="N21">
-        <v>0.9583781843262343</v>
+        <v>0.9296828058469706</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8938119142838488</v>
+        <v>0.8763399917979035</v>
       </c>
       <c r="D22">
-        <v>0.9942658383105752</v>
+        <v>1.006568267716565</v>
       </c>
       <c r="E22">
-        <v>0.9162438619262732</v>
+        <v>0.9059913260802326</v>
       </c>
       <c r="F22">
-        <v>0.9203707767229873</v>
+        <v>0.9120560634485676</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028083546869373</v>
+        <v>1.027035604054112</v>
       </c>
       <c r="J22">
-        <v>0.9300403513293327</v>
+        <v>0.9136618849750761</v>
       </c>
       <c r="K22">
-        <v>1.00995175240085</v>
+        <v>1.022010719333087</v>
       </c>
       <c r="L22">
-        <v>0.9336795703841139</v>
+        <v>0.9236873354617933</v>
       </c>
       <c r="M22">
-        <v>0.9377039116167427</v>
+        <v>0.9295971407122037</v>
       </c>
       <c r="N22">
-        <v>0.9533163610480503</v>
+        <v>0.9149593896502236</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8987997768634336</v>
+        <v>0.8857241173541021</v>
       </c>
       <c r="D23">
-        <v>0.9962842941988888</v>
+        <v>1.00874818154589</v>
       </c>
       <c r="E23">
-        <v>0.9203483049326006</v>
+        <v>0.914040348608228</v>
       </c>
       <c r="F23">
-        <v>0.9248351164427987</v>
+        <v>0.9202177139398653</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029207295823221</v>
+        <v>1.028602141911281</v>
       </c>
       <c r="J23">
-        <v>0.9339356633002969</v>
+        <v>0.9216382753938296</v>
       </c>
       <c r="K23">
-        <v>1.011615193551157</v>
+        <v>1.023839460726596</v>
       </c>
       <c r="L23">
-        <v>0.9373278054493179</v>
+        <v>0.9311734056381078</v>
       </c>
       <c r="M23">
-        <v>0.9417071029734841</v>
+        <v>0.9372003648044775</v>
       </c>
       <c r="N23">
-        <v>0.956030494948919</v>
+        <v>0.9229471074582765</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9172564946558067</v>
+        <v>0.9184500415612421</v>
       </c>
       <c r="D24">
-        <v>1.003841002144637</v>
+        <v>1.016604941235471</v>
       </c>
       <c r="E24">
-        <v>0.9355833230005791</v>
+        <v>0.9422149464501086</v>
       </c>
       <c r="F24">
-        <v>0.9414291768685671</v>
+        <v>0.9488084752491992</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033356972285158</v>
+        <v>1.034106334357382</v>
       </c>
       <c r="J24">
-        <v>0.9483589269819412</v>
+        <v>0.9494937821805315</v>
       </c>
       <c r="K24">
-        <v>1.017800999575944</v>
+        <v>1.030346598199626</v>
       </c>
       <c r="L24">
-        <v>0.9508446945544522</v>
+        <v>0.9573389700044501</v>
       </c>
       <c r="M24">
-        <v>0.9565693412079815</v>
+        <v>0.9637984452818396</v>
       </c>
       <c r="N24">
-        <v>0.966076850582376</v>
+        <v>0.950842172259687</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9366793765236021</v>
+        <v>0.9504277988205132</v>
       </c>
       <c r="D25">
-        <v>1.011926675997567</v>
+        <v>1.024647889540602</v>
       </c>
       <c r="E25">
-        <v>0.9516921765710029</v>
+        <v>0.9698822738825541</v>
       </c>
       <c r="F25">
-        <v>0.9590084673857148</v>
+        <v>0.9769148795675496</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.037688121774194</v>
+        <v>1.039517620651639</v>
       </c>
       <c r="J25">
-        <v>0.9635432514354904</v>
+        <v>0.9767469222444712</v>
       </c>
       <c r="K25">
-        <v>1.02434262456409</v>
+        <v>1.036875259257474</v>
       </c>
       <c r="L25">
-        <v>0.9650897523590871</v>
+        <v>0.9829668432350163</v>
       </c>
       <c r="M25">
-        <v>0.9722783013837052</v>
+        <v>0.9898824552155189</v>
       </c>
       <c r="N25">
-        <v>0.9766444242588872</v>
+        <v>0.9781340149084964</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9727155388436608</v>
+        <v>1.001911001835834</v>
       </c>
       <c r="D2">
-        <v>1.030454148798918</v>
+        <v>1.027734973677766</v>
       </c>
       <c r="E2">
-        <v>0.9892325255276879</v>
+        <v>1.014359747767609</v>
       </c>
       <c r="F2">
-        <v>0.9965884032909026</v>
+        <v>1.016831534529732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043284359980304</v>
+        <v>1.044282888109552</v>
       </c>
       <c r="J2">
-        <v>0.9957441169942276</v>
+        <v>1.024034705017069</v>
       </c>
       <c r="K2">
-        <v>1.041504906712862</v>
+        <v>1.038820979428481</v>
       </c>
       <c r="L2">
-        <v>1.000843934951904</v>
+        <v>1.025622588743406</v>
       </c>
       <c r="M2">
-        <v>1.008095472588666</v>
+        <v>1.028061255701632</v>
       </c>
       <c r="N2">
-        <v>0.9971581878538062</v>
+        <v>1.025488951756616</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9875195870118909</v>
+        <v>1.006372971379782</v>
       </c>
       <c r="D3">
-        <v>1.034396084916921</v>
+        <v>1.029877087148964</v>
       </c>
       <c r="E3">
-        <v>1.002111114340117</v>
+        <v>1.01822443818251</v>
       </c>
       <c r="F3">
-        <v>1.009688968141901</v>
+        <v>1.021355605327144</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045773258678698</v>
+        <v>1.045212978498887</v>
       </c>
       <c r="J3">
-        <v>1.008356361152153</v>
+        <v>1.026691397706104</v>
       </c>
       <c r="K3">
-        <v>1.044606993208243</v>
+        <v>1.040141440659787</v>
       </c>
       <c r="L3">
-        <v>1.012717054142984</v>
+        <v>1.028629325606512</v>
       </c>
       <c r="M3">
-        <v>1.020199359845127</v>
+        <v>1.031722338695622</v>
       </c>
       <c r="N3">
-        <v>1.009788342845081</v>
+        <v>1.028149417253997</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9965731398770384</v>
+        <v>1.009202226598448</v>
       </c>
       <c r="D4">
-        <v>1.036838598202097</v>
+        <v>1.031240080563629</v>
       </c>
       <c r="E4">
-        <v>1.009996016419283</v>
+        <v>1.020680990601739</v>
       </c>
       <c r="F4">
-        <v>1.017712326509141</v>
+        <v>1.024231862638893</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047286758019971</v>
+        <v>1.045794175023872</v>
       </c>
       <c r="J4">
-        <v>1.01606491316508</v>
+        <v>1.028373432126008</v>
       </c>
       <c r="K4">
-        <v>1.046511849637101</v>
+        <v>1.040975537082887</v>
       </c>
       <c r="L4">
-        <v>1.019975276976941</v>
+        <v>1.030536060834383</v>
       </c>
       <c r="M4">
-        <v>1.027601577984592</v>
+        <v>1.034046369066863</v>
       </c>
       <c r="N4">
-        <v>1.017507841886049</v>
+        <v>1.029833840355708</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.000266816984802</v>
+        <v>1.01037826358176</v>
       </c>
       <c r="D5">
-        <v>1.03784177150932</v>
+        <v>1.031807677601106</v>
       </c>
       <c r="E5">
-        <v>1.013214679752012</v>
+        <v>1.021703515181992</v>
       </c>
       <c r="F5">
-        <v>1.020988047984189</v>
+        <v>1.025429245423993</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047901842434985</v>
+        <v>1.046033663693607</v>
       </c>
       <c r="J5">
-        <v>1.01920854465379</v>
+        <v>1.029071964717785</v>
       </c>
       <c r="K5">
-        <v>1.047290260107078</v>
+        <v>1.041321421633931</v>
       </c>
       <c r="L5">
-        <v>1.022935521211071</v>
+        <v>1.0313286533796</v>
       </c>
       <c r="M5">
-        <v>1.030621176773715</v>
+        <v>1.035012994920579</v>
       </c>
       <c r="N5">
-        <v>1.020655937692053</v>
+        <v>1.030533364943888</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.000880754424309</v>
+        <v>1.010574954399041</v>
       </c>
       <c r="D6">
-        <v>1.038008879535551</v>
+        <v>1.03190266617443</v>
       </c>
       <c r="E6">
-        <v>1.013749758789829</v>
+        <v>1.021874613047152</v>
       </c>
       <c r="F6">
-        <v>1.021532642365328</v>
+        <v>1.025629612019093</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048003927717054</v>
+        <v>1.046073593334564</v>
       </c>
       <c r="J6">
-        <v>1.019730974627794</v>
+        <v>1.029188754990138</v>
       </c>
       <c r="K6">
-        <v>1.047419700719004</v>
+        <v>1.04137922023092</v>
       </c>
       <c r="L6">
-        <v>1.023427488015925</v>
+        <v>1.031461213788112</v>
       </c>
       <c r="M6">
-        <v>1.031123042705206</v>
+        <v>1.035174696175507</v>
       </c>
       <c r="N6">
-        <v>1.021179109576543</v>
+        <v>1.030650321071824</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9966229208090064</v>
+        <v>1.009217992814336</v>
       </c>
       <c r="D7">
-        <v>1.036852092934748</v>
+        <v>1.031247685901227</v>
       </c>
       <c r="E7">
-        <v>1.010039388808067</v>
+        <v>1.020694693276171</v>
       </c>
       <c r="F7">
-        <v>1.017756465715523</v>
+        <v>1.024247907904946</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047295057650817</v>
+        <v>1.045797394005074</v>
       </c>
       <c r="J7">
-        <v>1.016107286416141</v>
+        <v>1.028382799376966</v>
       </c>
       <c r="K7">
-        <v>1.046522336237796</v>
+        <v>1.040980177423962</v>
       </c>
       <c r="L7">
-        <v>1.020015177390393</v>
+        <v>1.030546686472683</v>
       </c>
       <c r="M7">
-        <v>1.027642276022589</v>
+        <v>1.034059325553992</v>
       </c>
       <c r="N7">
-        <v>1.017550275311987</v>
+        <v>1.029843220909237</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9778363646538371</v>
+        <v>1.00343124353712</v>
       </c>
       <c r="D8">
-        <v>1.031810222167698</v>
+        <v>1.028463769899806</v>
       </c>
       <c r="E8">
-        <v>0.9936851671953439</v>
+        <v>1.015675205307046</v>
       </c>
       <c r="F8">
-        <v>1.001117193471928</v>
+        <v>1.018371323021578</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044146916665813</v>
+        <v>1.044601546766992</v>
       </c>
       <c r="J8">
-        <v>1.000107621606246</v>
+        <v>1.024940378767531</v>
       </c>
       <c r="K8">
-        <v>1.042575876889296</v>
+        <v>1.039271505227469</v>
       </c>
       <c r="L8">
-        <v>1.004951361852487</v>
+        <v>1.026646951092227</v>
       </c>
       <c r="M8">
-        <v>1.012282052898677</v>
+        <v>1.029308062932364</v>
       </c>
       <c r="N8">
-        <v>1.001527889142874</v>
+        <v>1.026395911667686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9399323066235277</v>
+        <v>0.9927672908913544</v>
       </c>
       <c r="D9">
-        <v>1.021969690474085</v>
+        <v>1.023375394190761</v>
       </c>
       <c r="E9">
-        <v>0.960788161238896</v>
+        <v>1.006474833265223</v>
       </c>
       <c r="F9">
-        <v>0.9676733259365038</v>
+        <v>1.007603535184139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037740576252814</v>
+        <v>1.042331827197645</v>
       </c>
       <c r="J9">
-        <v>0.967800343704742</v>
+        <v>1.018578065696539</v>
       </c>
       <c r="K9">
-        <v>1.034716104516485</v>
+        <v>1.036100273726365</v>
       </c>
       <c r="L9">
-        <v>0.9745511615071933</v>
+        <v>1.019463727083086</v>
       </c>
       <c r="M9">
-        <v>0.9813135993913104</v>
+        <v>1.020574443222269</v>
       </c>
       <c r="N9">
-        <v>0.9691747312010536</v>
+        <v>1.020024563382365</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9099335556384969</v>
+        <v>0.9853094512525146</v>
       </c>
       <c r="D10">
-        <v>1.01452292659527</v>
+        <v>1.019851610129228</v>
       </c>
       <c r="E10">
-        <v>0.9348681654265093</v>
+        <v>1.000076819045049</v>
       </c>
       <c r="F10">
-        <v>0.9413500198481738</v>
+        <v>1.000116513530886</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032668992897662</v>
+        <v>1.040702807786008</v>
       </c>
       <c r="J10">
-        <v>0.9422399962478676</v>
+        <v>1.014118296525597</v>
       </c>
       <c r="K10">
-        <v>1.02863482426177</v>
+        <v>1.03387145540001</v>
       </c>
       <c r="L10">
-        <v>0.9505221636833058</v>
+        <v>1.014444686638813</v>
       </c>
       <c r="M10">
-        <v>0.9568656128773578</v>
+        <v>1.014483664608555</v>
       </c>
       <c r="N10">
-        <v>0.9435780851189777</v>
+        <v>1.015558460827658</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8952822876064943</v>
+        <v>0.9819890767405367</v>
       </c>
       <c r="D11">
-        <v>1.011002383257178</v>
+        <v>1.018292501808213</v>
       </c>
       <c r="E11">
-        <v>0.922252983716091</v>
+        <v>0.9972375387024055</v>
       </c>
       <c r="F11">
-        <v>0.9285482158368883</v>
+        <v>0.9967938542152018</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030203840150185</v>
+        <v>1.039968335897819</v>
       </c>
       <c r="J11">
-        <v>0.9297683445487795</v>
+        <v>1.012130812644982</v>
       </c>
       <c r="K11">
-        <v>1.025719751287771</v>
+        <v>1.032877501121594</v>
       </c>
       <c r="L11">
-        <v>0.9388067997430952</v>
+        <v>1.012211739709575</v>
       </c>
       <c r="M11">
-        <v>0.9449563034764153</v>
+        <v>1.011776488096713</v>
       </c>
       <c r="N11">
-        <v>0.9310887222439587</v>
+        <v>1.013568154491965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8895180316435708</v>
+        <v>0.9807412861185555</v>
       </c>
       <c r="D12">
-        <v>1.009638876609854</v>
+        <v>1.017708189464758</v>
       </c>
       <c r="E12">
-        <v>0.9172984908527827</v>
+        <v>0.9961719879061032</v>
       </c>
       <c r="F12">
-        <v>0.9235222659043285</v>
+        <v>0.9955468505948806</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029237210833156</v>
+        <v>1.039691001261089</v>
       </c>
       <c r="J12">
-        <v>0.9248646845865356</v>
+        <v>1.01138368046784</v>
       </c>
       <c r="K12">
-        <v>1.02458371185646</v>
+        <v>1.032503814410359</v>
       </c>
       <c r="L12">
-        <v>0.9342023472683061</v>
+        <v>1.011372895902626</v>
       </c>
       <c r="M12">
-        <v>0.940277564201407</v>
+        <v>1.010759866118567</v>
       </c>
       <c r="N12">
-        <v>0.9261780985221109</v>
+        <v>1.012819961301434</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8907705991743983</v>
+        <v>0.9810096085909834</v>
       </c>
       <c r="D13">
-        <v>1.009934118196276</v>
+        <v>1.01783376447481</v>
       </c>
       <c r="E13">
-        <v>0.9183746648065252</v>
+        <v>0.9964010556139233</v>
       </c>
       <c r="F13">
-        <v>0.9246138710371895</v>
+        <v>0.9958149288623093</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02944708449811</v>
+        <v>1.039750697464384</v>
       </c>
       <c r="J13">
-        <v>0.9259300816042717</v>
+        <v>1.011544352353908</v>
       </c>
       <c r="K13">
-        <v>1.02483003592357</v>
+        <v>1.032584177109171</v>
       </c>
       <c r="L13">
-        <v>0.9352026441207544</v>
+        <v>1.011553265169086</v>
       </c>
       <c r="M13">
-        <v>0.9412939048351712</v>
+        <v>1.010978444796818</v>
       </c>
       <c r="N13">
-        <v>0.9272450085258145</v>
+        <v>1.01298086136001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8948129238024755</v>
+        <v>0.9818862335272565</v>
       </c>
       <c r="D14">
-        <v>1.010890897999243</v>
+        <v>1.018244309378807</v>
       </c>
       <c r="E14">
-        <v>0.9218493672300326</v>
+        <v>0.9971496860174041</v>
       </c>
       <c r="F14">
-        <v>0.9281387386463974</v>
+        <v>0.9966910421969991</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030125055959859</v>
+        <v>1.039945504408264</v>
       </c>
       <c r="J14">
-        <v>0.9293689856425814</v>
+        <v>1.012069238410821</v>
       </c>
       <c r="K14">
-        <v>1.025627013042013</v>
+        <v>1.032846704524605</v>
       </c>
       <c r="L14">
-        <v>0.9384317682113748</v>
+        <v>1.012142595736491</v>
       </c>
       <c r="M14">
-        <v>0.944575179798676</v>
+        <v>1.011692682752435</v>
       </c>
       <c r="N14">
-        <v>0.9306887962023063</v>
+        <v>1.013506492815329</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.897258116998998</v>
+        <v>0.982424411550884</v>
       </c>
       <c r="D15">
-        <v>1.011472580228212</v>
+        <v>1.018496566051818</v>
       </c>
       <c r="E15">
-        <v>0.9239524059929395</v>
+        <v>0.9976094779522356</v>
       </c>
       <c r="F15">
-        <v>0.9302723906248193</v>
+        <v>0.997229124280692</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030535628520688</v>
+        <v>1.040064927983495</v>
       </c>
       <c r="J15">
-        <v>0.9314496134149082</v>
+        <v>1.012391446600703</v>
       </c>
       <c r="K15">
-        <v>1.026110591665162</v>
+        <v>1.033007856940827</v>
       </c>
       <c r="L15">
-        <v>0.9403857294497279</v>
+        <v>1.012504438066937</v>
       </c>
       <c r="M15">
-        <v>0.9465609620243164</v>
+        <v>1.012131265733619</v>
       </c>
       <c r="N15">
-        <v>0.9327723787047212</v>
+        <v>1.013829158577798</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9108654140531837</v>
+        <v>0.9855278299592577</v>
       </c>
       <c r="D16">
-        <v>1.014749473671137</v>
+        <v>1.019954365819952</v>
       </c>
       <c r="E16">
-        <v>0.9356715559239585</v>
+        <v>1.000263753808898</v>
       </c>
       <c r="F16">
-        <v>0.9421655170373167</v>
+        <v>1.0003352686715</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032826127306632</v>
+        <v>1.040750926867762</v>
       </c>
       <c r="J16">
-        <v>0.9430335566003099</v>
+        <v>1.014248976133394</v>
       </c>
       <c r="K16">
-        <v>1.028821521215038</v>
+        <v>1.033936800068968</v>
       </c>
       <c r="L16">
-        <v>0.951267818959752</v>
+        <v>1.0145915839843</v>
       </c>
       <c r="M16">
-        <v>0.9576238474410234</v>
+        <v>1.01466181242246</v>
       </c>
       <c r="N16">
-        <v>0.944372772418143</v>
+        <v>1.015689326015487</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9189139307086481</v>
+        <v>0.9874496094144288</v>
       </c>
       <c r="D17">
-        <v>1.016719088431722</v>
+        <v>1.020859763388531</v>
       </c>
       <c r="E17">
-        <v>0.9426154014229207</v>
+        <v>1.00190987828467</v>
       </c>
       <c r="F17">
-        <v>0.9492150788216768</v>
+        <v>1.002261584003889</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03418469980018</v>
+        <v>1.04117334489301</v>
       </c>
       <c r="J17">
-        <v>0.9498889673386451</v>
+        <v>1.015398773023486</v>
       </c>
       <c r="K17">
-        <v>1.030440187160221</v>
+        <v>1.034511670505028</v>
       </c>
       <c r="L17">
-        <v>0.9577104062004126</v>
+        <v>1.015884503080911</v>
       </c>
       <c r="M17">
-        <v>0.9641762692582044</v>
+        <v>1.016230075320835</v>
       </c>
       <c r="N17">
-        <v>0.9512379186260531</v>
+        <v>1.016840755749047</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9234542823433929</v>
+        <v>0.9885618178204942</v>
       </c>
       <c r="D18">
-        <v>1.017840318406811</v>
+        <v>1.021384668174461</v>
       </c>
       <c r="E18">
-        <v>0.9465363688990792</v>
+        <v>1.002863427278479</v>
       </c>
       <c r="F18">
-        <v>0.9531965795987885</v>
+        <v>1.003377431040685</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034952050116205</v>
+        <v>1.041416937366378</v>
       </c>
       <c r="J18">
-        <v>0.9537572318403021</v>
+        <v>1.016064020825195</v>
       </c>
       <c r="K18">
-        <v>1.031358049937105</v>
+        <v>1.034844208775135</v>
       </c>
       <c r="L18">
-        <v>0.961346507885223</v>
+        <v>1.016632916613507</v>
       </c>
       <c r="M18">
-        <v>0.9678752573639154</v>
+        <v>1.017138119184881</v>
       </c>
       <c r="N18">
-        <v>0.9551116765069988</v>
+        <v>1.017506948278939</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9249779952700741</v>
+        <v>0.9889395934252672</v>
       </c>
       <c r="D19">
-        <v>1.018218217762698</v>
+        <v>1.021563110210169</v>
       </c>
       <c r="E19">
-        <v>0.9478528157961011</v>
+        <v>1.003187458608878</v>
       </c>
       <c r="F19">
-        <v>0.954533483792169</v>
+        <v>1.003756613413288</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035209694693387</v>
+        <v>1.041499526039887</v>
       </c>
       <c r="J19">
-        <v>0.9550555327460905</v>
+        <v>1.016289947986337</v>
       </c>
       <c r="K19">
-        <v>1.03166682198225</v>
+        <v>1.034957129672536</v>
       </c>
       <c r="L19">
-        <v>0.9625670096313671</v>
+        <v>1.016887148899777</v>
       </c>
       <c r="M19">
-        <v>0.9691170111071468</v>
+        <v>1.017446619220747</v>
       </c>
       <c r="N19">
-        <v>0.9564118211489904</v>
+        <v>1.017733196282564</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9180667783463231</v>
+        <v>0.9872443293700564</v>
       </c>
       <c r="D20">
-        <v>1.016510690751458</v>
+        <v>1.020762954943642</v>
       </c>
       <c r="E20">
-        <v>0.9418841136904723</v>
+        <v>1.001733952116836</v>
       </c>
       <c r="F20">
-        <v>0.9484725676223826</v>
+        <v>1.002055714040346</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034041594416026</v>
+        <v>1.041128313760328</v>
       </c>
       <c r="J20">
-        <v>0.9491672873097133</v>
+        <v>1.015275973166303</v>
       </c>
       <c r="K20">
-        <v>1.030269302191275</v>
+        <v>1.034450280333908</v>
       </c>
       <c r="L20">
-        <v>0.9570321004975225</v>
+        <v>1.015746380436641</v>
       </c>
       <c r="M20">
-        <v>0.9634863034684753</v>
+        <v>1.016062512252956</v>
       </c>
       <c r="N20">
-        <v>0.9505152137287027</v>
+        <v>1.016717781501981</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.893632203307987</v>
+        <v>0.9816284948554689</v>
       </c>
       <c r="D21">
-        <v>1.010610807793571</v>
+        <v>1.018123558987029</v>
       </c>
       <c r="E21">
-        <v>0.9208341861509903</v>
+        <v>0.9969295390755573</v>
       </c>
       <c r="F21">
-        <v>0.9271088474506608</v>
+        <v>0.9964334083432315</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029926925643788</v>
+        <v>1.039888264605143</v>
       </c>
       <c r="J21">
-        <v>0.9283644218830092</v>
+        <v>1.011914921558238</v>
       </c>
       <c r="K21">
-        <v>1.025393905526974</v>
+        <v>1.032769521899261</v>
       </c>
       <c r="L21">
-        <v>0.9374884298849855</v>
+        <v>1.011969316710198</v>
       </c>
       <c r="M21">
-        <v>0.9436165499642551</v>
+        <v>1.011482667412255</v>
       </c>
       <c r="N21">
-        <v>0.9296828058469706</v>
+        <v>1.013351956815115</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8763399917979035</v>
+        <v>0.9780135374672188</v>
       </c>
       <c r="D22">
-        <v>1.006568267716565</v>
+        <v>1.016433935383128</v>
       </c>
       <c r="E22">
-        <v>0.9059913260802326</v>
+        <v>0.993845351060296</v>
       </c>
       <c r="F22">
-        <v>0.9120560634485676</v>
+        <v>0.9928238911147151</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.027035604054112</v>
+        <v>1.039082369782982</v>
       </c>
       <c r="J22">
-        <v>0.9136618849750761</v>
+        <v>1.009750016520527</v>
       </c>
       <c r="K22">
-        <v>1.022010719333087</v>
+        <v>1.031686714573895</v>
       </c>
       <c r="L22">
-        <v>0.9236873354617933</v>
+        <v>1.009539726744094</v>
       </c>
       <c r="M22">
-        <v>0.9295971407122037</v>
+        <v>1.00853886126073</v>
       </c>
       <c r="N22">
-        <v>0.9149593896502236</v>
+        <v>1.011183977363932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8857241173541021</v>
+        <v>0.9799381349809333</v>
       </c>
       <c r="D23">
-        <v>1.00874818154589</v>
+        <v>1.017332559113838</v>
       </c>
       <c r="E23">
-        <v>0.914040348608228</v>
+        <v>0.9954865517636119</v>
       </c>
       <c r="F23">
-        <v>0.9202177139398653</v>
+        <v>0.9947446745404612</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.028602141911281</v>
+        <v>1.039512127903782</v>
       </c>
       <c r="J23">
-        <v>0.9216382753938296</v>
+        <v>1.010902721076465</v>
       </c>
       <c r="K23">
-        <v>1.023839460726596</v>
+        <v>1.032263253572269</v>
       </c>
       <c r="L23">
-        <v>0.9311734056381078</v>
+        <v>1.01083305595215</v>
       </c>
       <c r="M23">
-        <v>0.9372003648044775</v>
+        <v>1.010105720252517</v>
       </c>
       <c r="N23">
-        <v>0.9229471074582765</v>
+        <v>1.012338318892556</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9184500415612421</v>
+        <v>0.9873371135173188</v>
       </c>
       <c r="D24">
-        <v>1.016604941235471</v>
+        <v>1.020806708383298</v>
       </c>
       <c r="E24">
-        <v>0.9422149464501086</v>
+        <v>1.00181346595791</v>
       </c>
       <c r="F24">
-        <v>0.9488084752491992</v>
+        <v>1.002148761684391</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034106334357382</v>
+        <v>1.041148670023106</v>
       </c>
       <c r="J24">
-        <v>0.9494937821805315</v>
+        <v>1.015331477821465</v>
       </c>
       <c r="K24">
-        <v>1.030346598199626</v>
+        <v>1.034478028471179</v>
       </c>
       <c r="L24">
-        <v>0.9573389700044501</v>
+        <v>1.015808809770355</v>
       </c>
       <c r="M24">
-        <v>0.9637984452818396</v>
+        <v>1.016138247446472</v>
       </c>
       <c r="N24">
-        <v>0.950842172259687</v>
+        <v>1.016773364980119</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9504277988205132</v>
+        <v>0.9955829376528313</v>
       </c>
       <c r="D25">
-        <v>1.024647889540602</v>
+        <v>1.024713380047961</v>
       </c>
       <c r="E25">
-        <v>0.9698822738825541</v>
+        <v>1.008897992342387</v>
       </c>
       <c r="F25">
-        <v>0.9769148795675496</v>
+        <v>1.010439236743003</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039517620651639</v>
+        <v>1.042938515468891</v>
       </c>
       <c r="J25">
-        <v>0.9767469222444712</v>
+        <v>1.02025987346227</v>
       </c>
       <c r="K25">
-        <v>1.036875259257474</v>
+        <v>1.036939794305608</v>
       </c>
       <c r="L25">
-        <v>0.9829668432350163</v>
+        <v>1.021359731117314</v>
       </c>
       <c r="M25">
-        <v>0.9898824552155189</v>
+        <v>1.022877629983036</v>
       </c>
       <c r="N25">
-        <v>0.9781340149084964</v>
+        <v>1.021708759508029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.001911001835834</v>
+        <v>1.034158668894515</v>
       </c>
       <c r="D2">
-        <v>1.027734973677766</v>
+        <v>1.03253858946127</v>
       </c>
       <c r="E2">
-        <v>1.014359747767609</v>
+        <v>1.042154106829229</v>
       </c>
       <c r="F2">
-        <v>1.016831534529732</v>
+        <v>1.050189332583513</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044282888109552</v>
+        <v>1.034942598479826</v>
       </c>
       <c r="J2">
-        <v>1.024034705017069</v>
+        <v>1.039279444095624</v>
       </c>
       <c r="K2">
-        <v>1.038820979428481</v>
+        <v>1.035343530367846</v>
       </c>
       <c r="L2">
-        <v>1.025622588743406</v>
+        <v>1.044931596789768</v>
       </c>
       <c r="M2">
-        <v>1.028061255701632</v>
+        <v>1.05294430124736</v>
       </c>
       <c r="N2">
-        <v>1.025488951756616</v>
+        <v>1.040755340113258</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006372971379782</v>
+        <v>1.035106467916112</v>
       </c>
       <c r="D3">
-        <v>1.029877087148964</v>
+        <v>1.032995770851811</v>
       </c>
       <c r="E3">
-        <v>1.01822443818251</v>
+        <v>1.04303187717321</v>
       </c>
       <c r="F3">
-        <v>1.021355605327144</v>
+        <v>1.05123149412268</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045212978498887</v>
+        <v>1.035088116697097</v>
       </c>
       <c r="J3">
-        <v>1.026691397706104</v>
+        <v>1.039870266532309</v>
       </c>
       <c r="K3">
-        <v>1.040141440659787</v>
+        <v>1.035610445813985</v>
       </c>
       <c r="L3">
-        <v>1.028629325606512</v>
+        <v>1.045619965182596</v>
       </c>
       <c r="M3">
-        <v>1.031722338695622</v>
+        <v>1.053798266992154</v>
       </c>
       <c r="N3">
-        <v>1.028149417253997</v>
+        <v>1.041347001585571</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.009202226598448</v>
+        <v>1.035720204558769</v>
       </c>
       <c r="D4">
-        <v>1.031240080563629</v>
+        <v>1.033291860159364</v>
       </c>
       <c r="E4">
-        <v>1.020680990601739</v>
+        <v>1.04360067631121</v>
       </c>
       <c r="F4">
-        <v>1.024231862638893</v>
+        <v>1.051907007409007</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045794175023872</v>
+        <v>1.035181225273844</v>
       </c>
       <c r="J4">
-        <v>1.028373432126008</v>
+        <v>1.040252402535821</v>
       </c>
       <c r="K4">
-        <v>1.040975537082887</v>
+        <v>1.035782692812457</v>
       </c>
       <c r="L4">
-        <v>1.030536060834383</v>
+        <v>1.046065570427277</v>
       </c>
       <c r="M4">
-        <v>1.034046369066863</v>
+        <v>1.054351399493403</v>
       </c>
       <c r="N4">
-        <v>1.029833840355708</v>
+        <v>1.041729680266041</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.01037826358176</v>
+        <v>1.035978325654055</v>
       </c>
       <c r="D5">
-        <v>1.031807677601106</v>
+        <v>1.033416397214119</v>
       </c>
       <c r="E5">
-        <v>1.021703515181992</v>
+        <v>1.04383999530924</v>
       </c>
       <c r="F5">
-        <v>1.025429245423993</v>
+        <v>1.052191271002225</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046033663693607</v>
+        <v>1.035220115825208</v>
       </c>
       <c r="J5">
-        <v>1.029071964717785</v>
+        <v>1.040413011988093</v>
       </c>
       <c r="K5">
-        <v>1.041321421633931</v>
+        <v>1.035854993048905</v>
       </c>
       <c r="L5">
-        <v>1.0313286533796</v>
+        <v>1.046252946175355</v>
       </c>
       <c r="M5">
-        <v>1.035012994920579</v>
+        <v>1.05458406933264</v>
       </c>
       <c r="N5">
-        <v>1.030533364943888</v>
+        <v>1.041890517802157</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.010574954399041</v>
+        <v>1.036021671524717</v>
       </c>
       <c r="D6">
-        <v>1.03190266617443</v>
+        <v>1.033437311067446</v>
       </c>
       <c r="E6">
-        <v>1.021874613047152</v>
+        <v>1.043880189471555</v>
       </c>
       <c r="F6">
-        <v>1.025629612019093</v>
+        <v>1.052239016368788</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046073593334564</v>
+        <v>1.035226630908482</v>
       </c>
       <c r="J6">
-        <v>1.029188754990138</v>
+        <v>1.040439976620164</v>
       </c>
       <c r="K6">
-        <v>1.04137922023092</v>
+        <v>1.035867125955003</v>
       </c>
       <c r="L6">
-        <v>1.031461213788112</v>
+        <v>1.046284409899595</v>
       </c>
       <c r="M6">
-        <v>1.035174696175507</v>
+        <v>1.054623143388157</v>
       </c>
       <c r="N6">
-        <v>1.030650321071824</v>
+        <v>1.041917520727098</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.009217992814336</v>
+        <v>1.035723653169224</v>
       </c>
       <c r="D7">
-        <v>1.031247685901227</v>
+        <v>1.033293523991622</v>
       </c>
       <c r="E7">
-        <v>1.020694693276171</v>
+        <v>1.04360387333535</v>
       </c>
       <c r="F7">
-        <v>1.024247907904946</v>
+        <v>1.051910804662849</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045797394005074</v>
+        <v>1.03518174592336</v>
       </c>
       <c r="J7">
-        <v>1.028382799376966</v>
+        <v>1.040254548767506</v>
       </c>
       <c r="K7">
-        <v>1.040980177423962</v>
+        <v>1.035783659334735</v>
       </c>
       <c r="L7">
-        <v>1.030546686472683</v>
+        <v>1.046068073982234</v>
       </c>
       <c r="M7">
-        <v>1.034059325553992</v>
+        <v>1.054354507918114</v>
       </c>
       <c r="N7">
-        <v>1.029843220909237</v>
+        <v>1.04173182954562</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.00343124353712</v>
+        <v>1.034478888868874</v>
       </c>
       <c r="D8">
-        <v>1.028463769899806</v>
+        <v>1.032693040703355</v>
       </c>
       <c r="E8">
-        <v>1.015675205307046</v>
+        <v>1.042450582293843</v>
       </c>
       <c r="F8">
-        <v>1.018371323021578</v>
+        <v>1.050541294044928</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044601546766992</v>
+        <v>1.034991994402995</v>
       </c>
       <c r="J8">
-        <v>1.024940378767531</v>
+        <v>1.039479149071199</v>
       </c>
       <c r="K8">
-        <v>1.039271505227469</v>
+        <v>1.03543383137576</v>
       </c>
       <c r="L8">
-        <v>1.026646951092227</v>
+        <v>1.045164195259572</v>
       </c>
       <c r="M8">
-        <v>1.029308062932364</v>
+        <v>1.053232786491335</v>
       </c>
       <c r="N8">
-        <v>1.026395911667686</v>
+        <v>1.040955328692805</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9927672908913544</v>
+        <v>1.032288919481409</v>
       </c>
       <c r="D9">
-        <v>1.023375394190761</v>
+        <v>1.031636997044998</v>
       </c>
       <c r="E9">
-        <v>1.006474833265223</v>
+        <v>1.040424692327622</v>
       </c>
       <c r="F9">
-        <v>1.007603535184139</v>
+        <v>1.04813701381078</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042331827197645</v>
+        <v>1.034649600728883</v>
       </c>
       <c r="J9">
-        <v>1.018578065696539</v>
+        <v>1.038111565863527</v>
       </c>
       <c r="K9">
-        <v>1.036100273726365</v>
+        <v>1.034813873497666</v>
       </c>
       <c r="L9">
-        <v>1.019463727083086</v>
+        <v>1.043572903428602</v>
       </c>
       <c r="M9">
-        <v>1.020574443222269</v>
+        <v>1.051260500853252</v>
       </c>
       <c r="N9">
-        <v>1.020024563382365</v>
+        <v>1.039585803360114</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9853094512525146</v>
+        <v>1.030831319767605</v>
       </c>
       <c r="D10">
-        <v>1.019851610129228</v>
+        <v>1.030934470973479</v>
       </c>
       <c r="E10">
-        <v>1.000076819045049</v>
+        <v>1.039078442860777</v>
       </c>
       <c r="F10">
-        <v>1.000116513530886</v>
+        <v>1.046540258221745</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040702807786008</v>
+        <v>1.034415975477514</v>
       </c>
       <c r="J10">
-        <v>1.014118296525597</v>
+        <v>1.037199068099276</v>
       </c>
       <c r="K10">
-        <v>1.03387145540001</v>
+        <v>1.03439826625418</v>
       </c>
       <c r="L10">
-        <v>1.014444686638813</v>
+        <v>1.042513078458737</v>
       </c>
       <c r="M10">
-        <v>1.014483664608555</v>
+        <v>1.049948615615427</v>
       </c>
       <c r="N10">
-        <v>1.015558460827658</v>
+        <v>1.038672009744373</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9819890767405367</v>
+        <v>1.030200737700882</v>
       </c>
       <c r="D11">
-        <v>1.018292501808213</v>
+        <v>1.030630647397151</v>
       </c>
       <c r="E11">
-        <v>0.9972375387024055</v>
+        <v>1.038496546830176</v>
       </c>
       <c r="F11">
-        <v>0.9967938542152018</v>
+        <v>1.045850305168457</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039968335897819</v>
+        <v>1.034313548343408</v>
       </c>
       <c r="J11">
-        <v>1.012130812644982</v>
+        <v>1.036803773087861</v>
       </c>
       <c r="K11">
-        <v>1.032877501121594</v>
+        <v>1.034217770839884</v>
       </c>
       <c r="L11">
-        <v>1.012211739709575</v>
+        <v>1.042054419878394</v>
       </c>
       <c r="M11">
-        <v>1.011776488096713</v>
+        <v>1.049381272048788</v>
       </c>
       <c r="N11">
-        <v>1.013568154491965</v>
+        <v>1.038276153368701</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9807412861185555</v>
+        <v>1.029966597580366</v>
       </c>
       <c r="D12">
-        <v>1.017708189464758</v>
+        <v>1.030517851855199</v>
       </c>
       <c r="E12">
-        <v>0.9961719879061032</v>
+        <v>1.038280561957105</v>
       </c>
       <c r="F12">
-        <v>0.9955468505948806</v>
+        <v>1.045594245168922</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039691001261089</v>
+        <v>1.034275312720648</v>
       </c>
       <c r="J12">
-        <v>1.01138368046784</v>
+        <v>1.036656917074018</v>
       </c>
       <c r="K12">
-        <v>1.032503814410359</v>
+        <v>1.034150647520718</v>
       </c>
       <c r="L12">
-        <v>1.011372895902626</v>
+        <v>1.041884092510012</v>
       </c>
       <c r="M12">
-        <v>1.010759866118567</v>
+        <v>1.049170643221751</v>
       </c>
       <c r="N12">
-        <v>1.012819961301434</v>
+        <v>1.038129088802474</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9810096085909834</v>
+        <v>1.030016817520845</v>
       </c>
       <c r="D13">
-        <v>1.01783376447481</v>
+        <v>1.030542044226468</v>
       </c>
       <c r="E13">
-        <v>0.9964010556139233</v>
+        <v>1.038326884312577</v>
       </c>
       <c r="F13">
-        <v>0.9958149288623093</v>
+        <v>1.045649160968205</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039750697464384</v>
+        <v>1.034283522963494</v>
       </c>
       <c r="J13">
-        <v>1.011544352353908</v>
+        <v>1.036688419343984</v>
       </c>
       <c r="K13">
-        <v>1.032584177109171</v>
+        <v>1.034165049271519</v>
       </c>
       <c r="L13">
-        <v>1.011553265169086</v>
+        <v>1.041920626536257</v>
       </c>
       <c r="M13">
-        <v>1.010978444796818</v>
+        <v>1.049215818925032</v>
       </c>
       <c r="N13">
-        <v>1.01298086136001</v>
+        <v>1.038160635809276</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9818862335272565</v>
+        <v>1.030181381843885</v>
       </c>
       <c r="D14">
-        <v>1.018244309378807</v>
+        <v>1.030621322487953</v>
       </c>
       <c r="E14">
-        <v>0.9971496860174041</v>
+        <v>1.0384786902393</v>
       </c>
       <c r="F14">
-        <v>0.9966910421969991</v>
+        <v>1.045829134689646</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039945504408264</v>
+        <v>1.034310391639965</v>
       </c>
       <c r="J14">
-        <v>1.012069238410821</v>
+        <v>1.036791634446474</v>
       </c>
       <c r="K14">
-        <v>1.032846704524605</v>
+        <v>1.034212224016713</v>
       </c>
       <c r="L14">
-        <v>1.012142595736491</v>
+        <v>1.042040339767267</v>
       </c>
       <c r="M14">
-        <v>1.011692682752435</v>
+        <v>1.049363859198908</v>
       </c>
       <c r="N14">
-        <v>1.013506492815329</v>
+        <v>1.038263997489052</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.982424411550884</v>
+        <v>1.030282786791452</v>
       </c>
       <c r="D15">
-        <v>1.018496566051818</v>
+        <v>1.030670176187223</v>
       </c>
       <c r="E15">
-        <v>0.9976094779522356</v>
+        <v>1.038572243748593</v>
       </c>
       <c r="F15">
-        <v>0.997229124280692</v>
+        <v>1.045940051527831</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040064927983495</v>
+        <v>1.034326921207879</v>
       </c>
       <c r="J15">
-        <v>1.012391446600703</v>
+        <v>1.036855225277207</v>
       </c>
       <c r="K15">
-        <v>1.033007856940827</v>
+        <v>1.03424127945948</v>
       </c>
       <c r="L15">
-        <v>1.012504438066937</v>
+        <v>1.042114104214791</v>
       </c>
       <c r="M15">
-        <v>1.012131265733619</v>
+        <v>1.04945508601535</v>
       </c>
       <c r="N15">
-        <v>1.013829158577798</v>
+        <v>1.038327678626057</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9855278299592577</v>
+        <v>1.030873181459757</v>
       </c>
       <c r="D16">
-        <v>1.019954365819952</v>
+        <v>1.030954642790398</v>
       </c>
       <c r="E16">
-        <v>1.000263753808898</v>
+        <v>1.039117083369245</v>
       </c>
       <c r="F16">
-        <v>1.0003352686715</v>
+        <v>1.046586078827983</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040750926867762</v>
+        <v>1.034422746606353</v>
       </c>
       <c r="J16">
-        <v>1.014248976133394</v>
+        <v>1.037225298857988</v>
       </c>
       <c r="K16">
-        <v>1.033936800068968</v>
+        <v>1.034410233964006</v>
       </c>
       <c r="L16">
-        <v>1.0145915839843</v>
+        <v>1.042543523517112</v>
       </c>
       <c r="M16">
-        <v>1.01466181242246</v>
+        <v>1.049986283409224</v>
       </c>
       <c r="N16">
-        <v>1.015689326015487</v>
+        <v>1.038698277753771</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9874496094144288</v>
+        <v>1.031243673106915</v>
       </c>
       <c r="D17">
-        <v>1.020859763388531</v>
+        <v>1.031133182767089</v>
       </c>
       <c r="E17">
-        <v>1.00190987828467</v>
+        <v>1.039459125810577</v>
       </c>
       <c r="F17">
-        <v>1.002261584003889</v>
+        <v>1.04699170433491</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04117334489301</v>
+        <v>1.034482516833332</v>
       </c>
       <c r="J17">
-        <v>1.015398773023486</v>
+        <v>1.037457389302134</v>
       </c>
       <c r="K17">
-        <v>1.034511670505028</v>
+        <v>1.034516072240897</v>
       </c>
       <c r="L17">
-        <v>1.015884503080911</v>
+        <v>1.042812955167164</v>
       </c>
       <c r="M17">
-        <v>1.016230075320835</v>
+        <v>1.050319680634998</v>
       </c>
       <c r="N17">
-        <v>1.016840755749047</v>
+        <v>1.038930697792969</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9885618178204942</v>
+        <v>1.031459829390582</v>
       </c>
       <c r="D18">
-        <v>1.021384668174461</v>
+        <v>1.03123735816565</v>
       </c>
       <c r="E18">
-        <v>1.002863427278479</v>
+        <v>1.039658733539082</v>
       </c>
       <c r="F18">
-        <v>1.003377431040685</v>
+        <v>1.047228438920507</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041416937366378</v>
+        <v>1.034517257621139</v>
       </c>
       <c r="J18">
-        <v>1.016064020825195</v>
+        <v>1.037592746554652</v>
       </c>
       <c r="K18">
-        <v>1.034844208775135</v>
+        <v>1.034577754252565</v>
       </c>
       <c r="L18">
-        <v>1.016632916613507</v>
+        <v>1.042970134404679</v>
       </c>
       <c r="M18">
-        <v>1.017138119184881</v>
+        <v>1.050514214171546</v>
       </c>
       <c r="N18">
-        <v>1.017506948278939</v>
+        <v>1.039066247268311</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9889395934252672</v>
+        <v>1.031533542364752</v>
       </c>
       <c r="D19">
-        <v>1.021563110210169</v>
+        <v>1.031272885346064</v>
       </c>
       <c r="E19">
-        <v>1.003187458608878</v>
+        <v>1.039726811570207</v>
       </c>
       <c r="F19">
-        <v>1.003756613413288</v>
+        <v>1.047309183026558</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041499526039887</v>
+        <v>1.034529082592196</v>
       </c>
       <c r="J19">
-        <v>1.016289947986337</v>
+        <v>1.037638896941556</v>
       </c>
       <c r="K19">
-        <v>1.034957129672536</v>
+        <v>1.03459877742927</v>
       </c>
       <c r="L19">
-        <v>1.016887148899777</v>
+        <v>1.043023732559727</v>
       </c>
       <c r="M19">
-        <v>1.017446619220747</v>
+        <v>1.050580556682887</v>
       </c>
       <c r="N19">
-        <v>1.017733196282564</v>
+        <v>1.039112463194058</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9872443293700564</v>
+        <v>1.031203917188356</v>
       </c>
       <c r="D20">
-        <v>1.020762954943642</v>
+        <v>1.031114023375769</v>
       </c>
       <c r="E20">
-        <v>1.001733952116836</v>
+        <v>1.039422417525446</v>
       </c>
       <c r="F20">
-        <v>1.002055714040346</v>
+        <v>1.046948170059103</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041128313760328</v>
+        <v>1.034476116686684</v>
       </c>
       <c r="J20">
-        <v>1.015275973166303</v>
+        <v>1.037432489964736</v>
       </c>
       <c r="K20">
-        <v>1.034450280333908</v>
+        <v>1.034504722131743</v>
       </c>
       <c r="L20">
-        <v>1.015746380436641</v>
+        <v>1.042784045179534</v>
       </c>
       <c r="M20">
-        <v>1.016062512252956</v>
+        <v>1.050283903167911</v>
       </c>
       <c r="N20">
-        <v>1.016717781501981</v>
+        <v>1.038905763095656</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9816284948554689</v>
+        <v>1.030132919368461</v>
       </c>
       <c r="D21">
-        <v>1.018123558987029</v>
+        <v>1.03059797539913</v>
       </c>
       <c r="E21">
-        <v>0.9969295390755573</v>
+        <v>1.038433982828269</v>
       </c>
       <c r="F21">
-        <v>0.9964334083432315</v>
+        <v>1.045776130852707</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039888264605143</v>
+        <v>1.034302484714523</v>
       </c>
       <c r="J21">
-        <v>1.011914921558238</v>
+        <v>1.036761240878283</v>
       </c>
       <c r="K21">
-        <v>1.032769521899261</v>
+        <v>1.034198334410293</v>
       </c>
       <c r="L21">
-        <v>1.011969316710198</v>
+        <v>1.042005086124846</v>
       </c>
       <c r="M21">
-        <v>1.011482667412255</v>
+        <v>1.049320262043608</v>
       </c>
       <c r="N21">
-        <v>1.013351956815115</v>
+        <v>1.038233560758506</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9780135374672188</v>
+        <v>1.029460039269478</v>
       </c>
       <c r="D22">
-        <v>1.016433935383128</v>
+        <v>1.030273852341809</v>
       </c>
       <c r="E22">
-        <v>0.993845351060296</v>
+        <v>1.037813424906361</v>
       </c>
       <c r="F22">
-        <v>0.9928238911147151</v>
+        <v>1.045040492516793</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039082369782982</v>
+        <v>1.034192218568888</v>
       </c>
       <c r="J22">
-        <v>1.009750016520527</v>
+        <v>1.036339050803395</v>
       </c>
       <c r="K22">
-        <v>1.031686714573895</v>
+        <v>1.034005238085112</v>
       </c>
       <c r="L22">
-        <v>1.009539726744094</v>
+        <v>1.04151554887063</v>
       </c>
       <c r="M22">
-        <v>1.00853886126073</v>
+        <v>1.048715006995119</v>
       </c>
       <c r="N22">
-        <v>1.011183977363932</v>
+        <v>1.037810771125286</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9799381349809333</v>
+        <v>1.029816698209404</v>
       </c>
       <c r="D23">
-        <v>1.017332559113838</v>
+        <v>1.030445643602763</v>
       </c>
       <c r="E23">
-        <v>0.9954865517636119</v>
+        <v>1.038142307743232</v>
       </c>
       <c r="F23">
-        <v>0.9947446745404612</v>
+        <v>1.04543034766055</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039512127903782</v>
+        <v>1.034250776520107</v>
       </c>
       <c r="J23">
-        <v>1.010902721076465</v>
+        <v>1.036562875613521</v>
       </c>
       <c r="K23">
-        <v>1.032263253572269</v>
+        <v>1.034107645182524</v>
       </c>
       <c r="L23">
-        <v>1.01083305595215</v>
+        <v>1.04177504018333</v>
       </c>
       <c r="M23">
-        <v>1.010105720252517</v>
+        <v>1.049035804644905</v>
       </c>
       <c r="N23">
-        <v>1.012338318892556</v>
+        <v>1.038034913792316</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9873371135173188</v>
+        <v>1.03122188100746</v>
       </c>
       <c r="D24">
-        <v>1.020806708383298</v>
+        <v>1.031122680568836</v>
       </c>
       <c r="E24">
-        <v>1.00181346595791</v>
+        <v>1.03943900411003</v>
       </c>
       <c r="F24">
-        <v>1.002148761684391</v>
+        <v>1.046967840891643</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041148670023106</v>
+        <v>1.03447900901502</v>
       </c>
       <c r="J24">
-        <v>1.015331477821465</v>
+        <v>1.037443740956658</v>
       </c>
       <c r="K24">
-        <v>1.034478028471179</v>
+        <v>1.034509850917275</v>
       </c>
       <c r="L24">
-        <v>1.015808809770355</v>
+        <v>1.042797108283467</v>
       </c>
       <c r="M24">
-        <v>1.016138247446472</v>
+        <v>1.050300069253442</v>
       </c>
       <c r="N24">
-        <v>1.016773364980119</v>
+        <v>1.038917030065277</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9955829376528313</v>
+        <v>1.032854663318857</v>
       </c>
       <c r="D25">
-        <v>1.024713380047961</v>
+        <v>1.031909752126236</v>
       </c>
       <c r="E25">
-        <v>1.008897992342387</v>
+        <v>1.040947672965847</v>
       </c>
       <c r="F25">
-        <v>1.010439236743003</v>
+        <v>1.048757507883884</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042938515468891</v>
+        <v>1.034739065443679</v>
       </c>
       <c r="J25">
-        <v>1.02025987346227</v>
+        <v>1.03846525937403</v>
       </c>
       <c r="K25">
-        <v>1.036939794305608</v>
+        <v>1.034974557753585</v>
       </c>
       <c r="L25">
-        <v>1.021359731117314</v>
+        <v>1.043984111971827</v>
       </c>
       <c r="M25">
-        <v>1.022877629983036</v>
+        <v>1.051769864565508</v>
       </c>
       <c r="N25">
-        <v>1.021708759508029</v>
+        <v>1.039939999155972</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034158668894515</v>
+        <v>1.001911001835833</v>
       </c>
       <c r="D2">
-        <v>1.03253858946127</v>
+        <v>1.027734973677766</v>
       </c>
       <c r="E2">
-        <v>1.042154106829229</v>
+        <v>1.014359747767609</v>
       </c>
       <c r="F2">
-        <v>1.050189332583513</v>
+        <v>1.016831534529732</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.034942598479826</v>
+        <v>1.044282888109551</v>
       </c>
       <c r="J2">
-        <v>1.039279444095624</v>
+        <v>1.024034705017068</v>
       </c>
       <c r="K2">
-        <v>1.035343530367846</v>
+        <v>1.038820979428481</v>
       </c>
       <c r="L2">
-        <v>1.044931596789768</v>
+        <v>1.025622588743405</v>
       </c>
       <c r="M2">
-        <v>1.05294430124736</v>
+        <v>1.028061255701631</v>
       </c>
       <c r="N2">
-        <v>1.040755340113258</v>
+        <v>1.025488951756615</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.035106467916112</v>
+        <v>1.006372971379782</v>
       </c>
       <c r="D3">
-        <v>1.032995770851811</v>
+        <v>1.029877087148964</v>
       </c>
       <c r="E3">
-        <v>1.04303187717321</v>
+        <v>1.018224438182509</v>
       </c>
       <c r="F3">
-        <v>1.05123149412268</v>
+        <v>1.021355605327143</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.035088116697097</v>
+        <v>1.045212978498887</v>
       </c>
       <c r="J3">
-        <v>1.039870266532309</v>
+        <v>1.026691397706104</v>
       </c>
       <c r="K3">
-        <v>1.035610445813985</v>
+        <v>1.040141440659787</v>
       </c>
       <c r="L3">
-        <v>1.045619965182596</v>
+        <v>1.028629325606512</v>
       </c>
       <c r="M3">
-        <v>1.053798266992154</v>
+        <v>1.031722338695621</v>
       </c>
       <c r="N3">
-        <v>1.041347001585571</v>
+        <v>1.028149417253996</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.035720204558769</v>
+        <v>1.009202226598447</v>
       </c>
       <c r="D4">
-        <v>1.033291860159364</v>
+        <v>1.031240080563629</v>
       </c>
       <c r="E4">
-        <v>1.04360067631121</v>
+        <v>1.020680990601738</v>
       </c>
       <c r="F4">
-        <v>1.051907007409007</v>
+        <v>1.024231862638892</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.035181225273844</v>
+        <v>1.045794175023872</v>
       </c>
       <c r="J4">
-        <v>1.040252402535821</v>
+        <v>1.028373432126007</v>
       </c>
       <c r="K4">
-        <v>1.035782692812457</v>
+        <v>1.040975537082887</v>
       </c>
       <c r="L4">
-        <v>1.046065570427277</v>
+        <v>1.030536060834382</v>
       </c>
       <c r="M4">
-        <v>1.054351399493403</v>
+        <v>1.034046369066862</v>
       </c>
       <c r="N4">
-        <v>1.041729680266041</v>
+        <v>1.029833840355707</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035978325654055</v>
+        <v>1.01037826358176</v>
       </c>
       <c r="D5">
-        <v>1.033416397214119</v>
+        <v>1.031807677601106</v>
       </c>
       <c r="E5">
-        <v>1.04383999530924</v>
+        <v>1.021703515181991</v>
       </c>
       <c r="F5">
-        <v>1.052191271002225</v>
+        <v>1.025429245423993</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.035220115825208</v>
+        <v>1.046033663693607</v>
       </c>
       <c r="J5">
-        <v>1.040413011988093</v>
+        <v>1.029071964717785</v>
       </c>
       <c r="K5">
-        <v>1.035854993048905</v>
+        <v>1.041321421633931</v>
       </c>
       <c r="L5">
-        <v>1.046252946175355</v>
+        <v>1.0313286533796</v>
       </c>
       <c r="M5">
-        <v>1.05458406933264</v>
+        <v>1.035012994920578</v>
       </c>
       <c r="N5">
-        <v>1.041890517802157</v>
+        <v>1.030533364943888</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036021671524717</v>
+        <v>1.010574954399041</v>
       </c>
       <c r="D6">
-        <v>1.033437311067446</v>
+        <v>1.03190266617443</v>
       </c>
       <c r="E6">
-        <v>1.043880189471555</v>
+        <v>1.021874613047151</v>
       </c>
       <c r="F6">
-        <v>1.052239016368788</v>
+        <v>1.025629612019093</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.035226630908482</v>
+        <v>1.046073593334564</v>
       </c>
       <c r="J6">
-        <v>1.040439976620164</v>
+        <v>1.029188754990138</v>
       </c>
       <c r="K6">
-        <v>1.035867125955003</v>
+        <v>1.04137922023092</v>
       </c>
       <c r="L6">
-        <v>1.046284409899595</v>
+        <v>1.031461213788112</v>
       </c>
       <c r="M6">
-        <v>1.054623143388157</v>
+        <v>1.035174696175507</v>
       </c>
       <c r="N6">
-        <v>1.041917520727098</v>
+        <v>1.030650321071824</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.035723653169224</v>
+        <v>1.009217992814335</v>
       </c>
       <c r="D7">
-        <v>1.033293523991622</v>
+        <v>1.031247685901226</v>
       </c>
       <c r="E7">
-        <v>1.04360387333535</v>
+        <v>1.02069469327617</v>
       </c>
       <c r="F7">
-        <v>1.051910804662849</v>
+        <v>1.024247907904945</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03518174592336</v>
+        <v>1.045797394005074</v>
       </c>
       <c r="J7">
-        <v>1.040254548767506</v>
+        <v>1.028382799376965</v>
       </c>
       <c r="K7">
-        <v>1.035783659334735</v>
+        <v>1.040980177423962</v>
       </c>
       <c r="L7">
-        <v>1.046068073982234</v>
+        <v>1.030546686472683</v>
       </c>
       <c r="M7">
-        <v>1.054354507918114</v>
+        <v>1.034059325553991</v>
       </c>
       <c r="N7">
-        <v>1.04173182954562</v>
+        <v>1.029843220909236</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.034478888868874</v>
+        <v>1.00343124353712</v>
       </c>
       <c r="D8">
-        <v>1.032693040703355</v>
+        <v>1.028463769899805</v>
       </c>
       <c r="E8">
-        <v>1.042450582293843</v>
+        <v>1.015675205307046</v>
       </c>
       <c r="F8">
-        <v>1.050541294044928</v>
+        <v>1.018371323021578</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.034991994402995</v>
+        <v>1.044601546766992</v>
       </c>
       <c r="J8">
-        <v>1.039479149071199</v>
+        <v>1.024940378767531</v>
       </c>
       <c r="K8">
-        <v>1.03543383137576</v>
+        <v>1.039271505227469</v>
       </c>
       <c r="L8">
-        <v>1.045164195259572</v>
+        <v>1.026646951092226</v>
       </c>
       <c r="M8">
-        <v>1.053232786491335</v>
+        <v>1.029308062932363</v>
       </c>
       <c r="N8">
-        <v>1.040955328692805</v>
+        <v>1.026395911667686</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.032288919481409</v>
+        <v>0.992767290891354</v>
       </c>
       <c r="D9">
-        <v>1.031636997044998</v>
+        <v>1.023375394190761</v>
       </c>
       <c r="E9">
-        <v>1.040424692327622</v>
+        <v>1.006474833265223</v>
       </c>
       <c r="F9">
-        <v>1.04813701381078</v>
+        <v>1.007603535184139</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.034649600728883</v>
+        <v>1.042331827197645</v>
       </c>
       <c r="J9">
-        <v>1.038111565863527</v>
+        <v>1.018578065696539</v>
       </c>
       <c r="K9">
-        <v>1.034813873497666</v>
+        <v>1.036100273726366</v>
       </c>
       <c r="L9">
-        <v>1.043572903428602</v>
+        <v>1.019463727083085</v>
       </c>
       <c r="M9">
-        <v>1.051260500853252</v>
+        <v>1.02057444322227</v>
       </c>
       <c r="N9">
-        <v>1.039585803360114</v>
+        <v>1.020024563382365</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.030831319767605</v>
+        <v>0.9853094512525139</v>
       </c>
       <c r="D10">
-        <v>1.030934470973479</v>
+        <v>1.019851610129228</v>
       </c>
       <c r="E10">
-        <v>1.039078442860777</v>
+        <v>1.000076819045048</v>
       </c>
       <c r="F10">
-        <v>1.046540258221745</v>
+        <v>1.000116513530885</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034415975477514</v>
+        <v>1.040702807786008</v>
       </c>
       <c r="J10">
-        <v>1.037199068099276</v>
+        <v>1.014118296525596</v>
       </c>
       <c r="K10">
-        <v>1.03439826625418</v>
+        <v>1.03387145540001</v>
       </c>
       <c r="L10">
-        <v>1.042513078458737</v>
+        <v>1.014444686638813</v>
       </c>
       <c r="M10">
-        <v>1.049948615615427</v>
+        <v>1.014483664608554</v>
       </c>
       <c r="N10">
-        <v>1.038672009744373</v>
+        <v>1.015558460827657</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.030200737700882</v>
+        <v>0.9819890767405361</v>
       </c>
       <c r="D11">
-        <v>1.030630647397151</v>
+        <v>1.018292501808213</v>
       </c>
       <c r="E11">
-        <v>1.038496546830176</v>
+        <v>0.9972375387024048</v>
       </c>
       <c r="F11">
-        <v>1.045850305168457</v>
+        <v>0.9967938542152012</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034313548343408</v>
+        <v>1.039968335897819</v>
       </c>
       <c r="J11">
-        <v>1.036803773087861</v>
+        <v>1.012130812644982</v>
       </c>
       <c r="K11">
-        <v>1.034217770839884</v>
+        <v>1.032877501121594</v>
       </c>
       <c r="L11">
-        <v>1.042054419878394</v>
+        <v>1.012211739709575</v>
       </c>
       <c r="M11">
-        <v>1.049381272048788</v>
+        <v>1.011776488096712</v>
       </c>
       <c r="N11">
-        <v>1.038276153368701</v>
+        <v>1.013568154491965</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.029966597580366</v>
+        <v>0.980741286118555</v>
       </c>
       <c r="D12">
-        <v>1.030517851855199</v>
+        <v>1.017708189464759</v>
       </c>
       <c r="E12">
-        <v>1.038280561957105</v>
+        <v>0.9961719879061027</v>
       </c>
       <c r="F12">
-        <v>1.045594245168922</v>
+        <v>0.9955468505948797</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034275312720648</v>
+        <v>1.039691001261089</v>
       </c>
       <c r="J12">
-        <v>1.036656917074018</v>
+        <v>1.01138368046784</v>
       </c>
       <c r="K12">
-        <v>1.034150647520718</v>
+        <v>1.032503814410359</v>
       </c>
       <c r="L12">
-        <v>1.041884092510012</v>
+        <v>1.011372895902625</v>
       </c>
       <c r="M12">
-        <v>1.049170643221751</v>
+        <v>1.010759866118566</v>
       </c>
       <c r="N12">
-        <v>1.038129088802474</v>
+        <v>1.012819961301433</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.030016817520845</v>
+        <v>0.981009608590983</v>
       </c>
       <c r="D13">
-        <v>1.030542044226468</v>
+        <v>1.01783376447481</v>
       </c>
       <c r="E13">
-        <v>1.038326884312577</v>
+        <v>0.9964010556139232</v>
       </c>
       <c r="F13">
-        <v>1.045649160968205</v>
+        <v>0.9958149288623095</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034283522963494</v>
+        <v>1.039750697464383</v>
       </c>
       <c r="J13">
-        <v>1.036688419343984</v>
+        <v>1.011544352353908</v>
       </c>
       <c r="K13">
-        <v>1.034165049271519</v>
+        <v>1.03258417710917</v>
       </c>
       <c r="L13">
-        <v>1.041920626536257</v>
+        <v>1.011553265169086</v>
       </c>
       <c r="M13">
-        <v>1.049215818925032</v>
+        <v>1.010978444796818</v>
       </c>
       <c r="N13">
-        <v>1.038160635809276</v>
+        <v>1.01298086136001</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.030181381843885</v>
+        <v>0.9818862335272558</v>
       </c>
       <c r="D14">
-        <v>1.030621322487953</v>
+        <v>1.018244309378807</v>
       </c>
       <c r="E14">
-        <v>1.0384786902393</v>
+        <v>0.9971496860174038</v>
       </c>
       <c r="F14">
-        <v>1.045829134689646</v>
+        <v>0.9966910421969987</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034310391639965</v>
+        <v>1.039945504408264</v>
       </c>
       <c r="J14">
-        <v>1.036791634446474</v>
+        <v>1.012069238410821</v>
       </c>
       <c r="K14">
-        <v>1.034212224016713</v>
+        <v>1.032846704524605</v>
       </c>
       <c r="L14">
-        <v>1.042040339767267</v>
+        <v>1.012142595736491</v>
       </c>
       <c r="M14">
-        <v>1.049363859198908</v>
+        <v>1.011692682752434</v>
       </c>
       <c r="N14">
-        <v>1.038263997489052</v>
+        <v>1.013506492815328</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.030282786791452</v>
+        <v>0.9824244115508832</v>
       </c>
       <c r="D15">
-        <v>1.030670176187223</v>
+        <v>1.018496566051818</v>
       </c>
       <c r="E15">
-        <v>1.038572243748593</v>
+        <v>0.9976094779522345</v>
       </c>
       <c r="F15">
-        <v>1.045940051527831</v>
+        <v>0.997229124280691</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034326921207879</v>
+        <v>1.040064927983495</v>
       </c>
       <c r="J15">
-        <v>1.036855225277207</v>
+        <v>1.012391446600702</v>
       </c>
       <c r="K15">
-        <v>1.03424127945948</v>
+        <v>1.033007856940827</v>
       </c>
       <c r="L15">
-        <v>1.042114104214791</v>
+        <v>1.012504438066936</v>
       </c>
       <c r="M15">
-        <v>1.04945508601535</v>
+        <v>1.012131265733618</v>
       </c>
       <c r="N15">
-        <v>1.038327678626057</v>
+        <v>1.013829158577797</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.030873181459757</v>
+        <v>0.9855278299592581</v>
       </c>
       <c r="D16">
-        <v>1.030954642790398</v>
+        <v>1.019954365819952</v>
       </c>
       <c r="E16">
-        <v>1.039117083369245</v>
+        <v>1.000263753808898</v>
       </c>
       <c r="F16">
-        <v>1.046586078827983</v>
+        <v>1.0003352686715</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034422746606353</v>
+        <v>1.040750926867762</v>
       </c>
       <c r="J16">
-        <v>1.037225298857988</v>
+        <v>1.014248976133394</v>
       </c>
       <c r="K16">
-        <v>1.034410233964006</v>
+        <v>1.033936800068968</v>
       </c>
       <c r="L16">
-        <v>1.042543523517112</v>
+        <v>1.0145915839843</v>
       </c>
       <c r="M16">
-        <v>1.049986283409224</v>
+        <v>1.01466181242246</v>
       </c>
       <c r="N16">
-        <v>1.038698277753771</v>
+        <v>1.015689326015487</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.031243673106915</v>
+        <v>0.9874496094144281</v>
       </c>
       <c r="D17">
-        <v>1.031133182767089</v>
+        <v>1.020859763388531</v>
       </c>
       <c r="E17">
-        <v>1.039459125810577</v>
+        <v>1.001909878284669</v>
       </c>
       <c r="F17">
-        <v>1.04699170433491</v>
+        <v>1.002261584003888</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034482516833332</v>
+        <v>1.04117334489301</v>
       </c>
       <c r="J17">
-        <v>1.037457389302134</v>
+        <v>1.015398773023485</v>
       </c>
       <c r="K17">
-        <v>1.034516072240897</v>
+        <v>1.034511670505028</v>
       </c>
       <c r="L17">
-        <v>1.042812955167164</v>
+        <v>1.01588450308091</v>
       </c>
       <c r="M17">
-        <v>1.050319680634998</v>
+        <v>1.016230075320834</v>
       </c>
       <c r="N17">
-        <v>1.038930697792969</v>
+        <v>1.016840755749046</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>1.031459829390582</v>
+        <v>0.988561817820493</v>
       </c>
       <c r="D18">
-        <v>1.03123735816565</v>
+        <v>1.021384668174461</v>
       </c>
       <c r="E18">
-        <v>1.039658733539082</v>
+        <v>1.002863427278478</v>
       </c>
       <c r="F18">
-        <v>1.047228438920507</v>
+        <v>1.003377431040684</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034517257621139</v>
+        <v>1.041416937366378</v>
       </c>
       <c r="J18">
-        <v>1.037592746554652</v>
+        <v>1.016064020825194</v>
       </c>
       <c r="K18">
-        <v>1.034577754252565</v>
+        <v>1.034844208775135</v>
       </c>
       <c r="L18">
-        <v>1.042970134404679</v>
+        <v>1.016632916613506</v>
       </c>
       <c r="M18">
-        <v>1.050514214171546</v>
+        <v>1.01713811918488</v>
       </c>
       <c r="N18">
-        <v>1.039066247268311</v>
+        <v>1.017506948278938</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.031533542364752</v>
+        <v>0.9889395934252666</v>
       </c>
       <c r="D19">
-        <v>1.031272885346064</v>
+        <v>1.021563110210169</v>
       </c>
       <c r="E19">
-        <v>1.039726811570207</v>
+        <v>1.003187458608877</v>
       </c>
       <c r="F19">
-        <v>1.047309183026558</v>
+        <v>1.003756613413287</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034529082592196</v>
+        <v>1.041499526039886</v>
       </c>
       <c r="J19">
-        <v>1.037638896941556</v>
+        <v>1.016289947986336</v>
       </c>
       <c r="K19">
-        <v>1.03459877742927</v>
+        <v>1.034957129672536</v>
       </c>
       <c r="L19">
-        <v>1.043023732559727</v>
+        <v>1.016887148899776</v>
       </c>
       <c r="M19">
-        <v>1.050580556682887</v>
+        <v>1.017446619220747</v>
       </c>
       <c r="N19">
-        <v>1.039112463194058</v>
+        <v>1.017733196282563</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.031203917188356</v>
+        <v>0.9872443293700555</v>
       </c>
       <c r="D20">
-        <v>1.031114023375769</v>
+        <v>1.020762954943642</v>
       </c>
       <c r="E20">
-        <v>1.039422417525446</v>
+        <v>1.001733952116835</v>
       </c>
       <c r="F20">
-        <v>1.046948170059103</v>
+        <v>1.002055714040345</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034476116686684</v>
+        <v>1.041128313760328</v>
       </c>
       <c r="J20">
-        <v>1.037432489964736</v>
+        <v>1.015275973166302</v>
       </c>
       <c r="K20">
-        <v>1.034504722131743</v>
+        <v>1.034450280333907</v>
       </c>
       <c r="L20">
-        <v>1.042784045179534</v>
+        <v>1.015746380436641</v>
       </c>
       <c r="M20">
-        <v>1.050283903167911</v>
+        <v>1.016062512252956</v>
       </c>
       <c r="N20">
-        <v>1.038905763095656</v>
+        <v>1.01671778150198</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.030132919368461</v>
+        <v>0.9816284948554674</v>
       </c>
       <c r="D21">
-        <v>1.03059797539913</v>
+        <v>1.018123558987028</v>
       </c>
       <c r="E21">
-        <v>1.038433982828269</v>
+        <v>0.9969295390755563</v>
       </c>
       <c r="F21">
-        <v>1.045776130852707</v>
+        <v>0.9964334083432302</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034302484714523</v>
+        <v>1.039888264605143</v>
       </c>
       <c r="J21">
-        <v>1.036761240878283</v>
+        <v>1.011914921558237</v>
       </c>
       <c r="K21">
-        <v>1.034198334410293</v>
+        <v>1.032769521899261</v>
       </c>
       <c r="L21">
-        <v>1.042005086124846</v>
+        <v>1.011969316710198</v>
       </c>
       <c r="M21">
-        <v>1.049320262043608</v>
+        <v>1.011482667412254</v>
       </c>
       <c r="N21">
-        <v>1.038233560758506</v>
+        <v>1.013351956815113</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.029460039269478</v>
+        <v>0.978013537467218</v>
       </c>
       <c r="D22">
-        <v>1.030273852341809</v>
+        <v>1.016433935383128</v>
       </c>
       <c r="E22">
-        <v>1.037813424906361</v>
+        <v>0.9938453510602954</v>
       </c>
       <c r="F22">
-        <v>1.045040492516793</v>
+        <v>0.9928238911147144</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034192218568888</v>
+        <v>1.039082369782982</v>
       </c>
       <c r="J22">
-        <v>1.036339050803395</v>
+        <v>1.009750016520527</v>
       </c>
       <c r="K22">
-        <v>1.034005238085112</v>
+        <v>1.031686714573895</v>
       </c>
       <c r="L22">
-        <v>1.04151554887063</v>
+        <v>1.009539726744093</v>
       </c>
       <c r="M22">
-        <v>1.048715006995119</v>
+        <v>1.008538861260729</v>
       </c>
       <c r="N22">
-        <v>1.037810771125286</v>
+        <v>1.011183977363932</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.029816698209404</v>
+        <v>0.9799381349809323</v>
       </c>
       <c r="D23">
-        <v>1.030445643602763</v>
+        <v>1.017332559113838</v>
       </c>
       <c r="E23">
-        <v>1.038142307743232</v>
+        <v>0.9954865517636109</v>
       </c>
       <c r="F23">
-        <v>1.04543034766055</v>
+        <v>0.9947446745404601</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034250776520107</v>
+        <v>1.039512127903782</v>
       </c>
       <c r="J23">
-        <v>1.036562875613521</v>
+        <v>1.010902721076464</v>
       </c>
       <c r="K23">
-        <v>1.034107645182524</v>
+        <v>1.032263253572269</v>
       </c>
       <c r="L23">
-        <v>1.04177504018333</v>
+        <v>1.010833055952149</v>
       </c>
       <c r="M23">
-        <v>1.049035804644905</v>
+        <v>1.010105720252516</v>
       </c>
       <c r="N23">
-        <v>1.038034913792316</v>
+        <v>1.012338318892555</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03122188100746</v>
+        <v>0.9873371135173176</v>
       </c>
       <c r="D24">
-        <v>1.031122680568836</v>
+        <v>1.020806708383297</v>
       </c>
       <c r="E24">
-        <v>1.03943900411003</v>
+        <v>1.001813465957909</v>
       </c>
       <c r="F24">
-        <v>1.046967840891643</v>
+        <v>1.00214876168439</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03447900901502</v>
+        <v>1.041148670023105</v>
       </c>
       <c r="J24">
-        <v>1.037443740956658</v>
+        <v>1.015331477821463</v>
       </c>
       <c r="K24">
-        <v>1.034509850917275</v>
+        <v>1.034478028471179</v>
       </c>
       <c r="L24">
-        <v>1.042797108283467</v>
+        <v>1.015808809770353</v>
       </c>
       <c r="M24">
-        <v>1.050300069253442</v>
+        <v>1.016138247446471</v>
       </c>
       <c r="N24">
-        <v>1.038917030065277</v>
+        <v>1.016773364980118</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.032854663318857</v>
+        <v>0.9955829376528306</v>
       </c>
       <c r="D25">
-        <v>1.031909752126236</v>
+        <v>1.024713380047961</v>
       </c>
       <c r="E25">
-        <v>1.040947672965847</v>
+        <v>1.008897992342386</v>
       </c>
       <c r="F25">
-        <v>1.048757507883884</v>
+        <v>1.010439236743002</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.034739065443679</v>
+        <v>1.042938515468891</v>
       </c>
       <c r="J25">
-        <v>1.03846525937403</v>
+        <v>1.020259873462269</v>
       </c>
       <c r="K25">
-        <v>1.034974557753585</v>
+        <v>1.036939794305608</v>
       </c>
       <c r="L25">
-        <v>1.043984111971827</v>
+        <v>1.021359731117313</v>
       </c>
       <c r="M25">
-        <v>1.051769864565508</v>
+        <v>1.022877629983035</v>
       </c>
       <c r="N25">
-        <v>1.039939999155972</v>
+        <v>1.021708759508028</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.001911001835833</v>
+        <v>1.012090056129653</v>
       </c>
       <c r="D2">
-        <v>1.027734973677766</v>
+        <v>1.036567203375646</v>
       </c>
       <c r="E2">
-        <v>1.014359747767609</v>
+        <v>1.026059321345255</v>
       </c>
       <c r="F2">
-        <v>1.016831534529732</v>
+        <v>1.035470252799508</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044282888109551</v>
+        <v>1.050070522818761</v>
       </c>
       <c r="J2">
-        <v>1.024034705017068</v>
+        <v>1.033915072448759</v>
       </c>
       <c r="K2">
-        <v>1.038820979428481</v>
+        <v>1.047539563103303</v>
       </c>
       <c r="L2">
-        <v>1.025622588743405</v>
+        <v>1.037167164599613</v>
       </c>
       <c r="M2">
-        <v>1.028061255701631</v>
+        <v>1.046456595455935</v>
       </c>
       <c r="N2">
-        <v>1.025488951756615</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014727330893344</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.045339653648734</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.044684854210523</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.006372971379782</v>
+        <v>1.016523884149373</v>
       </c>
       <c r="D3">
-        <v>1.029877087148964</v>
+        <v>1.038433029797155</v>
       </c>
       <c r="E3">
-        <v>1.018224438182509</v>
+        <v>1.029532030116223</v>
       </c>
       <c r="F3">
-        <v>1.021355605327143</v>
+        <v>1.038693447363492</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045212978498887</v>
+        <v>1.050982460590105</v>
       </c>
       <c r="J3">
-        <v>1.026691397706104</v>
+        <v>1.036574007488159</v>
       </c>
       <c r="K3">
-        <v>1.040141440659787</v>
+        <v>1.0485966805216</v>
       </c>
       <c r="L3">
-        <v>1.028629325606512</v>
+        <v>1.039800488439857</v>
       </c>
       <c r="M3">
-        <v>1.031722338695621</v>
+        <v>1.048854065165655</v>
       </c>
       <c r="N3">
-        <v>1.028149417253996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.015659589948922</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.047237075101649</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.045429669935745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009202226598447</v>
+        <v>1.019336127358018</v>
       </c>
       <c r="D4">
-        <v>1.031240080563629</v>
+        <v>1.039624819502605</v>
       </c>
       <c r="E4">
-        <v>1.020680990601738</v>
+        <v>1.031740823548873</v>
       </c>
       <c r="F4">
-        <v>1.024231862638892</v>
+        <v>1.040745738304063</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.045794175023872</v>
+        <v>1.05155356858692</v>
       </c>
       <c r="J4">
-        <v>1.028373432126007</v>
+        <v>1.038257820546536</v>
       </c>
       <c r="K4">
-        <v>1.040975537082887</v>
+        <v>1.049267419956833</v>
       </c>
       <c r="L4">
-        <v>1.030536060834382</v>
+        <v>1.041470682485383</v>
       </c>
       <c r="M4">
-        <v>1.034046369066862</v>
+        <v>1.050376064471009</v>
       </c>
       <c r="N4">
-        <v>1.029833840355707</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.01624947510292</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.048441623402182</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.045904819587086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.01037826358176</v>
+        <v>1.020506490150201</v>
       </c>
       <c r="D5">
-        <v>1.031807677601106</v>
+        <v>1.040128124966479</v>
       </c>
       <c r="E5">
-        <v>1.021703515181991</v>
+        <v>1.032661695074841</v>
       </c>
       <c r="F5">
-        <v>1.025429245423993</v>
+        <v>1.04160171322227</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046033663693607</v>
+        <v>1.051791292543967</v>
       </c>
       <c r="J5">
-        <v>1.029071964717785</v>
+        <v>1.038958352635995</v>
       </c>
       <c r="K5">
-        <v>1.041321421633931</v>
+        <v>1.049552130150113</v>
       </c>
       <c r="L5">
-        <v>1.0313286533796</v>
+        <v>1.04216614653309</v>
       </c>
       <c r="M5">
-        <v>1.035012994920578</v>
+        <v>1.051010008220612</v>
       </c>
       <c r="N5">
-        <v>1.030533364943888</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.016495176477761</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.048943341756878</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.046113241632112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010574954399041</v>
+        <v>1.020703723683738</v>
       </c>
       <c r="D6">
-        <v>1.03190266617443</v>
+        <v>1.040219602300274</v>
       </c>
       <c r="E6">
-        <v>1.021874613047151</v>
+        <v>1.03281722462891</v>
       </c>
       <c r="F6">
-        <v>1.025629612019093</v>
+        <v>1.041746108729836</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046073593334564</v>
+        <v>1.051833483992612</v>
       </c>
       <c r="J6">
-        <v>1.029188754990138</v>
+        <v>1.039076928273956</v>
       </c>
       <c r="K6">
-        <v>1.04137922023092</v>
+        <v>1.049606858169163</v>
       </c>
       <c r="L6">
-        <v>1.031461213788112</v>
+        <v>1.042283872853824</v>
       </c>
       <c r="M6">
-        <v>1.035174696175507</v>
+        <v>1.05111716415038</v>
       </c>
       <c r="N6">
-        <v>1.030650321071824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.016537257319237</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049028147507528</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.046160611382535</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009217992814335</v>
+        <v>1.019355787068756</v>
       </c>
       <c r="D7">
-        <v>1.031247685901226</v>
+        <v>1.039650787229121</v>
       </c>
       <c r="E7">
-        <v>1.02069469327617</v>
+        <v>1.031756988209641</v>
       </c>
       <c r="F7">
-        <v>1.024247907904945</v>
+        <v>1.040760204691917</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.045797394005074</v>
+        <v>1.051563543485282</v>
       </c>
       <c r="J7">
-        <v>1.028382799376965</v>
+        <v>1.038271088168885</v>
       </c>
       <c r="K7">
-        <v>1.040980177423962</v>
+        <v>1.049290254016873</v>
       </c>
       <c r="L7">
-        <v>1.030546686472683</v>
+        <v>1.041483788527735</v>
       </c>
       <c r="M7">
-        <v>1.034059325553991</v>
+        <v>1.050387527753861</v>
       </c>
       <c r="N7">
-        <v>1.029843220909236</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.016255491246874</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.048450695723384</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.045940911281342</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00343124353712</v>
+        <v>1.013605417946098</v>
       </c>
       <c r="D8">
-        <v>1.028463769899805</v>
+        <v>1.037224697472277</v>
       </c>
       <c r="E8">
-        <v>1.015675205307046</v>
+        <v>1.027245802947304</v>
       </c>
       <c r="F8">
-        <v>1.018371323021578</v>
+        <v>1.036570286082164</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044601546766992</v>
+        <v>1.050390996912164</v>
       </c>
       <c r="J8">
-        <v>1.024940378767531</v>
+        <v>1.034826184825705</v>
       </c>
       <c r="K8">
-        <v>1.039271505227469</v>
+        <v>1.047922982860802</v>
       </c>
       <c r="L8">
-        <v>1.026646951092226</v>
+        <v>1.038068938777044</v>
       </c>
       <c r="M8">
-        <v>1.029308062932363</v>
+        <v>1.047276667393108</v>
       </c>
       <c r="N8">
-        <v>1.026395911667686</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.015048663629101</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.045988680996223</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.044978674909371</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.992767290891354</v>
+        <v>1.003009851999622</v>
       </c>
       <c r="D9">
-        <v>1.023375394190761</v>
+        <v>1.032796128962965</v>
       </c>
       <c r="E9">
-        <v>1.006474833265223</v>
+        <v>1.018983577798278</v>
       </c>
       <c r="F9">
-        <v>1.007603535184139</v>
+        <v>1.028915333328184</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042331827197645</v>
+        <v>1.048164737072806</v>
       </c>
       <c r="J9">
-        <v>1.018578065696539</v>
+        <v>1.028456770508938</v>
       </c>
       <c r="K9">
-        <v>1.036100273726366</v>
+        <v>1.04537861343146</v>
       </c>
       <c r="L9">
-        <v>1.019463727083085</v>
+        <v>1.031775989019609</v>
       </c>
       <c r="M9">
-        <v>1.02057444322227</v>
+        <v>1.041556074080584</v>
       </c>
       <c r="N9">
-        <v>1.020024563382365</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.012811442740479</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.041461235062795</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.043176526209878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9853094512525139</v>
+        <v>0.9957127912463787</v>
       </c>
       <c r="D10">
-        <v>1.019851610129228</v>
+        <v>1.029791930352121</v>
       </c>
       <c r="E10">
-        <v>1.000076819045048</v>
+        <v>1.013368452208128</v>
       </c>
       <c r="F10">
-        <v>1.000116513530885</v>
+        <v>1.023771182441825</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040702807786008</v>
+        <v>1.046618687646844</v>
       </c>
       <c r="J10">
-        <v>1.014118296525596</v>
+        <v>1.02409754505436</v>
       </c>
       <c r="K10">
-        <v>1.03387145540001</v>
+        <v>1.043643339267289</v>
       </c>
       <c r="L10">
-        <v>1.014444686638813</v>
+        <v>1.027500458508527</v>
       </c>
       <c r="M10">
-        <v>1.014483664608554</v>
+        <v>1.037724107235682</v>
       </c>
       <c r="N10">
-        <v>1.015558460827657</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.011288500324785</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.038479926169173</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.041966270999144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9819890767405361</v>
+        <v>0.9933302181171548</v>
       </c>
       <c r="D11">
-        <v>1.018292501808213</v>
+        <v>1.028749826629458</v>
       </c>
       <c r="E11">
-        <v>0.9972375387024048</v>
+        <v>1.011846853244105</v>
       </c>
       <c r="F11">
-        <v>0.9967938542152012</v>
+        <v>1.02274665959179</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039968335897819</v>
+        <v>1.046281893369066</v>
       </c>
       <c r="J11">
-        <v>1.012130812644982</v>
+        <v>1.022983124509925</v>
       </c>
       <c r="K11">
-        <v>1.032877501121594</v>
+        <v>1.043149193229512</v>
       </c>
       <c r="L11">
-        <v>1.012211739709575</v>
+        <v>1.026548760824353</v>
       </c>
       <c r="M11">
-        <v>1.011776488096712</v>
+        <v>1.037251988807158</v>
       </c>
       <c r="N11">
-        <v>1.013568154491965</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.010984403301409</v>
+      </c>
+      <c r="O11">
+        <v>1.030000000000001</v>
+      </c>
+      <c r="P11">
+        <v>1.038542473623493</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.041649449481961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.980741286118555</v>
+        <v>0.992772868936316</v>
       </c>
       <c r="D12">
-        <v>1.017708189464759</v>
+        <v>1.028450208543157</v>
       </c>
       <c r="E12">
-        <v>0.9961719879061027</v>
+        <v>1.011646922005464</v>
       </c>
       <c r="F12">
-        <v>0.9955468505948797</v>
+        <v>1.022832357927772</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039691001261089</v>
+        <v>1.046290159898249</v>
       </c>
       <c r="J12">
-        <v>1.01138368046784</v>
+        <v>1.022886274908553</v>
       </c>
       <c r="K12">
-        <v>1.032503814410359</v>
+        <v>1.043051917769864</v>
       </c>
       <c r="L12">
-        <v>1.011372895902625</v>
+        <v>1.026554336133038</v>
       </c>
       <c r="M12">
-        <v>1.010759866118566</v>
+        <v>1.037534820458956</v>
       </c>
       <c r="N12">
-        <v>1.012819961301433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.011020054010522</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.039092473127051</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.04158067372827</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.981009608590983</v>
+        <v>0.9935890645849016</v>
       </c>
       <c r="D13">
-        <v>1.01783376447481</v>
+        <v>1.028722203161516</v>
       </c>
       <c r="E13">
-        <v>0.9964010556139232</v>
+        <v>1.012457120461823</v>
       </c>
       <c r="F13">
-        <v>0.9958149288623095</v>
+        <v>1.023793129533874</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039750697464383</v>
+        <v>1.046575632248005</v>
       </c>
       <c r="J13">
-        <v>1.011544352353908</v>
+        <v>1.023573623363301</v>
       </c>
       <c r="K13">
-        <v>1.03258417710917</v>
+        <v>1.043276811750281</v>
       </c>
       <c r="L13">
-        <v>1.011553265169086</v>
+        <v>1.027306244816354</v>
       </c>
       <c r="M13">
-        <v>1.010978444796818</v>
+        <v>1.038435706048574</v>
       </c>
       <c r="N13">
-        <v>1.01298086136001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.011323599037319</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.040081290129958</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.04173720800112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9818862335272558</v>
+        <v>0.9947778231793843</v>
       </c>
       <c r="D14">
-        <v>1.018244309378807</v>
+        <v>1.029174549808165</v>
       </c>
       <c r="E14">
-        <v>0.9971496860174038</v>
+        <v>1.013476624782821</v>
       </c>
       <c r="F14">
-        <v>0.9966910421969987</v>
+        <v>1.024857137536431</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039945504408264</v>
+        <v>1.046900092950678</v>
       </c>
       <c r="J14">
-        <v>1.012069238410821</v>
+        <v>1.024405443291201</v>
       </c>
       <c r="K14">
-        <v>1.032846704524605</v>
+        <v>1.043582756273501</v>
       </c>
       <c r="L14">
-        <v>1.012142595736491</v>
+        <v>1.028165431144797</v>
       </c>
       <c r="M14">
-        <v>1.011692682752434</v>
+        <v>1.039341405915053</v>
       </c>
       <c r="N14">
-        <v>1.013506492815328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.011655811166193</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.040970409562135</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.041954929066319</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9824244115508832</v>
+        <v>0.9953712345900305</v>
       </c>
       <c r="D15">
-        <v>1.018496566051818</v>
+        <v>1.029415918166992</v>
       </c>
       <c r="E15">
-        <v>0.9976094779522345</v>
+        <v>1.013953791177092</v>
       </c>
       <c r="F15">
-        <v>0.997229124280691</v>
+        <v>1.025322363927377</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040064927983495</v>
+        <v>1.047043665822801</v>
       </c>
       <c r="J15">
-        <v>1.012391446600702</v>
+        <v>1.024785588594111</v>
       </c>
       <c r="K15">
-        <v>1.033007856940827</v>
+        <v>1.043734656831885</v>
       </c>
       <c r="L15">
-        <v>1.012504438066936</v>
+        <v>1.028546778008016</v>
       </c>
       <c r="M15">
-        <v>1.012131265733618</v>
+        <v>1.039712665645558</v>
       </c>
       <c r="N15">
-        <v>1.013829158577797</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.011797862942417</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.041301356068199</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.042068144744228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9855278299592581</v>
+        <v>0.9983015173038378</v>
       </c>
       <c r="D16">
-        <v>1.019954365819952</v>
+        <v>1.030633894224019</v>
       </c>
       <c r="E16">
-        <v>1.000263753808898</v>
+        <v>1.016176036438651</v>
       </c>
       <c r="F16">
-        <v>1.0003352686715</v>
+        <v>1.02734301306019</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040750926867762</v>
+        <v>1.047655075239416</v>
       </c>
       <c r="J16">
-        <v>1.014248976133394</v>
+        <v>1.026505684241338</v>
       </c>
       <c r="K16">
-        <v>1.033936800068968</v>
+        <v>1.044436107995053</v>
       </c>
       <c r="L16">
-        <v>1.0145915839843</v>
+        <v>1.030223404547153</v>
       </c>
       <c r="M16">
-        <v>1.01466181242246</v>
+        <v>1.041200246569412</v>
       </c>
       <c r="N16">
-        <v>1.015689326015487</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.01238606479858</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.042438466959005</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.042567229695835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,81 +1228,105 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9874496094144281</v>
+        <v>0.9999276778428546</v>
       </c>
       <c r="D17">
-        <v>1.020859763388531</v>
+        <v>1.031334622989805</v>
       </c>
       <c r="E17">
-        <v>1.001909878284669</v>
+        <v>1.017347752991578</v>
       </c>
       <c r="F17">
-        <v>1.002261584003888</v>
+        <v>1.028331511551736</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.04117334489301</v>
+        <v>1.04795246661116</v>
       </c>
       <c r="J17">
-        <v>1.015398773023485</v>
+        <v>1.027388635568354</v>
       </c>
       <c r="K17">
-        <v>1.034511670505028</v>
+        <v>1.044814677894318</v>
       </c>
       <c r="L17">
-        <v>1.01588450308091</v>
+        <v>1.031058299844322</v>
       </c>
       <c r="M17">
-        <v>1.016230075320834</v>
+        <v>1.04186037595243</v>
       </c>
       <c r="N17">
-        <v>1.016840755749046</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.012662851116434</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.042831396485108</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.042837456627137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.988561817820493</v>
+        <v>1.000568533633186</v>
       </c>
       <c r="D18">
-        <v>1.021384668174461</v>
+        <v>1.031638434679238</v>
       </c>
       <c r="E18">
-        <v>1.002863427278478</v>
+        <v>1.017693204919343</v>
       </c>
       <c r="F18">
-        <v>1.003377431040684</v>
+        <v>1.028471376336652</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041416937366378</v>
+        <v>1.04799555609781</v>
       </c>
       <c r="J18">
-        <v>1.016064020825194</v>
+        <v>1.027610079645115</v>
       </c>
       <c r="K18">
-        <v>1.034844208775135</v>
+        <v>1.04493251528374</v>
       </c>
       <c r="L18">
-        <v>1.016632916613506</v>
+        <v>1.031213363022782</v>
       </c>
       <c r="M18">
-        <v>1.01713811918488</v>
+        <v>1.041816110514913</v>
       </c>
       <c r="N18">
-        <v>1.017506948278938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.01268711565221</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.042559086444732</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.042909235923932</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9889395934252666</v>
+        <v>1.000325416696441</v>
       </c>
       <c r="D19">
-        <v>1.021563110210169</v>
+        <v>1.031612433269713</v>
       </c>
       <c r="E19">
-        <v>1.003187458608877</v>
+        <v>1.017293809680913</v>
       </c>
       <c r="F19">
-        <v>1.003756613413287</v>
+        <v>1.027840542781709</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041499526039886</v>
+        <v>1.047822438853792</v>
       </c>
       <c r="J19">
-        <v>1.016289947986336</v>
+        <v>1.027241580440389</v>
       </c>
       <c r="K19">
-        <v>1.034957129672536</v>
+        <v>1.044845186734852</v>
       </c>
       <c r="L19">
-        <v>1.016887148899776</v>
+        <v>1.030757580581655</v>
       </c>
       <c r="M19">
-        <v>1.017446619220747</v>
+        <v>1.041133351491228</v>
       </c>
       <c r="N19">
-        <v>1.017733196282563</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.012493011814022</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.041694226707825</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.042853831946787</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9872443293700555</v>
+        <v>0.9976194201829478</v>
       </c>
       <c r="D20">
-        <v>1.020762954943642</v>
+        <v>1.030615455386021</v>
       </c>
       <c r="E20">
-        <v>1.001733952116835</v>
+        <v>1.014836591121602</v>
       </c>
       <c r="F20">
-        <v>1.002055714040345</v>
+        <v>1.025116022500681</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041128313760328</v>
+        <v>1.047040132515284</v>
       </c>
       <c r="J20">
-        <v>1.015275973166302</v>
+        <v>1.02524241863131</v>
       </c>
       <c r="K20">
-        <v>1.034450280333907</v>
+        <v>1.044140514941102</v>
       </c>
       <c r="L20">
-        <v>1.015746380436641</v>
+        <v>1.028623479093048</v>
       </c>
       <c r="M20">
-        <v>1.016062512252956</v>
+        <v>1.03873116016053</v>
       </c>
       <c r="N20">
-        <v>1.01671778150198</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.011693100309505</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.039266353511672</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.042359491773375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9816284948554674</v>
+        <v>0.9919642499108757</v>
       </c>
       <c r="D21">
-        <v>1.018123558987028</v>
+        <v>1.028312715921039</v>
       </c>
       <c r="E21">
-        <v>0.9969295390755563</v>
+        <v>1.010440636683848</v>
       </c>
       <c r="F21">
-        <v>0.9964334083432302</v>
+        <v>1.021021477576618</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039888264605143</v>
+        <v>1.045794978283593</v>
       </c>
       <c r="J21">
-        <v>1.011914921558237</v>
+        <v>1.02180182736704</v>
       </c>
       <c r="K21">
-        <v>1.032769521899261</v>
+        <v>1.042776840672452</v>
       </c>
       <c r="L21">
-        <v>1.011969316710198</v>
+        <v>1.02522687143412</v>
       </c>
       <c r="M21">
-        <v>1.011482667412254</v>
+        <v>1.035615243728151</v>
       </c>
       <c r="N21">
-        <v>1.013351956815113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.010474814675001</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.03675945705022</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.041398528728916</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.978013537467218</v>
+        <v>0.988374893965429</v>
       </c>
       <c r="D22">
-        <v>1.016433935383128</v>
+        <v>1.026841406363548</v>
       </c>
       <c r="E22">
-        <v>0.9938453510602954</v>
+        <v>1.007677378837374</v>
       </c>
       <c r="F22">
-        <v>0.9928238911147144</v>
+        <v>1.018474302589678</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039082369782982</v>
+        <v>1.045002705234394</v>
       </c>
       <c r="J22">
-        <v>1.009750016520527</v>
+        <v>1.019633942401533</v>
       </c>
       <c r="K22">
-        <v>1.031686714573895</v>
+        <v>1.041899245949974</v>
       </c>
       <c r="L22">
-        <v>1.009539726744093</v>
+        <v>1.023098264317446</v>
       </c>
       <c r="M22">
-        <v>1.008538861260729</v>
+        <v>1.033688453908348</v>
       </c>
       <c r="N22">
-        <v>1.011183977363932</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.009709857684812</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.035234522489239</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.040764650170868</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9799381349809323</v>
+        <v>0.9902821678373936</v>
       </c>
       <c r="D23">
-        <v>1.017332559113838</v>
+        <v>1.027606706155631</v>
       </c>
       <c r="E23">
-        <v>0.9954865517636109</v>
+        <v>1.009143998247119</v>
       </c>
       <c r="F23">
-        <v>0.9947446745404601</v>
+        <v>1.019826589136801</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039512127903782</v>
+        <v>1.045419332686001</v>
       </c>
       <c r="J23">
-        <v>1.010902721076464</v>
+        <v>1.020784773153117</v>
       </c>
       <c r="K23">
-        <v>1.032263253572269</v>
+        <v>1.042349790458432</v>
       </c>
       <c r="L23">
-        <v>1.010833055952149</v>
+        <v>1.024227794513238</v>
       </c>
       <c r="M23">
-        <v>1.010105720252516</v>
+        <v>1.034711288954588</v>
       </c>
       <c r="N23">
-        <v>1.012338318892555</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.010114414884876</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.036044033357017</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.041073650084253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9873371135173176</v>
+        <v>0.9976240504855411</v>
       </c>
       <c r="D24">
-        <v>1.020806708383297</v>
+        <v>1.0306014333405</v>
       </c>
       <c r="E24">
-        <v>1.001813465957909</v>
+        <v>1.014809632008555</v>
       </c>
       <c r="F24">
-        <v>1.00214876168439</v>
+        <v>1.025055633377252</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041148670023105</v>
+        <v>1.047017219511772</v>
       </c>
       <c r="J24">
-        <v>1.015331477821463</v>
+        <v>1.025213868399862</v>
       </c>
       <c r="K24">
-        <v>1.034478028471179</v>
+        <v>1.04411165165902</v>
       </c>
       <c r="L24">
-        <v>1.015808809770353</v>
+        <v>1.02858157130147</v>
       </c>
       <c r="M24">
-        <v>1.016138247446471</v>
+        <v>1.03865658155012</v>
       </c>
       <c r="N24">
-        <v>1.016773364980118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.011673311485615</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.039166480534916</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.042311915724023</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9955829376528306</v>
+        <v>1.00581250469125</v>
       </c>
       <c r="D25">
-        <v>1.024713380047961</v>
+        <v>1.033985889877657</v>
       </c>
       <c r="E25">
-        <v>1.008897992342386</v>
+        <v>1.021163970259161</v>
       </c>
       <c r="F25">
-        <v>1.010439236743002</v>
+        <v>1.030932297613601</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042938515468891</v>
+        <v>1.048768901414183</v>
       </c>
       <c r="J25">
-        <v>1.020259873462269</v>
+        <v>1.030145825854273</v>
       </c>
       <c r="K25">
-        <v>1.036939794305608</v>
+        <v>1.046078570978465</v>
       </c>
       <c r="L25">
-        <v>1.021359731117313</v>
+        <v>1.03344239218605</v>
       </c>
       <c r="M25">
-        <v>1.022877629983035</v>
+        <v>1.043068682828239</v>
       </c>
       <c r="N25">
-        <v>1.021708759508028</v>
+        <v>1.013407497716396</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.042658360886231</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.043699771052784</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_11/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012090056129653</v>
+        <v>1.011992013502689</v>
       </c>
       <c r="D2">
-        <v>1.036567203375646</v>
+        <v>1.033842084753672</v>
       </c>
       <c r="E2">
-        <v>1.026059321345255</v>
+        <v>1.025960304673821</v>
       </c>
       <c r="F2">
-        <v>1.035470252799508</v>
+        <v>1.035321909524985</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050070522818761</v>
+        <v>1.049192334689465</v>
       </c>
       <c r="J2">
-        <v>1.033915072448759</v>
+        <v>1.033819867444943</v>
       </c>
       <c r="K2">
-        <v>1.047539563103303</v>
+        <v>1.044849250194661</v>
       </c>
       <c r="L2">
-        <v>1.037167164599613</v>
+        <v>1.037069441133319</v>
       </c>
       <c r="M2">
-        <v>1.046456595455935</v>
+        <v>1.046310145968407</v>
       </c>
       <c r="N2">
-        <v>1.014727330893344</v>
+        <v>1.015786164476569</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.045339653648734</v>
+        <v>1.045223749460768</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.044684854210523</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.042791306023709</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.023974217439528</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.016523884149373</v>
+        <v>1.01631312297903</v>
       </c>
       <c r="D3">
-        <v>1.038433029797155</v>
+        <v>1.035535078762015</v>
       </c>
       <c r="E3">
-        <v>1.029532030116223</v>
+        <v>1.029340902475213</v>
       </c>
       <c r="F3">
-        <v>1.038693447363492</v>
+        <v>1.038471350447958</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050982460590105</v>
+        <v>1.050024385446288</v>
       </c>
       <c r="J3">
-        <v>1.036574007488159</v>
+        <v>1.036368743210049</v>
       </c>
       <c r="K3">
-        <v>1.0485966805216</v>
+        <v>1.045732607508518</v>
       </c>
       <c r="L3">
-        <v>1.039800488439857</v>
+        <v>1.039611635929322</v>
       </c>
       <c r="M3">
-        <v>1.048854065165655</v>
+        <v>1.048634554757464</v>
       </c>
       <c r="N3">
-        <v>1.015659589948922</v>
+        <v>1.016497378149398</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.047237075101649</v>
+        <v>1.047063348914924</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.045429669935745</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.043412986610559</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.024112051192932</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.019336127358018</v>
+        <v>1.019054687136035</v>
       </c>
       <c r="D4">
-        <v>1.039624819502605</v>
+        <v>1.036617295140328</v>
       </c>
       <c r="E4">
-        <v>1.031740823548873</v>
+        <v>1.031491871672075</v>
       </c>
       <c r="F4">
-        <v>1.040745738304063</v>
+        <v>1.040477315399037</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.05155356858692</v>
+        <v>1.050544828164256</v>
       </c>
       <c r="J4">
-        <v>1.038257820546536</v>
+        <v>1.037983219746114</v>
       </c>
       <c r="K4">
-        <v>1.049267419956833</v>
+        <v>1.046292989792778</v>
       </c>
       <c r="L4">
-        <v>1.041470682485383</v>
+        <v>1.04122451269457</v>
       </c>
       <c r="M4">
-        <v>1.050376064471009</v>
+        <v>1.050110577893876</v>
       </c>
       <c r="N4">
-        <v>1.01624947510292</v>
+        <v>1.016947542618941</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.048441623402182</v>
+        <v>1.048231510828886</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.045904819587086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.043810192306761</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.024197141892946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.020506490150201</v>
+        <v>1.02019568613325</v>
       </c>
       <c r="D5">
-        <v>1.040128124966479</v>
+        <v>1.037074682401968</v>
       </c>
       <c r="E5">
-        <v>1.032661695074841</v>
+        <v>1.032388694335435</v>
       </c>
       <c r="F5">
-        <v>1.04160171322227</v>
+        <v>1.04131401983101</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051791292543967</v>
+        <v>1.050761322057752</v>
       </c>
       <c r="J5">
-        <v>1.038958352635995</v>
+        <v>1.038654874211171</v>
       </c>
       <c r="K5">
-        <v>1.049552130150113</v>
+        <v>1.046531415011954</v>
       </c>
       <c r="L5">
-        <v>1.04216614653309</v>
+        <v>1.041896114266647</v>
       </c>
       <c r="M5">
-        <v>1.051010008220612</v>
+        <v>1.050725377703316</v>
       </c>
       <c r="N5">
-        <v>1.016495176477761</v>
+        <v>1.017135038473482</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.048943341756878</v>
+        <v>1.048718078350873</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.046113241632112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.043986608538598</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.024233584508895</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.020703723683738</v>
+        <v>1.02038782125322</v>
       </c>
       <c r="D6">
-        <v>1.040219602300274</v>
+        <v>1.03715801976038</v>
       </c>
       <c r="E6">
-        <v>1.03281722462891</v>
+        <v>1.0325400327789</v>
       </c>
       <c r="F6">
-        <v>1.041746108729836</v>
+        <v>1.041455060494645</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051833483992612</v>
+        <v>1.050799759255248</v>
       </c>
       <c r="J6">
-        <v>1.039076928273956</v>
+        <v>1.038768433067349</v>
       </c>
       <c r="K6">
-        <v>1.049606858169163</v>
+        <v>1.046577943521833</v>
       </c>
       <c r="L6">
-        <v>1.042283872853824</v>
+        <v>1.042009681071224</v>
       </c>
       <c r="M6">
-        <v>1.05111716415038</v>
+        <v>1.050829200257114</v>
       </c>
       <c r="N6">
-        <v>1.016537257319237</v>
+        <v>1.017167101857446</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049028147507528</v>
+        <v>1.04880024601358</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.046160611382535</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.044029060180974</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.024241637612497</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.019355787068756</v>
+        <v>1.019086166210478</v>
       </c>
       <c r="D7">
-        <v>1.039650787229121</v>
+        <v>1.036644377993253</v>
       </c>
       <c r="E7">
-        <v>1.031756988209641</v>
+        <v>1.03151805410812</v>
       </c>
       <c r="F7">
-        <v>1.040760204691917</v>
+        <v>1.040499602977945</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.051563543485282</v>
+        <v>1.050558537824883</v>
       </c>
       <c r="J7">
-        <v>1.038271088168885</v>
+        <v>1.038008016676317</v>
       </c>
       <c r="K7">
-        <v>1.049290254016873</v>
+        <v>1.046316913625413</v>
       </c>
       <c r="L7">
-        <v>1.041483788527735</v>
+        <v>1.041247523536819</v>
       </c>
       <c r="M7">
-        <v>1.050387527753861</v>
+        <v>1.050129775738871</v>
       </c>
       <c r="N7">
-        <v>1.016255491246874</v>
+        <v>1.016981959729336</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.048450695723384</v>
+        <v>1.048246704475162</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.045940911281342</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.043849077192325</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.024203862958095</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013605417946098</v>
+        <v>1.013507656251515</v>
       </c>
       <c r="D8">
-        <v>1.037224697472277</v>
+        <v>1.034448457870597</v>
       </c>
       <c r="E8">
-        <v>1.027245802947304</v>
+        <v>1.027148343734661</v>
       </c>
       <c r="F8">
-        <v>1.036570286082164</v>
+        <v>1.036422597296288</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050390996912164</v>
+        <v>1.049499217506753</v>
       </c>
       <c r="J8">
-        <v>1.034826184825705</v>
+        <v>1.03473115639894</v>
       </c>
       <c r="K8">
-        <v>1.047922982860802</v>
+        <v>1.045181176724967</v>
       </c>
       <c r="L8">
-        <v>1.038068938777044</v>
+        <v>1.037972713850959</v>
       </c>
       <c r="M8">
-        <v>1.047276667393108</v>
+        <v>1.047130807470773</v>
       </c>
       <c r="N8">
-        <v>1.015048663629101</v>
+        <v>1.016122609547898</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.045988680996223</v>
+        <v>1.045873243508566</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.044978674909371</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.043051011668137</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.024031035206437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003009851999622</v>
+        <v>1.003193793300243</v>
       </c>
       <c r="D9">
-        <v>1.032796128962965</v>
+        <v>1.030436221810959</v>
       </c>
       <c r="E9">
-        <v>1.018983577798278</v>
+        <v>1.019116267681914</v>
       </c>
       <c r="F9">
-        <v>1.028915333328184</v>
+        <v>1.028951775705282</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048164737072806</v>
+        <v>1.047467154803534</v>
       </c>
       <c r="J9">
-        <v>1.028456770508938</v>
+        <v>1.02863427240567</v>
       </c>
       <c r="K9">
-        <v>1.04537861343146</v>
+        <v>1.043054065297532</v>
       </c>
       <c r="L9">
-        <v>1.031775989019609</v>
+        <v>1.031906627680054</v>
       </c>
       <c r="M9">
-        <v>1.041556074080584</v>
+        <v>1.041591966802776</v>
       </c>
       <c r="N9">
-        <v>1.012811442740479</v>
+        <v>1.014428867459631</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.041461235062795</v>
+        <v>1.041489641707499</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.043176526209878</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.041543590022981</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.023683181050441</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9957127912463787</v>
+        <v>0.996153523118025</v>
       </c>
       <c r="D10">
-        <v>1.029791930352121</v>
+        <v>1.027732028172123</v>
       </c>
       <c r="E10">
-        <v>1.013368452208128</v>
+        <v>1.013712553343849</v>
       </c>
       <c r="F10">
-        <v>1.023771182441825</v>
+        <v>1.023976171180017</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.046618687646844</v>
+        <v>1.046076164835856</v>
       </c>
       <c r="J10">
-        <v>1.02409754505436</v>
+        <v>1.024520587583711</v>
       </c>
       <c r="K10">
-        <v>1.043643339267289</v>
+        <v>1.041617996500271</v>
       </c>
       <c r="L10">
-        <v>1.027500458508527</v>
+        <v>1.0278385598871</v>
       </c>
       <c r="M10">
-        <v>1.037724107235682</v>
+        <v>1.037925614315566</v>
       </c>
       <c r="N10">
-        <v>1.011288500324785</v>
+        <v>1.013407319358972</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.038479926169173</v>
+        <v>1.038639396003074</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.041966270999144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.040546572713243</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.023442348985558</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9933302181171548</v>
+        <v>0.9939388076881772</v>
       </c>
       <c r="D11">
-        <v>1.028749826629458</v>
+        <v>1.026801558034562</v>
       </c>
       <c r="E11">
-        <v>1.011846853244105</v>
+        <v>1.012330600826804</v>
       </c>
       <c r="F11">
-        <v>1.02274665959179</v>
+        <v>1.023063450364794</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.046281893369066</v>
+        <v>1.045820057953245</v>
       </c>
       <c r="J11">
-        <v>1.022983124509925</v>
+        <v>1.023565931490982</v>
       </c>
       <c r="K11">
-        <v>1.043149193229512</v>
+        <v>1.041235137711029</v>
       </c>
       <c r="L11">
-        <v>1.026548760824353</v>
+        <v>1.027023667143919</v>
       </c>
       <c r="M11">
-        <v>1.037251988807158</v>
+        <v>1.037563147535974</v>
       </c>
       <c r="N11">
-        <v>1.010984403301409</v>
+        <v>1.013443671788438</v>
       </c>
       <c r="O11">
-        <v>1.030000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.038542473623493</v>
+        <v>1.038788596440218</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.041649449481961</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.040311675870752</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.023407704828518</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.992772868936316</v>
+        <v>0.9934364152242635</v>
       </c>
       <c r="D12">
-        <v>1.028450208543157</v>
+        <v>1.026528606449667</v>
       </c>
       <c r="E12">
-        <v>1.011646922005464</v>
+        <v>1.012175564823664</v>
       </c>
       <c r="F12">
-        <v>1.022832357927772</v>
+        <v>1.023185628609264</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.046290159898249</v>
+        <v>1.045852300197871</v>
       </c>
       <c r="J12">
-        <v>1.022886274908553</v>
+        <v>1.023521179016828</v>
       </c>
       <c r="K12">
-        <v>1.043051917769864</v>
+        <v>1.041164617473856</v>
       </c>
       <c r="L12">
-        <v>1.026554336133038</v>
+        <v>1.027073159578566</v>
       </c>
       <c r="M12">
-        <v>1.037534820458956</v>
+        <v>1.037881713030752</v>
       </c>
       <c r="N12">
-        <v>1.011020054010522</v>
+        <v>1.013588619369634</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.039092473127051</v>
+        <v>1.039366768187007</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.04158067372827</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.040261817475187</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.023415527661552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9935890645849016</v>
+        <v>0.994203818686619</v>
       </c>
       <c r="D13">
-        <v>1.028722203161516</v>
+        <v>1.026757670958205</v>
       </c>
       <c r="E13">
-        <v>1.012457120461823</v>
+        <v>1.012943589546544</v>
       </c>
       <c r="F13">
-        <v>1.023793129533874</v>
+        <v>1.024113823316123</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.046575632248005</v>
+        <v>1.046112076915769</v>
       </c>
       <c r="J13">
-        <v>1.023573623363301</v>
+        <v>1.024161998727956</v>
       </c>
       <c r="K13">
-        <v>1.043276811750281</v>
+        <v>1.041347208642906</v>
       </c>
       <c r="L13">
-        <v>1.027306244816354</v>
+        <v>1.027783726442201</v>
       </c>
       <c r="M13">
-        <v>1.038435706048574</v>
+        <v>1.038750643031521</v>
       </c>
       <c r="N13">
-        <v>1.011323599037319</v>
+        <v>1.01378989416055</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.040081290129958</v>
+        <v>1.04033025478931</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.04173720800112</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.040388195888666</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.023462970175232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,105 +1183,123 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9947778231793843</v>
+        <v>0.9953125835756252</v>
       </c>
       <c r="D14">
-        <v>1.029174549808165</v>
+        <v>1.02714899673709</v>
       </c>
       <c r="E14">
-        <v>1.013476624782821</v>
+        <v>1.01389546545219</v>
       </c>
       <c r="F14">
-        <v>1.024857137536431</v>
+        <v>1.025124823342597</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.046900092950678</v>
+        <v>1.046396858169452</v>
       </c>
       <c r="J14">
-        <v>1.024405443291201</v>
+        <v>1.024917607932379</v>
       </c>
       <c r="K14">
-        <v>1.043582756273501</v>
+        <v>1.041592785116478</v>
       </c>
       <c r="L14">
-        <v>1.028165431144797</v>
+        <v>1.028576638222178</v>
       </c>
       <c r="M14">
-        <v>1.039341405915053</v>
+        <v>1.039604351606792</v>
       </c>
       <c r="N14">
-        <v>1.011655811166193</v>
+        <v>1.013956847929979</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.040970409562135</v>
+        <v>1.041178245984324</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.041954929066319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.040563372336788</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.023515051698324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C15">
-        <v>0.9953712345900305</v>
+        <v>0.9958652872696038</v>
       </c>
       <c r="D15">
-        <v>1.029415918166992</v>
+        <v>1.027360369440451</v>
       </c>
       <c r="E15">
-        <v>1.013953791177092</v>
+        <v>1.014338546751734</v>
       </c>
       <c r="F15">
-        <v>1.025322363927377</v>
+        <v>1.025563178230976</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047043665822801</v>
+        <v>1.046520538184251</v>
       </c>
       <c r="J15">
-        <v>1.024785588594111</v>
+        <v>1.025258955700009</v>
       </c>
       <c r="K15">
-        <v>1.043734656831885</v>
+        <v>1.041714950642677</v>
       </c>
       <c r="L15">
-        <v>1.028546778008016</v>
+        <v>1.028924577371301</v>
       </c>
       <c r="M15">
-        <v>1.039712665645558</v>
+        <v>1.039949249564914</v>
       </c>
       <c r="N15">
-        <v>1.011797862942417</v>
+        <v>1.014015413737595</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.041301356068199</v>
+        <v>1.041488350833472</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.042068144744228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.040656139695782</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02353855159462</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9983015173038378</v>
+        <v>0.998607821721431</v>
       </c>
       <c r="D16">
-        <v>1.030633894224019</v>
+        <v>1.02843920980077</v>
       </c>
       <c r="E16">
-        <v>1.016176036438651</v>
+        <v>1.016405109714653</v>
       </c>
       <c r="F16">
-        <v>1.02734301306019</v>
+        <v>1.027460344281658</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.047655075239416</v>
+        <v>1.047040106639855</v>
       </c>
       <c r="J16">
-        <v>1.026505684241338</v>
+        <v>1.026799821619946</v>
       </c>
       <c r="K16">
-        <v>1.044436107995053</v>
+        <v>1.042278065757737</v>
       </c>
       <c r="L16">
-        <v>1.030223404547153</v>
+        <v>1.030448523220652</v>
       </c>
       <c r="M16">
-        <v>1.041200246569412</v>
+        <v>1.041315608336884</v>
       </c>
       <c r="N16">
-        <v>1.01238606479858</v>
+        <v>1.014220900505619</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.042438466959005</v>
+        <v>1.042529650961008</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.042567229695835</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.041057724026408</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.023631792776395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9999276778428546</v>
+        <v>1.000146908549774</v>
       </c>
       <c r="D17">
-        <v>1.031334622989805</v>
+        <v>1.029068145512111</v>
       </c>
       <c r="E17">
-        <v>1.017347752991578</v>
+        <v>1.017505182566547</v>
       </c>
       <c r="F17">
-        <v>1.028331511551736</v>
+        <v>1.028391606190516</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.04795246661116</v>
+        <v>1.047292687322204</v>
       </c>
       <c r="J17">
-        <v>1.027388635568354</v>
+        <v>1.027599442449196</v>
       </c>
       <c r="K17">
-        <v>1.044814677894318</v>
+        <v>1.042585003541971</v>
       </c>
       <c r="L17">
-        <v>1.031058299844322</v>
+        <v>1.031213089660219</v>
       </c>
       <c r="M17">
-        <v>1.04186037595243</v>
+        <v>1.041919490282817</v>
       </c>
       <c r="N17">
-        <v>1.012662851116434</v>
+        <v>1.01432225083074</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.042831396485108</v>
+        <v>1.042878126157599</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.042837456627137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.041277557475813</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.023676323050975</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000568533633186</v>
+        <v>1.000760249077002</v>
       </c>
       <c r="D18">
-        <v>1.031638434679238</v>
+        <v>1.029348290569056</v>
       </c>
       <c r="E18">
-        <v>1.017693204919343</v>
+        <v>1.017828474954448</v>
       </c>
       <c r="F18">
-        <v>1.028471376336652</v>
+        <v>1.02851312015862</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.04799555609781</v>
+        <v>1.047320741492775</v>
       </c>
       <c r="J18">
-        <v>1.027610079645115</v>
+        <v>1.027794565852527</v>
       </c>
       <c r="K18">
-        <v>1.04493251528374</v>
+        <v>1.042678959465491</v>
       </c>
       <c r="L18">
-        <v>1.031213363022782</v>
+        <v>1.031346401803946</v>
       </c>
       <c r="M18">
-        <v>1.041816110514913</v>
+        <v>1.041857184088723</v>
       </c>
       <c r="N18">
-        <v>1.01268711565221</v>
+        <v>1.014293932043585</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.042559086444732</v>
+        <v>1.042591561708804</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.042909235923932</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.041331306622066</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.023677085733473</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000325416696441</v>
+        <v>1.000531812540138</v>
       </c>
       <c r="D19">
-        <v>1.031612433269713</v>
+        <v>1.029337123233414</v>
       </c>
       <c r="E19">
-        <v>1.017293809680913</v>
+        <v>1.017441826248358</v>
       </c>
       <c r="F19">
-        <v>1.027840542781709</v>
+        <v>1.027891426872368</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.047822438853792</v>
+        <v>1.047154770992941</v>
       </c>
       <c r="J19">
-        <v>1.027241580440389</v>
+        <v>1.02744023384798</v>
       </c>
       <c r="K19">
-        <v>1.044845186734852</v>
+        <v>1.042606036202721</v>
       </c>
       <c r="L19">
-        <v>1.030757580581655</v>
+        <v>1.030903166271349</v>
       </c>
       <c r="M19">
-        <v>1.041133351491228</v>
+        <v>1.041183421655994</v>
       </c>
       <c r="N19">
-        <v>1.012493011814022</v>
+        <v>1.014133706209905</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.041694226707825</v>
+        <v>1.041733828117097</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.042853831946787</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.041286717689411</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.023646279754099</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9976194201829478</v>
+        <v>0.9979545713595521</v>
       </c>
       <c r="D20">
-        <v>1.030615455386021</v>
+        <v>1.028464948625712</v>
       </c>
       <c r="E20">
-        <v>1.014836591121602</v>
+        <v>1.015092376461813</v>
       </c>
       <c r="F20">
-        <v>1.025116022500681</v>
+        <v>1.02525098383032</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047040132515284</v>
+        <v>1.046441863079243</v>
       </c>
       <c r="J20">
-        <v>1.02524241863131</v>
+        <v>1.025564569190558</v>
       </c>
       <c r="K20">
-        <v>1.044140514941102</v>
+        <v>1.042025085029459</v>
       </c>
       <c r="L20">
-        <v>1.028623479093048</v>
+        <v>1.028874936278376</v>
       </c>
       <c r="M20">
-        <v>1.03873116016053</v>
+        <v>1.038863896006365</v>
       </c>
       <c r="N20">
-        <v>1.011693100309505</v>
+        <v>1.013598654953722</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.039266353511672</v>
+        <v>1.039371400006447</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.042359491773375</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.040880240480921</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.023516179397147</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9919642499108757</v>
+        <v>0.992683777159979</v>
       </c>
       <c r="D21">
-        <v>1.028312715921039</v>
+        <v>1.02644189811719</v>
       </c>
       <c r="E21">
-        <v>1.010440636683848</v>
+        <v>1.011020088534847</v>
       </c>
       <c r="F21">
-        <v>1.021021477576618</v>
+        <v>1.02141279883939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.045794978283593</v>
+        <v>1.045386602364372</v>
       </c>
       <c r="J21">
-        <v>1.02180182736704</v>
+        <v>1.022490603711541</v>
       </c>
       <c r="K21">
-        <v>1.042776840672452</v>
+        <v>1.040939058974158</v>
       </c>
       <c r="L21">
-        <v>1.02522687143412</v>
+        <v>1.025795647022743</v>
       </c>
       <c r="M21">
-        <v>1.035615243728151</v>
+        <v>1.035999546071331</v>
       </c>
       <c r="N21">
-        <v>1.010474814675001</v>
+        <v>1.01316718268023</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.03675945705022</v>
+        <v>1.037063608112286</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.041398528728916</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.040115904917384</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02332938047152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.988374893965429</v>
+        <v>0.9893406594623321</v>
       </c>
       <c r="D22">
-        <v>1.026841406363548</v>
+        <v>1.025150382652483</v>
       </c>
       <c r="E22">
-        <v>1.007677378837374</v>
+        <v>1.008465102133685</v>
       </c>
       <c r="F22">
-        <v>1.018474302589678</v>
+        <v>1.019030995135796</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.045002705234394</v>
+        <v>1.044717259812013</v>
       </c>
       <c r="J22">
-        <v>1.019633942401533</v>
+        <v>1.020555937324758</v>
       </c>
       <c r="K22">
-        <v>1.041899245949974</v>
+        <v>1.040239545124008</v>
       </c>
       <c r="L22">
-        <v>1.023098264317446</v>
+        <v>1.023870708468714</v>
       </c>
       <c r="M22">
-        <v>1.033688453908348</v>
+        <v>1.034234642342687</v>
       </c>
       <c r="N22">
-        <v>1.009709857684812</v>
+        <v>1.012895015422888</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.035234522489239</v>
+        <v>1.035666797070413</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.040764650170868</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.039606618437691</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023206247435054</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9902821678373936</v>
+        <v>0.9910954025385635</v>
       </c>
       <c r="D23">
-        <v>1.027606706155631</v>
+        <v>1.025815652712399</v>
       </c>
       <c r="E23">
-        <v>1.009143998247119</v>
+        <v>1.009802173312285</v>
       </c>
       <c r="F23">
-        <v>1.019826589136801</v>
+        <v>1.020280461016941</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.045419332686001</v>
+        <v>1.0450604729356</v>
       </c>
       <c r="J23">
-        <v>1.020784773153117</v>
+        <v>1.021562271680652</v>
       </c>
       <c r="K23">
-        <v>1.042349790458432</v>
+        <v>1.040591090660752</v>
       </c>
       <c r="L23">
-        <v>1.024227794513238</v>
+        <v>1.024873543748321</v>
       </c>
       <c r="M23">
-        <v>1.034711288954588</v>
+        <v>1.035156822078927</v>
       </c>
       <c r="N23">
-        <v>1.010114414884876</v>
+        <v>1.012991234787628</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.036044033357017</v>
+        <v>1.036396645062837</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.041073650084253</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.039844674816748</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.023265725713863</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9976240504855411</v>
+        <v>0.9979596636477783</v>
       </c>
       <c r="D24">
-        <v>1.0306014333405</v>
+        <v>1.028452950641702</v>
       </c>
       <c r="E24">
-        <v>1.014809632008555</v>
+        <v>1.015065944562761</v>
       </c>
       <c r="F24">
-        <v>1.025055633377252</v>
+        <v>1.025190891131061</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047017219511772</v>
+        <v>1.046419663215395</v>
       </c>
       <c r="J24">
-        <v>1.025213868399862</v>
+        <v>1.025536481499334</v>
       </c>
       <c r="K24">
-        <v>1.04411165165902</v>
+        <v>1.041998169131014</v>
       </c>
       <c r="L24">
-        <v>1.02858157130147</v>
+        <v>1.028833552053703</v>
       </c>
       <c r="M24">
-        <v>1.03865658155012</v>
+        <v>1.038789611450221</v>
       </c>
       <c r="N24">
-        <v>1.011673311485615</v>
+        <v>1.013579355178629</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.039166480534916</v>
+        <v>1.03927176496898</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.042311915724023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.040831343675084</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.023505817989101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.00581250469125</v>
+        <v>1.005904371945343</v>
       </c>
       <c r="D25">
-        <v>1.033985889877657</v>
+        <v>1.031510116092741</v>
       </c>
       <c r="E25">
-        <v>1.021163970259161</v>
+        <v>1.021220846468206</v>
       </c>
       <c r="F25">
-        <v>1.030932297613601</v>
+        <v>1.030908333689442</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.048768901414183</v>
+        <v>1.048013217960447</v>
       </c>
       <c r="J25">
-        <v>1.030145825854273</v>
+        <v>1.030234651259753</v>
       </c>
       <c r="K25">
-        <v>1.046078570978465</v>
+        <v>1.043638206228632</v>
       </c>
       <c r="L25">
-        <v>1.03344239218605</v>
+        <v>1.033498431398135</v>
       </c>
       <c r="M25">
-        <v>1.043068682828239</v>
+        <v>1.043045063181037</v>
       </c>
       <c r="N25">
-        <v>1.013407497716396</v>
+        <v>1.014844067802852</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.042658360886231</v>
+        <v>1.042639667574637</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.043699771052784</v>
+        <v>1.041987782794908</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.023784034661817</v>
       </c>
     </row>
   </sheetData>
